--- a/data/metadata/RNAseq_modified_METADATA2022.xlsx
+++ b/data/metadata/RNAseq_modified_METADATA2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphamanae/Documents/GitHub/BPRI-RNASeq/data/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphamanae/Documents/GitHub/locust-phase-transition-RNAseq/data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C0418B-D784-2348-96EF-BE0346606755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD980DB-41C2-1D4D-A853-D85922418309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="1420" windowWidth="53000" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23600" yWindow="2400" windowWidth="40480" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SraRunTable_RNAseq" sheetId="1" r:id="rId1"/>
@@ -4264,10 +4264,10 @@
   <dimension ref="A1:AS180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A155" activeCellId="34" sqref="A87:XFD87 A89:XFD89 A91:XFD91 A93:XFD93 A95:XFD95 A97:XFD97 A99:XFD99 A101:XFD101 A103:XFD103 A105:XFD105 A107:XFD107 A109:XFD109 A111:XFD111 A113:XFD113 A115:XFD115 A117:XFD117 A119:XFD119 A121:XFD121 A123:XFD123 A125:XFD125 A127:XFD127 A129:XFD129 A131:XFD131 A133:XFD133 A135:XFD135 A137:XFD137 A139:XFD139 A141:XFD141 A143:XFD143 A145:XFD145 A147:XFD147 A149:XFD149 A151:XFD151 A153:XFD153 A155:XFD155"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4560,25 +4560,25 @@
         <v>12043959</v>
       </c>
       <c r="AI2" s="7">
-        <f>AH2*100/AF2</f>
+        <f t="shared" ref="AI2:AI33" si="0">AH2*100/AF2</f>
         <v>33.823714267612431</v>
       </c>
       <c r="AJ2" s="1">
         <v>2685635</v>
       </c>
       <c r="AK2" s="7">
-        <f>AJ2*100/AF2</f>
+        <f t="shared" ref="AK2:AK21" si="1">AJ2*100/AF2</f>
         <v>7.5422168796073876</v>
       </c>
       <c r="AL2" s="1">
         <v>3302558</v>
       </c>
       <c r="AM2" s="7">
-        <f>AL2*100/AF2</f>
+        <f t="shared" ref="AM2:AM33" si="2">AL2*100/AF2</f>
         <v>9.2747557629694342</v>
       </c>
       <c r="AN2" s="7">
-        <f>SUM(AI2,AK2,AM2)</f>
+        <f t="shared" ref="AN2:AN33" si="3">SUM(AI2,AK2,AM2)</f>
         <v>50.640686910189253</v>
       </c>
       <c r="AO2" s="1">
@@ -4588,14 +4588,14 @@
         <v>10121375</v>
       </c>
       <c r="AQ2" s="7">
-        <f>AP2*100/AF2</f>
+        <f t="shared" ref="AQ2:AQ33" si="4">AP2*100/AF2</f>
         <v>28.424415592526991</v>
       </c>
       <c r="AR2" s="1">
         <v>7454505</v>
       </c>
       <c r="AS2" s="7">
-        <f>AR2*100/AF2</f>
+        <f t="shared" ref="AS2:AS33" si="5">AR2*100/AF2</f>
         <v>20.93489749728376</v>
       </c>
     </row>
@@ -4703,25 +4703,25 @@
         <v>14628122</v>
       </c>
       <c r="AI3" s="7">
-        <f>AH3*100/AF3</f>
+        <f t="shared" si="0"/>
         <v>31.382992177723569</v>
       </c>
       <c r="AJ3" s="1">
         <v>4266504</v>
       </c>
       <c r="AK3" s="7">
-        <f>AJ3*100/AF3</f>
+        <f t="shared" si="1"/>
         <v>9.1533049600096525</v>
       </c>
       <c r="AL3" s="1">
         <v>5444839</v>
       </c>
       <c r="AM3" s="7">
-        <f>AL3*100/AF3</f>
+        <f t="shared" si="2"/>
         <v>11.681290308213468</v>
       </c>
       <c r="AN3" s="7">
-        <f>SUM(AI3,AK3,AM3)</f>
+        <f t="shared" si="3"/>
         <v>52.217587445946691</v>
       </c>
       <c r="AO3" s="1">
@@ -4731,14 +4731,14 @@
         <v>14183394</v>
       </c>
       <c r="AQ3" s="7">
-        <f>AP3*100/AF3</f>
+        <f t="shared" si="4"/>
         <v>30.428878222069205</v>
       </c>
       <c r="AR3" s="1">
         <v>8088764</v>
       </c>
       <c r="AS3" s="7">
-        <f>AR3*100/AF3</f>
+        <f t="shared" si="5"/>
         <v>17.353534331984108</v>
       </c>
     </row>
@@ -4846,25 +4846,25 @@
         <v>18439748</v>
       </c>
       <c r="AI4" s="7">
-        <f>AH4*100/AF4</f>
+        <f t="shared" si="0"/>
         <v>44.508574570972151</v>
       </c>
       <c r="AJ4" s="1">
         <v>2723686</v>
       </c>
       <c r="AK4" s="7">
-        <f>AJ4*100/AF4</f>
+        <f t="shared" si="1"/>
         <v>6.5742428496806378</v>
       </c>
       <c r="AL4" s="1">
         <v>2962980</v>
       </c>
       <c r="AM4" s="7">
-        <f>AL4*100/AF4</f>
+        <f t="shared" si="2"/>
         <v>7.1518339774653672</v>
       </c>
       <c r="AN4" s="7">
-        <f>SUM(AI4,AK4,AM4)</f>
+        <f t="shared" si="3"/>
         <v>58.234651398118153</v>
       </c>
       <c r="AO4" s="1">
@@ -4874,14 +4874,14 @@
         <v>10747945</v>
       </c>
       <c r="AQ4" s="7">
-        <f>AP4*100/AF4</f>
+        <f t="shared" si="4"/>
         <v>25.942638235468689</v>
       </c>
       <c r="AR4" s="1">
         <v>6555294</v>
       </c>
       <c r="AS4" s="7">
-        <f>AR4*100/AF4</f>
+        <f t="shared" si="5"/>
         <v>15.822710366413158</v>
       </c>
     </row>
@@ -4989,25 +4989,25 @@
         <v>13645183</v>
       </c>
       <c r="AI5" s="7">
-        <f>AH5*100/AF5</f>
+        <f t="shared" si="0"/>
         <v>33.087206133415236</v>
       </c>
       <c r="AJ5" s="1">
         <v>3427366</v>
       </c>
       <c r="AK5" s="7">
-        <f>AJ5*100/AF5</f>
+        <f t="shared" si="1"/>
         <v>8.3107691070657559</v>
       </c>
       <c r="AL5" s="1">
         <v>4059968</v>
       </c>
       <c r="AM5" s="7">
-        <f>AL5*100/AF5</f>
+        <f t="shared" si="2"/>
         <v>9.8447194230425179</v>
       </c>
       <c r="AN5" s="7">
-        <f>SUM(AI5,AK5,AM5)</f>
+        <f t="shared" si="3"/>
         <v>51.242694663523508</v>
       </c>
       <c r="AO5" s="1">
@@ -5017,14 +5017,14 @@
         <v>10843719</v>
       </c>
       <c r="AQ5" s="7">
-        <f>AP5*100/AF5</f>
+        <f t="shared" si="4"/>
         <v>26.29414100242051</v>
       </c>
       <c r="AR5" s="1">
         <v>9263822</v>
       </c>
       <c r="AS5" s="7">
-        <f>AR5*100/AF5</f>
+        <f t="shared" si="5"/>
         <v>22.463164334055982</v>
       </c>
     </row>
@@ -5132,25 +5132,25 @@
         <v>33981864</v>
       </c>
       <c r="AI6" s="7">
-        <f>AH6*100/AF6</f>
+        <f t="shared" si="0"/>
         <v>26.786758513354965</v>
       </c>
       <c r="AJ6" s="1">
         <v>13721849</v>
       </c>
       <c r="AK6" s="7">
-        <f>AJ6*100/AF6</f>
+        <f t="shared" si="1"/>
         <v>10.816471265958846</v>
       </c>
       <c r="AL6" s="1">
         <v>16674481</v>
       </c>
       <c r="AM6" s="7">
-        <f>AL6*100/AF6</f>
+        <f t="shared" si="2"/>
         <v>13.143931594880305</v>
       </c>
       <c r="AN6" s="7">
-        <f>SUM(AI6,AK6,AM6)</f>
+        <f t="shared" si="3"/>
         <v>50.747161374194114</v>
       </c>
       <c r="AO6" s="1">
@@ -5160,14 +5160,14 @@
         <v>38098262</v>
       </c>
       <c r="AQ6" s="7">
-        <f>AP6*100/AF6</f>
+        <f t="shared" si="4"/>
         <v>30.031576371811976</v>
       </c>
       <c r="AR6" s="1">
         <v>24384224</v>
       </c>
       <c r="AS6" s="7">
-        <f>AR6*100/AF6</f>
+        <f t="shared" si="5"/>
         <v>19.22126225399391</v>
       </c>
     </row>
@@ -5275,25 +5275,25 @@
         <v>14486814</v>
       </c>
       <c r="AI7" s="7">
-        <f>AH7*100/AF7</f>
+        <f t="shared" si="0"/>
         <v>43.858493795155951</v>
       </c>
       <c r="AJ7" s="1">
         <v>2182048</v>
       </c>
       <c r="AK7" s="7">
-        <f>AJ7*100/AF7</f>
+        <f t="shared" si="1"/>
         <v>6.6060997724366759</v>
       </c>
       <c r="AL7" s="1">
         <v>2466379</v>
       </c>
       <c r="AM7" s="7">
-        <f>AL7*100/AF7</f>
+        <f t="shared" si="2"/>
         <v>7.46690528835415</v>
       </c>
       <c r="AN7" s="7">
-        <f>SUM(AI7,AK7,AM7)</f>
+        <f t="shared" si="3"/>
         <v>57.931498855946778</v>
       </c>
       <c r="AO7" s="1">
@@ -5303,14 +5303,14 @@
         <v>8962200</v>
       </c>
       <c r="AQ7" s="7">
-        <f>AP7*100/AF7</f>
+        <f t="shared" si="4"/>
         <v>27.132852888906193</v>
       </c>
       <c r="AR7" s="1">
         <v>4933365</v>
       </c>
       <c r="AS7" s="7">
-        <f>AR7*100/AF7</f>
+        <f t="shared" si="5"/>
         <v>14.935648255147029</v>
       </c>
     </row>
@@ -5418,25 +5418,25 @@
         <v>15632820</v>
       </c>
       <c r="AI8" s="7">
-        <f>AH8*100/AF8</f>
+        <f t="shared" si="0"/>
         <v>37.453689966461873</v>
       </c>
       <c r="AJ8" s="1">
         <v>2918060</v>
       </c>
       <c r="AK8" s="7">
-        <f>AJ8*100/AF8</f>
+        <f t="shared" si="1"/>
         <v>6.9911963768234866</v>
       </c>
       <c r="AL8" s="1">
         <v>3617942</v>
       </c>
       <c r="AM8" s="7">
-        <f>AL8*100/AF8</f>
+        <f t="shared" si="2"/>
         <v>8.6679996305619209</v>
       </c>
       <c r="AN8" s="7">
-        <f>SUM(AI8,AK8,AM8)</f>
+        <f t="shared" si="3"/>
         <v>53.112885973847284</v>
       </c>
       <c r="AO8" s="1">
@@ -5446,14 +5446,14 @@
         <v>12290423</v>
       </c>
       <c r="AQ8" s="7">
-        <f>AP8*100/AF8</f>
+        <f t="shared" si="4"/>
         <v>29.445851266673081</v>
       </c>
       <c r="AR8" s="1">
         <v>7279820</v>
       </c>
       <c r="AS8" s="7">
-        <f>AR8*100/AF8</f>
+        <f t="shared" si="5"/>
         <v>17.441262759479638</v>
       </c>
     </row>
@@ -5561,25 +5561,25 @@
         <v>14601963</v>
       </c>
       <c r="AI9" s="7">
-        <f>AH9*100/AF9</f>
+        <f t="shared" si="0"/>
         <v>36.590231345719296</v>
       </c>
       <c r="AJ9" s="1">
         <v>2963155</v>
       </c>
       <c r="AK9" s="7">
-        <f>AJ9*100/AF9</f>
+        <f t="shared" si="1"/>
         <v>7.4252021432477857</v>
       </c>
       <c r="AL9" s="1">
         <v>3600802</v>
       </c>
       <c r="AM9" s="7">
-        <f>AL9*100/AF9</f>
+        <f t="shared" si="2"/>
         <v>9.023045614492295</v>
       </c>
       <c r="AN9" s="7">
-        <f>SUM(AI9,AK9,AM9)</f>
+        <f t="shared" si="3"/>
         <v>53.03847910345938</v>
       </c>
       <c r="AO9" s="1">
@@ -5589,14 +5589,14 @@
         <v>11323493</v>
       </c>
       <c r="AQ9" s="7">
-        <f>AP9*100/AF9</f>
+        <f t="shared" si="4"/>
         <v>28.374899218114241</v>
       </c>
       <c r="AR9" s="1">
         <v>7417312</v>
       </c>
       <c r="AS9" s="7">
-        <f>AR9*100/AF9</f>
+        <f t="shared" si="5"/>
         <v>18.586621678426379</v>
       </c>
     </row>
@@ -5704,25 +5704,25 @@
         <v>12714970</v>
       </c>
       <c r="AI10" s="7">
-        <f>AH10*100/AF10</f>
+        <f t="shared" si="0"/>
         <v>34.974700977291448</v>
       </c>
       <c r="AJ10" s="1">
         <v>2676465</v>
       </c>
       <c r="AK10" s="7">
-        <f>AJ10*100/AF10</f>
+        <f t="shared" si="1"/>
         <v>7.3620750226847846</v>
       </c>
       <c r="AL10" s="1">
         <v>3408533</v>
       </c>
       <c r="AM10" s="7">
-        <f>AL10*100/AF10</f>
+        <f t="shared" si="2"/>
         <v>9.3757533400574413</v>
       </c>
       <c r="AN10" s="7">
-        <f>SUM(AI10,AK10,AM10)</f>
+        <f t="shared" si="3"/>
         <v>51.712529340033676</v>
       </c>
       <c r="AO10" s="1">
@@ -5732,14 +5732,14 @@
         <v>10219454</v>
       </c>
       <c r="AQ10" s="7">
-        <f>AP10*100/AF10</f>
+        <f t="shared" si="4"/>
         <v>28.110357146040062</v>
       </c>
       <c r="AR10" s="1">
         <v>7335342</v>
       </c>
       <c r="AS10" s="7">
-        <f>AR10*100/AF10</f>
+        <f t="shared" si="5"/>
         <v>20.177113513926262</v>
       </c>
     </row>
@@ -5847,25 +5847,25 @@
         <v>40743176</v>
       </c>
       <c r="AI11" s="7">
-        <f>AH11*100/AF11</f>
+        <f t="shared" si="0"/>
         <v>38.285537384289597</v>
       </c>
       <c r="AJ11" s="1">
         <v>8465344</v>
       </c>
       <c r="AK11" s="7">
-        <f>AJ11*100/AF11</f>
+        <f t="shared" si="1"/>
         <v>7.9547123224480991</v>
       </c>
       <c r="AL11" s="1">
         <v>10444381</v>
       </c>
       <c r="AM11" s="7">
-        <f>AL11*100/AF11</f>
+        <f t="shared" si="2"/>
         <v>9.8143733132454862</v>
       </c>
       <c r="AN11" s="7">
-        <f>SUM(AI11,AK11,AM11)</f>
+        <f t="shared" si="3"/>
         <v>56.054623019983183</v>
       </c>
       <c r="AO11" s="1">
@@ -5875,14 +5875,14 @@
         <v>31164758</v>
       </c>
       <c r="AQ11" s="7">
-        <f>AP11*100/AF11</f>
+        <f t="shared" si="4"/>
         <v>29.284891965254214</v>
       </c>
       <c r="AR11" s="1">
         <v>15601576</v>
       </c>
       <c r="AS11" s="7">
-        <f>AR11*100/AF11</f>
+        <f t="shared" si="5"/>
         <v>14.660485014762603</v>
       </c>
     </row>
@@ -5990,25 +5990,25 @@
         <v>7085682</v>
       </c>
       <c r="AI12" s="7">
-        <f>AH12*100/AF12</f>
+        <f t="shared" si="0"/>
         <v>19.673860174049565</v>
       </c>
       <c r="AJ12" s="1">
         <v>3029888</v>
       </c>
       <c r="AK12" s="7">
-        <f>AJ12*100/AF12</f>
+        <f t="shared" si="1"/>
         <v>8.4126824849083945</v>
       </c>
       <c r="AL12" s="1">
         <v>4188693</v>
       </c>
       <c r="AM12" s="7">
-        <f>AL12*100/AF12</f>
+        <f t="shared" si="2"/>
         <v>11.630180467317075</v>
       </c>
       <c r="AN12" s="7">
-        <f>SUM(AI12,AK12,AM12)</f>
+        <f t="shared" si="3"/>
         <v>39.716723126275035</v>
       </c>
       <c r="AO12" s="1">
@@ -6018,14 +6018,14 @@
         <v>11357449</v>
       </c>
       <c r="AQ12" s="7">
-        <f>AP12*100/AF12</f>
+        <f t="shared" si="4"/>
         <v>31.534701043583247</v>
       </c>
       <c r="AR12" s="1">
         <v>10354006</v>
       </c>
       <c r="AS12" s="7">
-        <f>AR12*100/AF12</f>
+        <f t="shared" si="5"/>
         <v>28.748575830141718</v>
       </c>
     </row>
@@ -6133,25 +6133,25 @@
         <v>20202761</v>
       </c>
       <c r="AI13" s="7">
-        <f>AH13*100/AF13</f>
+        <f t="shared" si="0"/>
         <v>45.526083748478605</v>
       </c>
       <c r="AJ13" s="1">
         <v>3067223</v>
       </c>
       <c r="AK13" s="7">
-        <f>AJ13*100/AF13</f>
+        <f t="shared" si="1"/>
         <v>6.9118597786342075</v>
       </c>
       <c r="AL13" s="1">
         <v>3560575</v>
       </c>
       <c r="AM13" s="7">
-        <f>AL13*100/AF13</f>
+        <f t="shared" si="2"/>
         <v>8.0236080426204719</v>
       </c>
       <c r="AN13" s="7">
-        <f>SUM(AI13,AK13,AM13)</f>
+        <f t="shared" si="3"/>
         <v>60.461551569733288</v>
       </c>
       <c r="AO13" s="1">
@@ -6161,14 +6161,14 @@
         <v>11787203</v>
       </c>
       <c r="AQ13" s="7">
-        <f>AP13*100/AF13</f>
+        <f t="shared" si="4"/>
         <v>26.561972937180133</v>
       </c>
       <c r="AR13" s="1">
         <v>5758471</v>
       </c>
       <c r="AS13" s="7">
-        <f>AR13*100/AF13</f>
+        <f t="shared" si="5"/>
         <v>12.97647549308658</v>
       </c>
     </row>
@@ -6276,25 +6276,25 @@
         <v>21322739</v>
       </c>
       <c r="AI14" s="7">
-        <f>AH14*100/AF14</f>
+        <f t="shared" si="0"/>
         <v>62.110874525875559</v>
       </c>
       <c r="AJ14" s="1">
         <v>1702198</v>
       </c>
       <c r="AK14" s="7">
-        <f>AJ14*100/AF14</f>
+        <f t="shared" si="1"/>
         <v>4.9583220240231016</v>
       </c>
       <c r="AL14" s="1">
         <v>1187339</v>
       </c>
       <c r="AM14" s="7">
-        <f>AL14*100/AF14</f>
+        <f t="shared" si="2"/>
         <v>3.4585924279558342</v>
       </c>
       <c r="AN14" s="7">
-        <f>SUM(AI14,AK14,AM14)</f>
+        <f t="shared" si="3"/>
         <v>70.527788977854499</v>
       </c>
       <c r="AO14" s="1">
@@ -6304,14 +6304,14 @@
         <v>7542110</v>
       </c>
       <c r="AQ14" s="7">
-        <f>AP14*100/AF14</f>
+        <f t="shared" si="4"/>
         <v>21.969365561823519</v>
       </c>
       <c r="AR14" s="1">
         <v>2575736</v>
       </c>
       <c r="AS14" s="7">
-        <f>AR14*100/AF14</f>
+        <f t="shared" si="5"/>
         <v>7.5028454603219874</v>
       </c>
     </row>
@@ -6419,25 +6419,25 @@
         <v>41097738</v>
       </c>
       <c r="AI15" s="7">
-        <f>AH15*100/AF15</f>
+        <f t="shared" si="0"/>
         <v>51.971725471147408</v>
       </c>
       <c r="AJ15" s="1">
         <v>4543820</v>
       </c>
       <c r="AK15" s="7">
-        <f>AJ15*100/AF15</f>
+        <f t="shared" si="1"/>
         <v>5.7460623655323566</v>
       </c>
       <c r="AL15" s="1">
         <v>4177816</v>
       </c>
       <c r="AM15" s="7">
-        <f>AL15*100/AF15</f>
+        <f t="shared" si="2"/>
         <v>5.2832179284652403</v>
       </c>
       <c r="AN15" s="7">
-        <f>SUM(AI15,AK15,AM15)</f>
+        <f t="shared" si="3"/>
         <v>63.001005765145003</v>
       </c>
       <c r="AO15" s="1">
@@ -6447,14 +6447,14 @@
         <v>19531646</v>
       </c>
       <c r="AQ15" s="7">
-        <f>AP15*100/AF15</f>
+        <f t="shared" si="4"/>
         <v>24.699494261986739</v>
       </c>
       <c r="AR15" s="1">
         <v>9726089</v>
       </c>
       <c r="AS15" s="7">
-        <f>AR15*100/AF15</f>
+        <f t="shared" si="5"/>
         <v>12.299499972868254</v>
       </c>
     </row>
@@ -6562,25 +6562,25 @@
         <v>9129088</v>
       </c>
       <c r="AI16" s="7">
-        <f>AH16*100/AF16</f>
+        <f t="shared" si="0"/>
         <v>23.853351146659957</v>
       </c>
       <c r="AJ16" s="1">
         <v>4090532</v>
       </c>
       <c r="AK16" s="7">
-        <f>AJ16*100/AF16</f>
+        <f t="shared" si="1"/>
         <v>10.688131845442749</v>
       </c>
       <c r="AL16" s="1">
         <v>4640461</v>
       </c>
       <c r="AM16" s="7">
-        <f>AL16*100/AF16</f>
+        <f t="shared" si="2"/>
         <v>12.12503874597121</v>
       </c>
       <c r="AN16" s="7">
-        <f>SUM(AI16,AK16,AM16)</f>
+        <f t="shared" si="3"/>
         <v>46.666521738073918</v>
       </c>
       <c r="AO16" s="1">
@@ -6590,14 +6590,14 @@
         <v>11082697</v>
       </c>
       <c r="AQ16" s="7">
-        <f>AP16*100/AF16</f>
+        <f t="shared" si="4"/>
         <v>28.957926924686767</v>
       </c>
       <c r="AR16" s="1">
         <v>9328943</v>
       </c>
       <c r="AS16" s="7">
-        <f>AR16*100/AF16</f>
+        <f t="shared" si="5"/>
         <v>24.375551337239315</v>
       </c>
     </row>
@@ -6705,25 +6705,25 @@
         <v>20813955</v>
       </c>
       <c r="AI17" s="7">
-        <f>AH17*100/AF17</f>
+        <f t="shared" si="0"/>
         <v>68.792149494581196</v>
       </c>
       <c r="AJ17" s="1">
         <v>1346851</v>
       </c>
       <c r="AK17" s="7">
-        <f>AJ17*100/AF17</f>
+        <f t="shared" si="1"/>
         <v>4.451473799137462</v>
       </c>
       <c r="AL17" s="1">
         <v>728359</v>
       </c>
       <c r="AM17" s="7">
-        <f>AL17*100/AF17</f>
+        <f t="shared" si="2"/>
         <v>2.4072974700734995</v>
       </c>
       <c r="AN17" s="7">
-        <f>SUM(AI17,AK17,AM17)</f>
+        <f t="shared" si="3"/>
         <v>75.650920763792158</v>
       </c>
       <c r="AO17" s="1">
@@ -6733,14 +6733,14 @@
         <v>6223197</v>
       </c>
       <c r="AQ17" s="7">
-        <f>AP17*100/AF17</f>
+        <f t="shared" si="4"/>
         <v>20.568272505548762</v>
       </c>
       <c r="AR17" s="1">
         <v>1143932</v>
       </c>
       <c r="AS17" s="7">
-        <f>AR17*100/AF17</f>
+        <f t="shared" si="5"/>
         <v>3.7808067306590822</v>
       </c>
     </row>
@@ -6848,25 +6848,25 @@
         <v>11975538</v>
       </c>
       <c r="AI18" s="7">
-        <f>AH18*100/AF18</f>
+        <f t="shared" si="0"/>
         <v>33.244388578490778</v>
       </c>
       <c r="AJ18" s="1">
         <v>2607684</v>
       </c>
       <c r="AK18" s="7">
-        <f>AJ18*100/AF18</f>
+        <f t="shared" si="1"/>
         <v>7.2389950402155749</v>
       </c>
       <c r="AL18" s="1">
         <v>3230572</v>
       </c>
       <c r="AM18" s="7">
-        <f>AL18*100/AF18</f>
+        <f t="shared" si="2"/>
         <v>8.9681474768642637</v>
       </c>
       <c r="AN18" s="7">
-        <f>SUM(AI18,AK18,AM18)</f>
+        <f t="shared" si="3"/>
         <v>49.451531095570616</v>
       </c>
       <c r="AO18" s="1">
@@ -6876,14 +6876,14 @@
         <v>9906815</v>
       </c>
       <c r="AQ18" s="7">
-        <f>AP18*100/AF18</f>
+        <f t="shared" si="4"/>
         <v>27.501562554869864</v>
       </c>
       <c r="AR18" s="1">
         <v>8302126</v>
       </c>
       <c r="AS18" s="7">
-        <f>AR18*100/AF18</f>
+        <f t="shared" si="5"/>
         <v>23.046906349559521</v>
       </c>
     </row>
@@ -6991,25 +6991,25 @@
         <v>18289218</v>
       </c>
       <c r="AI19" s="7">
-        <f>AH19*100/AF19</f>
+        <f t="shared" si="0"/>
         <v>60.78629453405479</v>
       </c>
       <c r="AJ19" s="1">
         <v>1625517</v>
       </c>
       <c r="AK19" s="7">
-        <f>AJ19*100/AF19</f>
+        <f t="shared" si="1"/>
         <v>5.4025904843013599</v>
       </c>
       <c r="AL19" s="1">
         <v>1187030</v>
       </c>
       <c r="AM19" s="7">
-        <f>AL19*100/AF19</f>
+        <f t="shared" si="2"/>
         <v>3.9452291071580565</v>
       </c>
       <c r="AN19" s="7">
-        <f>SUM(AI19,AK19,AM19)</f>
+        <f t="shared" si="3"/>
         <v>70.134114125514202</v>
       </c>
       <c r="AO19" s="1">
@@ -7019,14 +7019,14 @@
         <v>7008602</v>
       </c>
       <c r="AQ19" s="7">
-        <f>AP19*100/AF19</f>
+        <f t="shared" si="4"/>
         <v>23.293885252172373</v>
       </c>
       <c r="AR19" s="1">
         <v>1977366</v>
       </c>
       <c r="AS19" s="7">
-        <f>AR19*100/AF19</f>
+        <f t="shared" si="5"/>
         <v>6.5720006223134195</v>
       </c>
     </row>
@@ -7134,25 +7134,25 @@
         <v>37163802</v>
       </c>
       <c r="AI20" s="7">
-        <f>AH20*100/AF20</f>
+        <f t="shared" si="0"/>
         <v>57.179219775511747</v>
       </c>
       <c r="AJ20" s="1">
         <v>3959171</v>
       </c>
       <c r="AK20" s="7">
-        <f>AJ20*100/AF20</f>
+        <f t="shared" si="1"/>
         <v>6.0914733303614259</v>
       </c>
       <c r="AL20" s="1">
         <v>3516439</v>
       </c>
       <c r="AM20" s="7">
-        <f>AL20*100/AF20</f>
+        <f t="shared" si="2"/>
         <v>5.410297859411175</v>
       </c>
       <c r="AN20" s="7">
-        <f>SUM(AI20,AK20,AM20)</f>
+        <f t="shared" si="3"/>
         <v>68.680990965284352</v>
       </c>
       <c r="AO20" s="1">
@@ -7162,14 +7162,14 @@
         <v>13496426</v>
       </c>
       <c r="AQ20" s="7">
-        <f>AP20*100/AF20</f>
+        <f t="shared" si="4"/>
         <v>20.765235710757768</v>
       </c>
       <c r="AR20" s="1">
         <v>6859456</v>
       </c>
       <c r="AS20" s="7">
-        <f>AR20*100/AF20</f>
+        <f t="shared" si="5"/>
         <v>10.553773323957886</v>
       </c>
     </row>
@@ -7277,25 +7277,25 @@
         <v>11176950</v>
       </c>
       <c r="AI21" s="7">
-        <f>AH21*100/AF21</f>
+        <f t="shared" si="0"/>
         <v>20.097922291342417</v>
       </c>
       <c r="AJ21" s="1">
         <v>4581345</v>
       </c>
       <c r="AK21" s="7">
-        <f>AJ21*100/AF21</f>
+        <f t="shared" si="1"/>
         <v>8.2379822581142559</v>
       </c>
       <c r="AL21" s="1">
         <v>6288722</v>
       </c>
       <c r="AM21" s="7">
-        <f>AL21*100/AF21</f>
+        <f t="shared" si="2"/>
         <v>11.308115905310078</v>
       </c>
       <c r="AN21" s="7">
-        <f>SUM(AI21,AK21,AM21)</f>
+        <f t="shared" si="3"/>
         <v>39.644020454766746</v>
       </c>
       <c r="AO21" s="1">
@@ -7305,14 +7305,14 @@
         <v>20907805</v>
       </c>
       <c r="AQ21" s="7">
-        <f>AP21*100/AF21</f>
+        <f t="shared" si="4"/>
         <v>37.59553725949749</v>
       </c>
       <c r="AR21" s="1">
         <v>12657643</v>
       </c>
       <c r="AS21" s="7">
-        <f>AR21*100/AF21</f>
+        <f t="shared" si="5"/>
         <v>22.76044228573576</v>
       </c>
     </row>
@@ -7420,25 +7420,25 @@
         <v>19380819</v>
       </c>
       <c r="AI22" s="7">
-        <f>AH22*100/AF22</f>
+        <f t="shared" si="0"/>
         <v>83.358730578462342</v>
       </c>
       <c r="AJ22" s="1">
         <v>2453190</v>
       </c>
       <c r="AK22" s="7">
-        <f>AJ22*100/AH22</f>
+        <f t="shared" ref="AK22:AK42" si="6">AJ22*100/AH22</f>
         <v>12.65782421269194</v>
       </c>
       <c r="AL22" s="1">
         <v>544471</v>
       </c>
       <c r="AM22" s="7">
-        <f>AL22*100/AF22</f>
+        <f t="shared" si="2"/>
         <v>2.3418211272075742</v>
       </c>
       <c r="AN22" s="7">
-        <f>SUM(AI22,AK22,AM22)</f>
+        <f t="shared" si="3"/>
         <v>98.358375918361858</v>
       </c>
       <c r="AO22" s="1">
@@ -7448,14 +7448,14 @@
         <v>481349</v>
       </c>
       <c r="AQ22" s="7">
-        <f>AP22*100/AF22</f>
+        <f t="shared" si="4"/>
         <v>2.0703274513431178</v>
       </c>
       <c r="AR22" s="1">
         <v>390068</v>
       </c>
       <c r="AS22" s="7">
-        <f>AR22*100/AF22</f>
+        <f t="shared" si="5"/>
         <v>1.677719260433713</v>
       </c>
     </row>
@@ -7563,25 +7563,25 @@
         <v>12416905</v>
       </c>
       <c r="AI23" s="7">
-        <f>AH23*100/AF23</f>
+        <f t="shared" si="0"/>
         <v>80.743001260542044</v>
       </c>
       <c r="AJ23" s="1">
         <v>1724284</v>
       </c>
       <c r="AK23" s="7">
-        <f>AJ23*100/AH23</f>
+        <f t="shared" si="6"/>
         <v>13.886584458848642</v>
       </c>
       <c r="AL23" s="1">
         <v>387442</v>
       </c>
       <c r="AM23" s="7">
-        <f>AL23*100/AF23</f>
+        <f t="shared" si="2"/>
         <v>2.5194063975191026</v>
       </c>
       <c r="AN23" s="7">
-        <f>SUM(AI23,AK23,AM23)</f>
+        <f t="shared" si="3"/>
         <v>97.148992116909795</v>
       </c>
       <c r="AO23" s="1">
@@ -7591,14 +7591,14 @@
         <v>420629</v>
       </c>
       <c r="AQ23" s="7">
-        <f>AP23*100/AF23</f>
+        <f t="shared" si="4"/>
         <v>2.7352104149319447</v>
       </c>
       <c r="AR23" s="1">
         <v>429045</v>
       </c>
       <c r="AS23" s="7">
-        <f>AR23*100/AF23</f>
+        <f t="shared" si="5"/>
         <v>2.7899368623525156</v>
       </c>
     </row>
@@ -7706,25 +7706,25 @@
         <v>29431270</v>
       </c>
       <c r="AI24" s="7">
-        <f>AH24*100/AF24</f>
+        <f t="shared" si="0"/>
         <v>80.842908762207557</v>
       </c>
       <c r="AJ24" s="1">
         <v>3697299</v>
       </c>
       <c r="AK24" s="7">
-        <f>AJ24*100/AH24</f>
+        <f t="shared" si="6"/>
         <v>12.562485410925182</v>
       </c>
       <c r="AL24" s="1">
         <v>594321</v>
       </c>
       <c r="AM24" s="7">
-        <f>AL24*100/AF24</f>
+        <f t="shared" si="2"/>
         <v>1.6325030614874574</v>
       </c>
       <c r="AN24" s="7">
-        <f>SUM(AI24,AK24,AM24)</f>
+        <f t="shared" si="3"/>
         <v>95.037897234620189</v>
       </c>
       <c r="AO24" s="1">
@@ -7734,14 +7734,14 @@
         <v>1950585</v>
       </c>
       <c r="AQ24" s="7">
-        <f>AP24*100/AF24</f>
+        <f t="shared" si="4"/>
         <v>5.3579395380468</v>
       </c>
       <c r="AR24" s="1">
         <v>732031</v>
       </c>
       <c r="AS24" s="7">
-        <f>AR24*100/AF24</f>
+        <f t="shared" si="5"/>
         <v>2.0107700192382989</v>
       </c>
     </row>
@@ -7849,25 +7849,25 @@
         <v>26298503</v>
       </c>
       <c r="AI25" s="7">
-        <f>AH25*100/AF25</f>
+        <f t="shared" si="0"/>
         <v>81.087539536665318</v>
       </c>
       <c r="AJ25" s="1">
         <v>3191583</v>
       </c>
       <c r="AK25" s="7">
-        <f>AJ25*100/AH25</f>
+        <f t="shared" si="6"/>
         <v>12.135987360193088</v>
       </c>
       <c r="AL25" s="1">
         <v>601943</v>
       </c>
       <c r="AM25" s="7">
-        <f>AL25*100/AF25</f>
+        <f t="shared" si="2"/>
         <v>1.8560021006259912</v>
       </c>
       <c r="AN25" s="7">
-        <f>SUM(AI25,AK25,AM25)</f>
+        <f t="shared" si="3"/>
         <v>95.079528997484388</v>
       </c>
       <c r="AO25" s="1">
@@ -7877,14 +7877,14 @@
         <v>1225020</v>
       </c>
       <c r="AQ25" s="7">
-        <f>AP25*100/AF25</f>
+        <f t="shared" si="4"/>
         <v>3.7771677605833971</v>
       </c>
       <c r="AR25" s="1">
         <v>1115188</v>
       </c>
       <c r="AS25" s="7">
-        <f>AR25*100/AF25</f>
+        <f t="shared" si="5"/>
         <v>3.4385170532640101</v>
       </c>
     </row>
@@ -7992,25 +7992,25 @@
         <v>23554775</v>
       </c>
       <c r="AI26" s="7">
-        <f>AH26*100/AF26</f>
+        <f t="shared" si="0"/>
         <v>82.061767337843463</v>
       </c>
       <c r="AJ26" s="1">
         <v>2996231</v>
       </c>
       <c r="AK26" s="7">
-        <f>AJ26*100/AH26</f>
+        <f t="shared" si="6"/>
         <v>12.720270093855705</v>
       </c>
       <c r="AL26" s="1">
         <v>484639</v>
       </c>
       <c r="AM26" s="7">
-        <f>AL26*100/AF26</f>
+        <f t="shared" si="2"/>
         <v>1.6884191362832002</v>
       </c>
       <c r="AN26" s="7">
-        <f>SUM(AI26,AK26,AM26)</f>
+        <f t="shared" si="3"/>
         <v>96.470456567982367</v>
       </c>
       <c r="AO26" s="1">
@@ -8020,14 +8020,14 @@
         <v>1145504</v>
       </c>
       <c r="AQ26" s="7">
-        <f>AP26*100/AF26</f>
+        <f t="shared" si="4"/>
         <v>3.9907866974984492</v>
       </c>
       <c r="AR26" s="1">
         <v>522565</v>
       </c>
       <c r="AS26" s="7">
-        <f>AR26*100/AF26</f>
+        <f t="shared" si="5"/>
         <v>1.8205483792097428</v>
       </c>
     </row>
@@ -8135,25 +8135,25 @@
         <v>21888042</v>
       </c>
       <c r="AI27" s="7">
-        <f>AH27*100/AF27</f>
+        <f t="shared" si="0"/>
         <v>79.025788071136503</v>
       </c>
       <c r="AJ27" s="1">
         <v>3524397</v>
       </c>
       <c r="AK27" s="7">
-        <f>AJ27*100/AH27</f>
+        <f t="shared" si="6"/>
         <v>16.101929080728191</v>
       </c>
       <c r="AL27" s="1">
         <v>1024075</v>
       </c>
       <c r="AM27" s="7">
-        <f>AL27*100/AF27</f>
+        <f t="shared" si="2"/>
         <v>3.697376582105842</v>
       </c>
       <c r="AN27" s="7">
-        <f>SUM(AI27,AK27,AM27)</f>
+        <f t="shared" si="3"/>
         <v>98.825093733970533</v>
       </c>
       <c r="AO27" s="1">
@@ -8163,14 +8163,14 @@
         <v>580664</v>
       </c>
       <c r="AQ27" s="7">
-        <f>AP27*100/AF27</f>
+        <f t="shared" si="4"/>
         <v>2.0964611729335316</v>
       </c>
       <c r="AR27" s="1">
         <v>680163</v>
       </c>
       <c r="AS27" s="7">
-        <f>AR27*100/AF27</f>
+        <f t="shared" si="5"/>
         <v>2.4556978231231654</v>
       </c>
     </row>
@@ -8278,25 +8278,25 @@
         <v>15446185</v>
       </c>
       <c r="AI28" s="7">
-        <f>AH28*100/AF28</f>
+        <f t="shared" si="0"/>
         <v>77.468050830188659</v>
       </c>
       <c r="AJ28" s="1">
         <v>2735333</v>
       </c>
       <c r="AK28" s="7">
-        <f>AJ28*100/AH28</f>
+        <f t="shared" si="6"/>
         <v>17.708793465829913</v>
       </c>
       <c r="AL28" s="1">
         <v>978872</v>
       </c>
       <c r="AM28" s="7">
-        <f>AL28*100/AF28</f>
+        <f t="shared" si="2"/>
         <v>4.9093873893293676</v>
       </c>
       <c r="AN28" s="7">
-        <f>SUM(AI28,AK28,AM28)</f>
+        <f t="shared" si="3"/>
         <v>100.08623168534794</v>
       </c>
       <c r="AO28" s="1">
@@ -8306,14 +8306,14 @@
         <v>371056</v>
       </c>
       <c r="AQ28" s="7">
-        <f>AP28*100/AF28</f>
+        <f t="shared" si="4"/>
         <v>1.8609763555755992</v>
       </c>
       <c r="AR28" s="1">
         <v>407335</v>
       </c>
       <c r="AS28" s="7">
-        <f>AR28*100/AF28</f>
+        <f t="shared" si="5"/>
         <v>2.0429283013841215</v>
       </c>
     </row>
@@ -8421,25 +8421,25 @@
         <v>26830911</v>
       </c>
       <c r="AI29" s="7">
-        <f>AH29*100/AF29</f>
+        <f t="shared" si="0"/>
         <v>79.633813832734063</v>
       </c>
       <c r="AJ29" s="1">
         <v>4061768</v>
       </c>
       <c r="AK29" s="7">
-        <f>AJ29*100/AH29</f>
+        <f t="shared" si="6"/>
         <v>15.13839019480181</v>
       </c>
       <c r="AL29" s="1">
         <v>1128948</v>
       </c>
       <c r="AM29" s="7">
-        <f>AL29*100/AF29</f>
+        <f t="shared" si="2"/>
         <v>3.3507037781474307</v>
       </c>
       <c r="AN29" s="7">
-        <f>SUM(AI29,AK29,AM29)</f>
+        <f t="shared" si="3"/>
         <v>98.122907805683312</v>
       </c>
       <c r="AO29" s="1">
@@ -8449,14 +8449,14 @@
         <v>971233</v>
       </c>
       <c r="AQ29" s="7">
-        <f>AP29*100/AF29</f>
+        <f t="shared" si="4"/>
         <v>2.8826075980128967</v>
       </c>
       <c r="AR29" s="1">
         <v>700002</v>
       </c>
       <c r="AS29" s="7">
-        <f>AR29*100/AF29</f>
+        <f t="shared" si="5"/>
         <v>2.0775973261042648</v>
       </c>
     </row>
@@ -8564,25 +8564,25 @@
         <v>24271067</v>
       </c>
       <c r="AI30" s="7">
-        <f>AH30*100/AF30</f>
+        <f t="shared" si="0"/>
         <v>80.038838400280284</v>
       </c>
       <c r="AJ30" s="1">
         <v>3737455</v>
       </c>
       <c r="AK30" s="7">
-        <f>AJ30*100/AH30</f>
+        <f t="shared" si="6"/>
         <v>15.398807971647889</v>
       </c>
       <c r="AL30" s="1">
         <v>1060336</v>
       </c>
       <c r="AM30" s="7">
-        <f>AL30*100/AF30</f>
+        <f t="shared" si="2"/>
         <v>3.4966761763708036</v>
       </c>
       <c r="AN30" s="7">
-        <f>SUM(AI30,AK30,AM30)</f>
+        <f t="shared" si="3"/>
         <v>98.934322548298965</v>
       </c>
       <c r="AO30" s="1">
@@ -8592,14 +8592,14 @@
         <v>759234</v>
       </c>
       <c r="AQ30" s="7">
-        <f>AP30*100/AF30</f>
+        <f t="shared" si="4"/>
         <v>2.5037303648001301</v>
       </c>
       <c r="AR30" s="1">
         <v>496020</v>
       </c>
       <c r="AS30" s="7">
-        <f>AR30*100/AF30</f>
+        <f t="shared" si="5"/>
         <v>1.635728030552057</v>
       </c>
     </row>
@@ -8707,25 +8707,25 @@
         <v>18090163</v>
       </c>
       <c r="AI31" s="7">
-        <f>AH31*100/AF31</f>
+        <f t="shared" si="0"/>
         <v>78.08686150537163</v>
       </c>
       <c r="AJ31" s="1">
         <v>2804850</v>
       </c>
       <c r="AK31" s="7">
-        <f>AJ31*100/AH31</f>
+        <f t="shared" si="6"/>
         <v>15.504835418011435</v>
       </c>
       <c r="AL31" s="1">
         <v>905532</v>
       </c>
       <c r="AM31" s="7">
-        <f>AL31*100/AF31</f>
+        <f t="shared" si="2"/>
         <v>3.9087625618786399</v>
       </c>
       <c r="AN31" s="7">
-        <f>SUM(AI31,AK31,AM31)</f>
+        <f t="shared" si="3"/>
         <v>97.500459485261715</v>
       </c>
       <c r="AO31" s="1">
@@ -8735,14 +8735,14 @@
         <v>622900</v>
       </c>
       <c r="AQ31" s="7">
-        <f>AP31*100/AF31</f>
+        <f t="shared" si="4"/>
         <v>2.6887710205649329</v>
       </c>
       <c r="AR31" s="1">
         <v>743273</v>
       </c>
       <c r="AS31" s="7">
-        <f>AR31*100/AF31</f>
+        <f t="shared" si="5"/>
         <v>3.2083655526864012</v>
       </c>
     </row>
@@ -8850,25 +8850,25 @@
         <v>15299253</v>
       </c>
       <c r="AI32" s="7">
-        <f>AH32*100/AF32</f>
+        <f t="shared" si="0"/>
         <v>83.430908636404084</v>
       </c>
       <c r="AJ32" s="1">
         <v>1687220</v>
       </c>
       <c r="AK32" s="7">
-        <f>AJ32*100/AH32</f>
+        <f t="shared" si="6"/>
         <v>11.028120131093981</v>
       </c>
       <c r="AL32" s="1">
         <v>410319</v>
       </c>
       <c r="AM32" s="7">
-        <f>AL32*100/AF32</f>
+        <f t="shared" si="2"/>
         <v>2.237578985116508</v>
       </c>
       <c r="AN32" s="7">
-        <f>SUM(AI32,AK32,AM32)</f>
+        <f t="shared" si="3"/>
         <v>96.696607752614582</v>
       </c>
       <c r="AO32" s="1">
@@ -8878,14 +8878,14 @@
         <v>497569</v>
       </c>
       <c r="AQ32" s="7">
-        <f>AP32*100/AF32</f>
+        <f t="shared" si="4"/>
         <v>2.7133765144812592</v>
       </c>
       <c r="AR32" s="1">
         <v>443271</v>
       </c>
       <c r="AS32" s="7">
-        <f>AR32*100/AF32</f>
+        <f t="shared" si="5"/>
         <v>2.4172750331122361</v>
       </c>
     </row>
@@ -8993,25 +8993,25 @@
         <v>23800731</v>
       </c>
       <c r="AI33" s="7">
-        <f>AH33*100/AF33</f>
+        <f t="shared" si="0"/>
         <v>82.203465287717108</v>
       </c>
       <c r="AJ33" s="1">
         <v>2597111</v>
       </c>
       <c r="AK33" s="7">
-        <f>AJ33*100/AH33</f>
+        <f t="shared" si="6"/>
         <v>10.911895941347348</v>
       </c>
       <c r="AL33" s="1">
         <v>445036</v>
       </c>
       <c r="AM33" s="7">
-        <f>AL33*100/AF33</f>
+        <f t="shared" si="2"/>
         <v>1.5370746964782078</v>
       </c>
       <c r="AN33" s="7">
-        <f>SUM(AI33,AK33,AM33)</f>
+        <f t="shared" si="3"/>
         <v>94.652435925542676</v>
       </c>
       <c r="AO33" s="1">
@@ -9021,14 +9021,14 @@
         <v>1449660</v>
       </c>
       <c r="AQ33" s="7">
-        <f>AP33*100/AF33</f>
+        <f t="shared" si="4"/>
         <v>5.0068661962101917</v>
       </c>
       <c r="AR33" s="1">
         <v>660902</v>
       </c>
       <c r="AS33" s="7">
-        <f>AR33*100/AF33</f>
+        <f t="shared" si="5"/>
         <v>2.2826372272172151</v>
       </c>
     </row>
@@ -9136,25 +9136,25 @@
         <v>23959909</v>
       </c>
       <c r="AI34" s="7">
-        <f>AH34*100/AF34</f>
+        <f t="shared" ref="AI34:AI65" si="7">AH34*100/AF34</f>
         <v>81.655595293702589</v>
       </c>
       <c r="AJ34" s="1">
         <v>3241574</v>
       </c>
       <c r="AK34" s="7">
-        <f>AJ34*100/AH34</f>
+        <f t="shared" si="6"/>
         <v>13.529158228439014</v>
       </c>
       <c r="AL34" s="1">
         <v>593708</v>
       </c>
       <c r="AM34" s="7">
-        <f>AL34*100/AF34</f>
+        <f t="shared" ref="AM34:AM65" si="8">AL34*100/AF34</f>
         <v>2.0233624497753135</v>
       </c>
       <c r="AN34" s="7">
-        <f>SUM(AI34,AK34,AM34)</f>
+        <f t="shared" ref="AN34:AN65" si="9">SUM(AI34,AK34,AM34)</f>
         <v>97.208115971916925</v>
       </c>
       <c r="AO34" s="1">
@@ -9164,14 +9164,14 @@
         <v>1044169</v>
       </c>
       <c r="AQ34" s="7">
-        <f>AP34*100/AF34</f>
+        <f t="shared" ref="AQ34:AQ65" si="10">AP34*100/AF34</f>
         <v>3.5585377758417254</v>
       </c>
       <c r="AR34" s="1">
         <v>503282</v>
       </c>
       <c r="AS34" s="7">
-        <f>AR34*100/AF34</f>
+        <f t="shared" ref="AS34:AS65" si="11">AR34*100/AF34</f>
         <v>1.7151897910215448</v>
       </c>
     </row>
@@ -9279,25 +9279,25 @@
         <v>23143234</v>
       </c>
       <c r="AI35" s="7">
-        <f>AH35*100/AF35</f>
+        <f t="shared" si="7"/>
         <v>80.144465665561839</v>
       </c>
       <c r="AJ35" s="1">
         <v>3273647</v>
       </c>
       <c r="AK35" s="7">
-        <f>AJ35*100/AH35</f>
+        <f t="shared" si="6"/>
         <v>14.14515793255169</v>
       </c>
       <c r="AL35" s="1">
         <v>537843</v>
       </c>
       <c r="AM35" s="7">
-        <f>AL35*100/AF35</f>
+        <f t="shared" si="8"/>
         <v>1.8625374416973348</v>
       </c>
       <c r="AN35" s="7">
-        <f>SUM(AI35,AK35,AM35)</f>
+        <f t="shared" si="9"/>
         <v>96.152161039810878</v>
       </c>
       <c r="AO35" s="1">
@@ -9307,14 +9307,14 @@
         <v>1207369</v>
       </c>
       <c r="AQ35" s="7">
-        <f>AP35*100/AF35</f>
+        <f t="shared" si="10"/>
         <v>4.181089962023619</v>
       </c>
       <c r="AR35" s="1">
         <v>714803</v>
       </c>
       <c r="AS35" s="7">
-        <f>AR35*100/AF35</f>
+        <f t="shared" si="11"/>
         <v>2.4753456881238205</v>
       </c>
     </row>
@@ -9422,25 +9422,25 @@
         <v>13705776</v>
       </c>
       <c r="AI36" s="7">
-        <f>AH36*100/AF36</f>
+        <f t="shared" si="7"/>
         <v>80.612168436897093</v>
       </c>
       <c r="AJ36" s="1">
         <v>1822306</v>
       </c>
       <c r="AK36" s="7">
-        <f>AJ36*100/AH36</f>
+        <f t="shared" si="6"/>
         <v>13.295898021388938</v>
       </c>
       <c r="AL36" s="1">
         <v>582055</v>
       </c>
       <c r="AM36" s="7">
-        <f>AL36*100/AF36</f>
+        <f t="shared" si="8"/>
         <v>3.4234264225198294</v>
       </c>
       <c r="AN36" s="7">
-        <f>SUM(AI36,AK36,AM36)</f>
+        <f t="shared" si="9"/>
         <v>97.331492880805854</v>
       </c>
       <c r="AO36" s="1">
@@ -9450,14 +9450,14 @@
         <v>416440</v>
       </c>
       <c r="AQ36" s="7">
-        <f>AP36*100/AF36</f>
+        <f t="shared" si="10"/>
         <v>2.4493418996386214</v>
       </c>
       <c r="AR36" s="1">
         <v>475541</v>
       </c>
       <c r="AS36" s="7">
-        <f>AR36*100/AF36</f>
+        <f t="shared" si="11"/>
         <v>2.7969515327443322</v>
       </c>
     </row>
@@ -9565,25 +9565,25 @@
         <v>17852879</v>
       </c>
       <c r="AI37" s="7">
-        <f>AH37*100/AF37</f>
+        <f t="shared" si="7"/>
         <v>77.579893317689496</v>
       </c>
       <c r="AJ37" s="1">
         <v>3005595</v>
       </c>
       <c r="AK37" s="7">
-        <f>AJ37*100/AH37</f>
+        <f t="shared" si="6"/>
         <v>16.835351877980017</v>
       </c>
       <c r="AL37" s="1">
         <v>1072531</v>
       </c>
       <c r="AM37" s="7">
-        <f>AL37*100/AF37</f>
+        <f t="shared" si="8"/>
         <v>4.6606959336874922</v>
       </c>
       <c r="AN37" s="7">
-        <f>SUM(AI37,AK37,AM37)</f>
+        <f t="shared" si="9"/>
         <v>99.075941129357005</v>
       </c>
       <c r="AO37" s="1">
@@ -9593,14 +9593,14 @@
         <v>493682</v>
       </c>
       <c r="AQ37" s="7">
-        <f>AP37*100/AF37</f>
+        <f t="shared" si="10"/>
         <v>2.1453008723614597</v>
       </c>
       <c r="AR37" s="1">
         <v>587563</v>
       </c>
       <c r="AS37" s="7">
-        <f>AR37*100/AF37</f>
+        <f t="shared" si="11"/>
         <v>2.5532618496670252</v>
       </c>
     </row>
@@ -9708,25 +9708,25 @@
         <v>25534383</v>
       </c>
       <c r="AI38" s="7">
-        <f>AH38*100/AF38</f>
+        <f t="shared" si="7"/>
         <v>79.085270259497008</v>
       </c>
       <c r="AJ38" s="1">
         <v>3925256</v>
       </c>
       <c r="AK38" s="7">
-        <f>AJ38*100/AH38</f>
+        <f t="shared" si="6"/>
         <v>15.372433318635505</v>
       </c>
       <c r="AL38" s="1">
         <v>1263434</v>
       </c>
       <c r="AM38" s="7">
-        <f>AL38*100/AF38</f>
+        <f t="shared" si="8"/>
         <v>3.9131166531432284</v>
       </c>
       <c r="AN38" s="7">
-        <f>SUM(AI38,AK38,AM38)</f>
+        <f t="shared" si="9"/>
         <v>98.370820231275744</v>
       </c>
       <c r="AO38" s="1">
@@ -9736,14 +9736,14 @@
         <v>867445</v>
       </c>
       <c r="AQ38" s="7">
-        <f>AP38*100/AF38</f>
+        <f t="shared" si="10"/>
         <v>2.6866567428024162</v>
       </c>
       <c r="AR38" s="1">
         <v>696636</v>
       </c>
       <c r="AS38" s="7">
-        <f>AR38*100/AF38</f>
+        <f t="shared" si="11"/>
         <v>2.1576259090534893</v>
       </c>
     </row>
@@ -9851,25 +9851,25 @@
         <v>23568980</v>
       </c>
       <c r="AI39" s="7">
-        <f>AH39*100/AF39</f>
+        <f t="shared" si="7"/>
         <v>79.190984564616031</v>
       </c>
       <c r="AJ39" s="1">
         <v>3019415</v>
       </c>
       <c r="AK39" s="7">
-        <f>AJ39*100/AH39</f>
+        <f t="shared" si="6"/>
         <v>12.810970181993451</v>
       </c>
       <c r="AL39" s="1">
         <v>1158099</v>
       </c>
       <c r="AM39" s="7">
-        <f>AL39*100/AF39</f>
+        <f t="shared" si="8"/>
         <v>3.8911739088113815</v>
       </c>
       <c r="AN39" s="7">
-        <f>SUM(AI39,AK39,AM39)</f>
+        <f t="shared" si="9"/>
         <v>95.893128655420867</v>
       </c>
       <c r="AO39" s="1">
@@ -9879,14 +9879,14 @@
         <v>999908</v>
       </c>
       <c r="AQ39" s="7">
-        <f>AP39*100/AF39</f>
+        <f t="shared" si="10"/>
         <v>3.359657439313712</v>
       </c>
       <c r="AR39" s="1">
         <v>1015799</v>
       </c>
       <c r="AS39" s="7">
-        <f>AR39*100/AF39</f>
+        <f t="shared" si="11"/>
         <v>3.4130506678588723</v>
       </c>
     </row>
@@ -9994,25 +9994,25 @@
         <v>16458764</v>
       </c>
       <c r="AI40" s="7">
-        <f>AH40*100/AF40</f>
+        <f t="shared" si="7"/>
         <v>71.842622286766129</v>
       </c>
       <c r="AJ40" s="1">
         <v>3438378</v>
       </c>
       <c r="AK40" s="7">
-        <f>AJ40*100/AH40</f>
+        <f t="shared" si="6"/>
         <v>20.890863979822544</v>
       </c>
       <c r="AL40" s="1">
         <v>1243273</v>
       </c>
       <c r="AM40" s="7">
-        <f>AL40*100/AF40</f>
+        <f t="shared" si="8"/>
         <v>5.4268955152607194</v>
       </c>
       <c r="AN40" s="7">
-        <f>SUM(AI40,AK40,AM40)</f>
+        <f t="shared" si="9"/>
         <v>98.160381781849395</v>
       </c>
       <c r="AO40" s="1">
@@ -10022,14 +10022,14 @@
         <v>639204</v>
       </c>
       <c r="AQ40" s="7">
-        <f>AP40*100/AF40</f>
+        <f t="shared" si="10"/>
         <v>2.7901300204675183</v>
       </c>
       <c r="AR40" s="1">
         <v>1129851</v>
       </c>
       <c r="AS40" s="7">
-        <f>AR40*100/AF40</f>
+        <f t="shared" si="11"/>
         <v>4.9318076760396465</v>
       </c>
     </row>
@@ -10137,25 +10137,25 @@
         <v>15462864</v>
       </c>
       <c r="AI41" s="7">
-        <f>AH41*100/AF41</f>
+        <f t="shared" si="7"/>
         <v>85.866617977206133</v>
       </c>
       <c r="AJ41" s="1">
         <v>1691324</v>
       </c>
       <c r="AK41" s="7">
-        <f>AJ41*100/AH41</f>
+        <f t="shared" si="6"/>
         <v>10.937973715606629</v>
       </c>
       <c r="AL41" s="1">
         <v>359348</v>
       </c>
       <c r="AM41" s="7">
-        <f>AL41*100/AF41</f>
+        <f t="shared" si="8"/>
         <v>1.9954904496911485</v>
       </c>
       <c r="AN41" s="7">
-        <f>SUM(AI41,AK41,AM41)</f>
+        <f t="shared" si="9"/>
         <v>98.800082142503911</v>
       </c>
       <c r="AO41" s="1">
@@ -10165,14 +10165,14 @@
         <v>358767</v>
       </c>
       <c r="AQ41" s="7">
-        <f>AP41*100/AF41</f>
+        <f t="shared" si="10"/>
         <v>1.9922641065606161</v>
       </c>
       <c r="AR41" s="1">
         <v>135701</v>
       </c>
       <c r="AS41" s="7">
-        <f>AR41*100/AF41</f>
+        <f t="shared" si="11"/>
         <v>0.75355936171493521</v>
       </c>
     </row>
@@ -10280,25 +10280,25 @@
         <v>21513959</v>
       </c>
       <c r="AI42" s="7">
-        <f>AH42*100/AF42</f>
+        <f t="shared" si="7"/>
         <v>70.69450766310996</v>
       </c>
       <c r="AJ42" s="1">
         <v>4777713</v>
       </c>
       <c r="AK42" s="7">
-        <f>AJ42*100/AH42</f>
+        <f t="shared" si="6"/>
         <v>22.207502580069061</v>
       </c>
       <c r="AL42" s="1">
         <v>3087093</v>
       </c>
       <c r="AM42" s="7">
-        <f>AL42*100/AF42</f>
+        <f t="shared" si="8"/>
         <v>10.14413570952855</v>
       </c>
       <c r="AN42" s="7">
-        <f>SUM(AI42,AK42,AM42)</f>
+        <f t="shared" si="9"/>
         <v>103.04614595270758</v>
       </c>
       <c r="AO42" s="1">
@@ -10308,14 +10308,14 @@
         <v>851388</v>
       </c>
       <c r="AQ42" s="7">
-        <f>AP42*100/AF42</f>
+        <f t="shared" si="10"/>
         <v>2.7976466577016281</v>
       </c>
       <c r="AR42" s="1">
         <v>202139</v>
       </c>
       <c r="AS42" s="7">
-        <f>AR42*100/AF42</f>
+        <f t="shared" si="11"/>
         <v>0.66422535640759495</v>
       </c>
     </row>
@@ -10423,25 +10423,25 @@
         <v>24744158</v>
       </c>
       <c r="AI43" s="7">
-        <f>AH43*100/AF43</f>
+        <f t="shared" si="7"/>
         <v>75.485876979733675</v>
       </c>
       <c r="AJ43" s="5">
         <v>4584353</v>
       </c>
       <c r="AK43" s="7">
-        <f>AJ43*100/AF43</f>
+        <f t="shared" ref="AK43:AK71" si="12">AJ43*100/AF43</f>
         <v>13.985277114285847</v>
       </c>
       <c r="AL43" s="5">
         <v>1898058</v>
       </c>
       <c r="AM43" s="7">
-        <f>AL43*100/AF43</f>
+        <f t="shared" si="8"/>
         <v>5.7903191811335564</v>
       </c>
       <c r="AN43" s="7">
-        <f>SUM(AI43,AK43,AM43)</f>
+        <f t="shared" si="9"/>
         <v>95.261473275153079</v>
       </c>
       <c r="AO43" s="5">
@@ -10451,14 +10451,14 @@
         <v>805666</v>
       </c>
       <c r="AQ43" s="7">
-        <f>AP43*100/AF43</f>
+        <f t="shared" si="10"/>
         <v>2.4578086093191822</v>
       </c>
       <c r="AR43" s="5">
         <v>747616</v>
       </c>
       <c r="AS43" s="7">
-        <f>AR43*100/AF43</f>
+        <f t="shared" si="11"/>
         <v>2.280718115527737</v>
       </c>
     </row>
@@ -10566,25 +10566,25 @@
         <v>30210809</v>
       </c>
       <c r="AI44" s="7">
-        <f>AH44*100/AF44</f>
+        <f t="shared" si="7"/>
         <v>74.313154281390624</v>
       </c>
       <c r="AJ44" s="5">
         <v>6074598</v>
       </c>
       <c r="AK44" s="7">
-        <f>AJ44*100/AF44</f>
+        <f t="shared" si="12"/>
         <v>14.942418072002869</v>
       </c>
       <c r="AL44" s="5">
         <v>3066786</v>
       </c>
       <c r="AM44" s="7">
-        <f>AL44*100/AF44</f>
+        <f t="shared" si="8"/>
         <v>7.5437417503784436</v>
       </c>
       <c r="AN44" s="7">
-        <f>SUM(AI44,AK44,AM44)</f>
+        <f t="shared" si="9"/>
         <v>96.799314103771934</v>
       </c>
       <c r="AO44" s="5">
@@ -10594,14 +10594,14 @@
         <v>891636</v>
       </c>
       <c r="AQ44" s="7">
-        <f>AP44*100/AF44</f>
+        <f t="shared" si="10"/>
         <v>2.1932641271156297</v>
       </c>
       <c r="AR44" s="5">
         <v>409551</v>
       </c>
       <c r="AS44" s="7">
-        <f>AR44*100/AF44</f>
+        <f t="shared" si="11"/>
         <v>1.007421769112433</v>
       </c>
     </row>
@@ -10709,25 +10709,25 @@
         <v>21502266</v>
       </c>
       <c r="AI45" s="7">
-        <f>AH45*100/AF45</f>
+        <f t="shared" si="7"/>
         <v>79.372131461244194</v>
       </c>
       <c r="AJ45" s="5">
         <v>3145183</v>
       </c>
       <c r="AK45" s="7">
-        <f>AJ45*100/AF45</f>
+        <f t="shared" si="12"/>
         <v>11.609933508666966</v>
       </c>
       <c r="AL45" s="5">
         <v>1295750</v>
       </c>
       <c r="AM45" s="7">
-        <f>AL45*100/AF45</f>
+        <f t="shared" si="8"/>
         <v>4.7830512068312787</v>
       </c>
       <c r="AN45" s="7">
-        <f>SUM(AI45,AK45,AM45)</f>
+        <f t="shared" si="9"/>
         <v>95.765116176742438</v>
       </c>
       <c r="AO45" s="5">
@@ -10737,14 +10737,14 @@
         <v>693882</v>
       </c>
       <c r="AQ45" s="7">
-        <f>AP45*100/AF45</f>
+        <f t="shared" si="10"/>
         <v>2.5613529905448593</v>
       </c>
       <c r="AR45" s="5">
         <v>453367</v>
       </c>
       <c r="AS45" s="7">
-        <f>AR45*100/AF45</f>
+        <f t="shared" si="11"/>
         <v>1.6735308327126963</v>
       </c>
     </row>
@@ -10852,25 +10852,25 @@
         <v>26747585</v>
       </c>
       <c r="AI46" s="7">
-        <f>AH46*100/AF46</f>
+        <f t="shared" si="7"/>
         <v>70.233431842317572</v>
       </c>
       <c r="AJ46" s="5">
         <v>5890389</v>
       </c>
       <c r="AK46" s="7">
-        <f>AJ46*100/AF46</f>
+        <f t="shared" si="12"/>
         <v>15.466900445637881</v>
       </c>
       <c r="AL46" s="5">
         <v>3464620</v>
       </c>
       <c r="AM46" s="7">
-        <f>AL46*100/AF46</f>
+        <f t="shared" si="8"/>
         <v>9.0973503824562219</v>
       </c>
       <c r="AN46" s="7">
-        <f>SUM(AI46,AK46,AM46)</f>
+        <f t="shared" si="9"/>
         <v>94.797682670411675</v>
       </c>
       <c r="AO46" s="5">
@@ -10880,14 +10880,14 @@
         <v>1002195</v>
       </c>
       <c r="AQ46" s="7">
-        <f>AP46*100/AF46</f>
+        <f t="shared" si="10"/>
         <v>2.631549510926368</v>
       </c>
       <c r="AR46" s="5">
         <v>979047</v>
       </c>
       <c r="AS46" s="7">
-        <f>AR46*100/AF46</f>
+        <f t="shared" si="11"/>
         <v>2.5707678186619645</v>
       </c>
     </row>
@@ -10995,25 +10995,25 @@
         <v>18215583</v>
       </c>
       <c r="AI47" s="7">
-        <f>AH47*100/AF47</f>
+        <f t="shared" si="7"/>
         <v>74.019000270385206</v>
       </c>
       <c r="AJ47" s="5">
         <v>3670757</v>
       </c>
       <c r="AK47" s="7">
-        <f>AJ47*100/AF47</f>
+        <f t="shared" si="12"/>
         <v>14.916116787232031</v>
       </c>
       <c r="AL47" s="5">
         <v>1788584</v>
       </c>
       <c r="AM47" s="7">
-        <f>AL47*100/AF47</f>
+        <f t="shared" si="8"/>
         <v>7.267908997456006</v>
       </c>
       <c r="AN47" s="7">
-        <f>SUM(AI47,AK47,AM47)</f>
+        <f t="shared" si="9"/>
         <v>96.203026055073238</v>
       </c>
       <c r="AO47" s="5">
@@ -11023,14 +11023,14 @@
         <v>628661</v>
       </c>
       <c r="AQ47" s="7">
-        <f>AP47*100/AF47</f>
+        <f t="shared" si="10"/>
         <v>2.5545632401104394</v>
       </c>
       <c r="AR47" s="5">
         <v>305749</v>
       </c>
       <c r="AS47" s="7">
-        <f>AR47*100/AF47</f>
+        <f t="shared" si="11"/>
         <v>1.2424107048163107</v>
       </c>
     </row>
@@ -11138,25 +11138,25 @@
         <v>21538302</v>
       </c>
       <c r="AI48" s="7">
-        <f>AH48*100/AF48</f>
+        <f t="shared" si="7"/>
         <v>71.134865262288557</v>
       </c>
       <c r="AJ48" s="5">
         <v>4636306</v>
       </c>
       <c r="AK48" s="7">
-        <f>AJ48*100/AF48</f>
+        <f t="shared" si="12"/>
         <v>15.3123956858224</v>
       </c>
       <c r="AL48" s="5">
         <v>2891561</v>
       </c>
       <c r="AM48" s="7">
-        <f>AL48*100/AF48</f>
+        <f t="shared" si="8"/>
         <v>9.5500008372381604</v>
       </c>
       <c r="AN48" s="7">
-        <f>SUM(AI48,AK48,AM48)</f>
+        <f t="shared" si="9"/>
         <v>95.99726178534911</v>
       </c>
       <c r="AO48" s="5">
@@ -11166,14 +11166,14 @@
         <v>773436</v>
       </c>
       <c r="AQ48" s="7">
-        <f>AP48*100/AF48</f>
+        <f t="shared" si="10"/>
         <v>2.5544383976510034</v>
       </c>
       <c r="AR48" s="5">
         <v>438518</v>
       </c>
       <c r="AS48" s="7">
-        <f>AR48*100/AF48</f>
+        <f t="shared" si="11"/>
         <v>1.4482998169998846</v>
       </c>
     </row>
@@ -11281,25 +11281,25 @@
         <v>18843237</v>
       </c>
       <c r="AI49" s="7">
-        <f>AH49*100/AF49</f>
+        <f t="shared" si="7"/>
         <v>75.41172772686626</v>
       </c>
       <c r="AJ49" s="5">
         <v>3629611</v>
       </c>
       <c r="AK49" s="7">
-        <f>AJ49*100/AF49</f>
+        <f t="shared" si="12"/>
         <v>14.525913805915554</v>
       </c>
       <c r="AL49" s="5">
         <v>1401399</v>
       </c>
       <c r="AM49" s="7">
-        <f>AL49*100/AF49</f>
+        <f t="shared" si="8"/>
         <v>5.6084801048090966</v>
       </c>
       <c r="AN49" s="7">
-        <f>SUM(AI49,AK49,AM49)</f>
+        <f t="shared" si="9"/>
         <v>95.546121637590915</v>
       </c>
       <c r="AO49" s="5">
@@ -11309,14 +11309,14 @@
         <v>637990</v>
       </c>
       <c r="AQ49" s="7">
-        <f>AP49*100/AF49</f>
+        <f t="shared" si="10"/>
         <v>2.5532729951050026</v>
       </c>
       <c r="AR49" s="5">
         <v>474907</v>
       </c>
       <c r="AS49" s="7">
-        <f>AR49*100/AF49</f>
+        <f t="shared" si="11"/>
         <v>1.9006053673040824</v>
       </c>
     </row>
@@ -11424,25 +11424,25 @@
         <v>16402460</v>
       </c>
       <c r="AI50" s="7">
-        <f>AH50*100/AF50</f>
+        <f t="shared" si="7"/>
         <v>68.18745962109837</v>
       </c>
       <c r="AJ50" s="5">
         <v>4343187</v>
       </c>
       <c r="AK50" s="7">
-        <f>AJ50*100/AF50</f>
+        <f t="shared" si="12"/>
         <v>18.055272696252842</v>
       </c>
       <c r="AL50" s="5">
         <v>2354144</v>
       </c>
       <c r="AM50" s="7">
-        <f>AL50*100/AF50</f>
+        <f t="shared" si="8"/>
         <v>9.7865258590632749</v>
       </c>
       <c r="AN50" s="7">
-        <f>SUM(AI50,AK50,AM50)</f>
+        <f t="shared" si="9"/>
         <v>96.029258176414487</v>
       </c>
       <c r="AO50" s="5">
@@ -11452,14 +11452,14 @@
         <v>551478</v>
       </c>
       <c r="AQ50" s="7">
-        <f>AP50*100/AF50</f>
+        <f t="shared" si="10"/>
         <v>2.2925758609942708</v>
       </c>
       <c r="AR50" s="5">
         <v>403682</v>
       </c>
       <c r="AS50" s="7">
-        <f>AR50*100/AF50</f>
+        <f t="shared" si="11"/>
         <v>1.6781659625912353</v>
       </c>
     </row>
@@ -11567,25 +11567,25 @@
         <v>20536680</v>
       </c>
       <c r="AI51" s="7">
-        <f>AH51*100/AF51</f>
+        <f t="shared" si="7"/>
         <v>72.327926269657169</v>
       </c>
       <c r="AJ51" s="5">
         <v>4569311</v>
       </c>
       <c r="AK51" s="7">
-        <f>AJ51*100/AF51</f>
+        <f t="shared" si="12"/>
         <v>16.092610349439806</v>
       </c>
       <c r="AL51" s="5">
         <v>1948883</v>
       </c>
       <c r="AM51" s="7">
-        <f>AL51*100/AF51</f>
+        <f t="shared" si="8"/>
         <v>6.8637513917628485</v>
       </c>
       <c r="AN51" s="7">
-        <f>SUM(AI51,AK51,AM51)</f>
+        <f t="shared" si="9"/>
         <v>95.284288010859825</v>
       </c>
       <c r="AO51" s="5">
@@ -11595,14 +11595,14 @@
         <v>716592</v>
       </c>
       <c r="AQ51" s="7">
-        <f>AP51*100/AF51</f>
+        <f t="shared" si="10"/>
         <v>2.5237581411126904</v>
       </c>
       <c r="AR51" s="5">
         <v>622380</v>
       </c>
       <c r="AS51" s="7">
-        <f>AR51*100/AF51</f>
+        <f t="shared" si="11"/>
         <v>2.1919538480274916</v>
       </c>
     </row>
@@ -11710,25 +11710,25 @@
         <v>19477290</v>
       </c>
       <c r="AI52" s="7">
-        <f>AH52*100/AF52</f>
+        <f t="shared" si="7"/>
         <v>71.176526778997484</v>
       </c>
       <c r="AJ52" s="5">
         <v>4328860</v>
       </c>
       <c r="AK52" s="7">
-        <f>AJ52*100/AF52</f>
+        <f t="shared" si="12"/>
         <v>15.819101102490698</v>
       </c>
       <c r="AL52" s="5">
         <v>2253440</v>
       </c>
       <c r="AM52" s="7">
-        <f>AL52*100/AF52</f>
+        <f t="shared" si="8"/>
         <v>8.2348228375130272</v>
       </c>
       <c r="AN52" s="7">
-        <f>SUM(AI52,AK52,AM52)</f>
+        <f t="shared" si="9"/>
         <v>95.230450719001212</v>
       </c>
       <c r="AO52" s="5">
@@ -11738,14 +11738,14 @@
         <v>698296</v>
       </c>
       <c r="AQ52" s="7">
-        <f>AP52*100/AF52</f>
+        <f t="shared" si="10"/>
         <v>2.5518069476640144</v>
       </c>
       <c r="AR52" s="5">
         <v>606880</v>
       </c>
       <c r="AS52" s="7">
-        <f>AR52*100/AF52</f>
+        <f t="shared" si="11"/>
         <v>2.2177423333347708</v>
       </c>
     </row>
@@ -11853,25 +11853,25 @@
         <v>22774960</v>
       </c>
       <c r="AI53" s="7">
-        <f>AH53*100/AF53</f>
+        <f t="shared" si="7"/>
         <v>79.803548722000428</v>
       </c>
       <c r="AJ53" s="5">
         <v>3205655</v>
       </c>
       <c r="AK53" s="7">
-        <f>AJ53*100/AF53</f>
+        <f t="shared" si="12"/>
         <v>11.232627630451349</v>
       </c>
       <c r="AL53" s="5">
         <v>1116001</v>
       </c>
       <c r="AM53" s="7">
-        <f>AL53*100/AF53</f>
+        <f t="shared" si="8"/>
         <v>3.9104718593271381</v>
       </c>
       <c r="AN53" s="7">
-        <f>SUM(AI53,AK53,AM53)</f>
+        <f t="shared" si="9"/>
         <v>94.946648211778907</v>
       </c>
       <c r="AO53" s="5">
@@ -11881,14 +11881,14 @@
         <v>825552</v>
       </c>
       <c r="AQ53" s="7">
-        <f>AP53*100/AF53</f>
+        <f t="shared" si="10"/>
         <v>2.8927374298152397</v>
       </c>
       <c r="AR53" s="5">
         <v>616613</v>
       </c>
       <c r="AS53" s="7">
-        <f>AR53*100/AF53</f>
+        <f t="shared" si="11"/>
         <v>2.1606143584058479</v>
       </c>
     </row>
@@ -11996,25 +11996,25 @@
         <v>22034279</v>
       </c>
       <c r="AI54" s="7">
-        <f>AH54*100/AF54</f>
+        <f t="shared" si="7"/>
         <v>75.666771931684977</v>
       </c>
       <c r="AJ54" s="5">
         <v>3818052</v>
       </c>
       <c r="AK54" s="7">
-        <f>AJ54*100/AF54</f>
+        <f t="shared" si="12"/>
         <v>13.111373869202332</v>
       </c>
       <c r="AL54" s="5">
         <v>1944587</v>
       </c>
       <c r="AM54" s="7">
-        <f>AL54*100/AF54</f>
+        <f t="shared" si="8"/>
         <v>6.6778051158524177</v>
       </c>
       <c r="AN54" s="7">
-        <f>SUM(AI54,AK54,AM54)</f>
+        <f t="shared" si="9"/>
         <v>95.455950916739724</v>
       </c>
       <c r="AO54" s="5">
@@ -12024,14 +12024,14 @@
         <v>752427</v>
       </c>
       <c r="AQ54" s="7">
-        <f>AP54*100/AF54</f>
+        <f t="shared" si="10"/>
         <v>2.5838704413356086</v>
       </c>
       <c r="AR54" s="5">
         <v>570807</v>
       </c>
       <c r="AS54" s="7">
-        <f>AR54*100/AF54</f>
+        <f t="shared" si="11"/>
         <v>1.9601786419246712</v>
       </c>
     </row>
@@ -12139,25 +12139,25 @@
         <v>27180059</v>
       </c>
       <c r="AI55" s="7">
-        <f>AH55*100/AF55</f>
+        <f t="shared" si="7"/>
         <v>85.295399955005053</v>
       </c>
       <c r="AJ55" s="5">
         <v>2460457</v>
       </c>
       <c r="AK55" s="7">
-        <f>AJ55*100/AF55</f>
+        <f t="shared" si="12"/>
         <v>7.7213100930756573</v>
       </c>
       <c r="AL55" s="5">
         <v>1064239</v>
       </c>
       <c r="AM55" s="7">
-        <f>AL55*100/AF55</f>
+        <f t="shared" si="8"/>
         <v>3.3397532784132151</v>
       </c>
       <c r="AN55" s="7">
-        <f>SUM(AI55,AK55,AM55)</f>
+        <f t="shared" si="9"/>
         <v>96.356463326493923</v>
       </c>
       <c r="AO55" s="5">
@@ -12167,14 +12167,14 @@
         <v>789671</v>
       </c>
       <c r="AQ55" s="7">
-        <f>AP55*100/AF55</f>
+        <f t="shared" si="10"/>
         <v>2.4781147008499427</v>
       </c>
       <c r="AR55" s="5">
         <v>371371</v>
       </c>
       <c r="AS55" s="7">
-        <f>AR55*100/AF55</f>
+        <f t="shared" si="11"/>
         <v>1.1654219726561366</v>
       </c>
     </row>
@@ -12282,25 +12282,25 @@
         <v>22616023</v>
       </c>
       <c r="AI56" s="7">
-        <f>AH56*100/AF56</f>
+        <f t="shared" si="7"/>
         <v>81.953823401430981</v>
       </c>
       <c r="AJ56" s="5">
         <v>2389189</v>
       </c>
       <c r="AK56" s="7">
-        <f>AJ56*100/AF56</f>
+        <f t="shared" si="12"/>
         <v>8.6577190595641635</v>
       </c>
       <c r="AL56" s="5">
         <v>1395655</v>
       </c>
       <c r="AM56" s="7">
-        <f>AL56*100/AF56</f>
+        <f t="shared" si="8"/>
         <v>5.0574437158701233</v>
       </c>
       <c r="AN56" s="7">
-        <f>SUM(AI56,AK56,AM56)</f>
+        <f t="shared" si="9"/>
         <v>95.668986176865261</v>
       </c>
       <c r="AO56" s="5">
@@ -12310,14 +12310,14 @@
         <v>724138</v>
       </c>
       <c r="AQ56" s="7">
-        <f>AP56*100/AF56</f>
+        <f t="shared" si="10"/>
         <v>2.6240633806512061</v>
       </c>
       <c r="AR56" s="5">
         <v>471051</v>
       </c>
       <c r="AS56" s="7">
-        <f>AR56*100/AF56</f>
+        <f t="shared" si="11"/>
         <v>1.70695044248352</v>
       </c>
     </row>
@@ -12425,25 +12425,25 @@
         <v>18691643</v>
       </c>
       <c r="AI57" s="7">
-        <f>AH57*100/AF57</f>
+        <f t="shared" si="7"/>
         <v>80.027479251948847</v>
       </c>
       <c r="AJ57" s="5">
         <v>2571089</v>
       </c>
       <c r="AK57" s="7">
-        <f>AJ57*100/AF57</f>
+        <f t="shared" si="12"/>
         <v>11.008008851999469</v>
       </c>
       <c r="AL57" s="5">
         <v>1162520</v>
       </c>
       <c r="AM57" s="7">
-        <f>AL57*100/AF57</f>
+        <f t="shared" si="8"/>
         <v>4.9772802305273842</v>
       </c>
       <c r="AN57" s="7">
-        <f>SUM(AI57,AK57,AM57)</f>
+        <f t="shared" si="9"/>
         <v>96.012768334475695</v>
       </c>
       <c r="AO57" s="5">
@@ -12453,14 +12453,14 @@
         <v>625199</v>
       </c>
       <c r="AQ57" s="7">
-        <f>AP57*100/AF57</f>
+        <f t="shared" si="10"/>
         <v>2.6767630860935641</v>
       </c>
       <c r="AR57" s="5">
         <v>306080</v>
       </c>
       <c r="AS57" s="7">
-        <f>AR57*100/AF57</f>
+        <f t="shared" si="11"/>
         <v>1.3104685794307382</v>
       </c>
     </row>
@@ -12568,25 +12568,25 @@
         <v>18809348</v>
       </c>
       <c r="AI58" s="7">
-        <f>AH58*100/AF58</f>
+        <f t="shared" si="7"/>
         <v>76.736741993400003</v>
       </c>
       <c r="AJ58" s="5">
         <v>2905572</v>
       </c>
       <c r="AK58" s="7">
-        <f>AJ58*100/AF58</f>
+        <f t="shared" si="12"/>
         <v>11.853899928229689</v>
       </c>
       <c r="AL58" s="5">
         <v>1631183</v>
       </c>
       <c r="AM58" s="7">
-        <f>AL58*100/AF58</f>
+        <f t="shared" si="8"/>
         <v>6.6547585283136979</v>
       </c>
       <c r="AN58" s="7">
-        <f>SUM(AI58,AK58,AM58)</f>
+        <f t="shared" si="9"/>
         <v>95.245400449943389</v>
       </c>
       <c r="AO58" s="5">
@@ -12596,14 +12596,14 @@
         <v>682006</v>
       </c>
       <c r="AQ58" s="7">
-        <f>AP58*100/AF58</f>
+        <f t="shared" si="10"/>
         <v>2.782388760096882</v>
       </c>
       <c r="AR58" s="5">
         <v>483419</v>
       </c>
       <c r="AS58" s="7">
-        <f>AR58*100/AF58</f>
+        <f t="shared" si="11"/>
         <v>1.9722107899597283</v>
       </c>
     </row>
@@ -12711,25 +12711,25 @@
         <v>25401110</v>
       </c>
       <c r="AI59" s="7">
-        <f>AH59*100/AF59</f>
+        <f t="shared" si="7"/>
         <v>79.508833420997902</v>
       </c>
       <c r="AJ59" s="5">
         <v>3773991</v>
       </c>
       <c r="AK59" s="7">
-        <f>AJ59*100/AF59</f>
+        <f t="shared" si="12"/>
         <v>11.813090914190179</v>
       </c>
       <c r="AL59" s="5">
         <v>1301526</v>
       </c>
       <c r="AM59" s="7">
-        <f>AL59*100/AF59</f>
+        <f t="shared" si="8"/>
         <v>4.0739484978057146</v>
       </c>
       <c r="AN59" s="7">
-        <f>SUM(AI59,AK59,AM59)</f>
+        <f t="shared" si="9"/>
         <v>95.395872832993803</v>
       </c>
       <c r="AO59" s="5">
@@ -12739,14 +12739,14 @@
         <v>820100</v>
       </c>
       <c r="AQ59" s="7">
-        <f>AP59*100/AF59</f>
+        <f t="shared" si="10"/>
         <v>2.5670214525491359</v>
       </c>
       <c r="AR59" s="5">
         <v>650805</v>
       </c>
       <c r="AS59" s="7">
-        <f>AR59*100/AF59</f>
+        <f t="shared" si="11"/>
         <v>2.0371057144570668</v>
       </c>
     </row>
@@ -12854,25 +12854,25 @@
         <v>22552563</v>
       </c>
       <c r="AI60" s="7">
-        <f>AH60*100/AF60</f>
+        <f t="shared" si="7"/>
         <v>75.908618832864789</v>
       </c>
       <c r="AJ60" s="5">
         <v>3971379</v>
       </c>
       <c r="AK60" s="7">
-        <f>AJ60*100/AF60</f>
+        <f t="shared" si="12"/>
         <v>13.367079154233766</v>
       </c>
       <c r="AL60" s="5">
         <v>1900092</v>
       </c>
       <c r="AM60" s="7">
-        <f>AL60*100/AF60</f>
+        <f t="shared" si="8"/>
         <v>6.3954309483749459</v>
       </c>
       <c r="AN60" s="7">
-        <f>SUM(AI60,AK60,AM60)</f>
+        <f t="shared" si="9"/>
         <v>95.671128935473504</v>
       </c>
       <c r="AO60" s="5">
@@ -12882,14 +12882,14 @@
         <v>874602</v>
       </c>
       <c r="AQ60" s="7">
-        <f>AP60*100/AF60</f>
+        <f t="shared" si="10"/>
         <v>2.9437820370332721</v>
       </c>
       <c r="AR60" s="5">
         <v>411512</v>
       </c>
       <c r="AS60" s="7">
-        <f>AR60*100/AF60</f>
+        <f t="shared" si="11"/>
         <v>1.3850890274932324</v>
       </c>
     </row>
@@ -12997,25 +12997,25 @@
         <v>21770662</v>
       </c>
       <c r="AI61" s="7">
-        <f>AH61*100/AF61</f>
+        <f t="shared" si="7"/>
         <v>80.835751648635309</v>
       </c>
       <c r="AJ61" s="5">
         <v>2928417</v>
       </c>
       <c r="AK61" s="7">
-        <f>AJ61*100/AF61</f>
+        <f t="shared" si="12"/>
         <v>10.873384986439167</v>
       </c>
       <c r="AL61" s="5">
         <v>1031389</v>
       </c>
       <c r="AM61" s="7">
-        <f>AL61*100/AF61</f>
+        <f t="shared" si="8"/>
         <v>3.8296081697990774</v>
       </c>
       <c r="AN61" s="7">
-        <f>SUM(AI61,AK61,AM61)</f>
+        <f t="shared" si="9"/>
         <v>95.538744804873545</v>
       </c>
       <c r="AO61" s="5">
@@ -13025,14 +13025,14 @@
         <v>724222</v>
       </c>
       <c r="AQ61" s="7">
-        <f>AP61*100/AF61</f>
+        <f t="shared" si="10"/>
         <v>2.6890789876062549</v>
       </c>
       <c r="AR61" s="5">
         <v>477282</v>
       </c>
       <c r="AS61" s="7">
-        <f>AR61*100/AF61</f>
+        <f t="shared" si="11"/>
         <v>1.7721762075201919</v>
       </c>
     </row>
@@ -13140,25 +13140,25 @@
         <v>17832094</v>
       </c>
       <c r="AI62" s="7">
-        <f>AH62*100/AF62</f>
+        <f t="shared" si="7"/>
         <v>77.340649370910086</v>
       </c>
       <c r="AJ62" s="5">
         <v>2721226</v>
       </c>
       <c r="AK62" s="7">
-        <f>AJ62*100/AF62</f>
+        <f t="shared" si="12"/>
         <v>11.802393253703361</v>
       </c>
       <c r="AL62" s="5">
         <v>1395132</v>
       </c>
       <c r="AM62" s="7">
-        <f>AL62*100/AF62</f>
+        <f t="shared" si="8"/>
         <v>6.0509110617147108</v>
       </c>
       <c r="AN62" s="7">
-        <f>SUM(AI62,AK62,AM62)</f>
+        <f t="shared" si="9"/>
         <v>95.193953686328157</v>
       </c>
       <c r="AO62" s="5">
@@ -13168,14 +13168,14 @@
         <v>654737</v>
       </c>
       <c r="AQ62" s="7">
-        <f>AP62*100/AF62</f>
+        <f t="shared" si="10"/>
         <v>2.8396992942702948</v>
       </c>
       <c r="AR62" s="5">
         <v>453372</v>
       </c>
       <c r="AS62" s="7">
-        <f>AR62*100/AF62</f>
+        <f t="shared" si="11"/>
         <v>1.9663470194015491</v>
       </c>
     </row>
@@ -13283,25 +13283,25 @@
         <v>11835095</v>
       </c>
       <c r="AI63" s="7">
-        <f>AH63*100/AF63</f>
+        <f t="shared" si="7"/>
         <v>80.261281434483749</v>
       </c>
       <c r="AJ63" s="11">
         <v>831550</v>
       </c>
       <c r="AK63" s="7">
-        <f>AJ63*100/AF63</f>
+        <f t="shared" si="12"/>
         <v>5.6392676676313087</v>
       </c>
       <c r="AL63" s="11">
         <v>430729</v>
       </c>
       <c r="AM63" s="7">
-        <f>AL63*100/AF63</f>
+        <f t="shared" si="8"/>
         <v>2.9210463871218399</v>
       </c>
       <c r="AN63" s="7">
-        <f>SUM(AI63,AK63,AM63)</f>
+        <f t="shared" si="9"/>
         <v>88.821595489236898</v>
       </c>
       <c r="AO63" s="11">
@@ -13311,14 +13311,14 @@
         <v>962603</v>
       </c>
       <c r="AQ63" s="7">
-        <f>AP63*100/AF63</f>
+        <f t="shared" si="10"/>
         <v>6.5280211348264094</v>
       </c>
       <c r="AR63" s="11">
         <v>685732</v>
       </c>
       <c r="AS63" s="7">
-        <f>AR63*100/AF63</f>
+        <f t="shared" si="11"/>
         <v>4.6503833759366877</v>
       </c>
     </row>
@@ -13426,25 +13426,25 @@
         <v>12005732</v>
       </c>
       <c r="AI64" s="7">
-        <f>AH64*100/AF64</f>
+        <f t="shared" si="7"/>
         <v>83.461672016670462</v>
       </c>
       <c r="AJ64" s="11">
         <v>749138</v>
       </c>
       <c r="AK64" s="7">
-        <f>AJ64*100/AF64</f>
+        <f t="shared" si="12"/>
         <v>5.2078715442943819</v>
       </c>
       <c r="AL64" s="11">
         <v>524048</v>
       </c>
       <c r="AM64" s="7">
-        <f>AL64*100/AF64</f>
+        <f t="shared" si="8"/>
         <v>3.6430866770132901</v>
       </c>
       <c r="AN64" s="7">
-        <f>SUM(AI64,AK64,AM64)</f>
+        <f t="shared" si="9"/>
         <v>92.312630237978127</v>
       </c>
       <c r="AO64" s="11">
@@ -13454,14 +13454,14 @@
         <v>329869</v>
       </c>
       <c r="AQ64" s="7">
-        <f>AP64*100/AF64</f>
+        <f t="shared" si="10"/>
         <v>2.29318947703206</v>
       </c>
       <c r="AR64" s="11">
         <v>775938</v>
       </c>
       <c r="AS64" s="7">
-        <f>AR64*100/AF64</f>
+        <f t="shared" si="11"/>
         <v>5.3941802849898073</v>
       </c>
     </row>
@@ -13569,25 +13569,25 @@
         <v>12534648</v>
       </c>
       <c r="AI65" s="7">
-        <f>AH65*100/AF65</f>
+        <f t="shared" si="7"/>
         <v>81.974200846813673</v>
       </c>
       <c r="AJ65" s="11">
         <v>827042</v>
       </c>
       <c r="AK65" s="7">
-        <f>AJ65*100/AF65</f>
+        <f t="shared" si="12"/>
         <v>5.4086965199781023</v>
       </c>
       <c r="AL65" s="11">
         <v>495473</v>
       </c>
       <c r="AM65" s="7">
-        <f>AL65*100/AF65</f>
+        <f t="shared" si="8"/>
         <v>3.240298667834415</v>
       </c>
       <c r="AN65" s="7">
-        <f>SUM(AI65,AK65,AM65)</f>
+        <f t="shared" si="9"/>
         <v>90.62319603462619</v>
       </c>
       <c r="AO65" s="11">
@@ -13597,14 +13597,14 @@
         <v>356428</v>
       </c>
       <c r="AQ65" s="7">
-        <f>AP65*100/AF65</f>
+        <f t="shared" si="10"/>
         <v>2.3309709582134341</v>
       </c>
       <c r="AR65" s="11">
         <v>1077376</v>
       </c>
       <c r="AS65" s="7">
-        <f>AR65*100/AF65</f>
+        <f t="shared" si="11"/>
         <v>7.045833007160371</v>
       </c>
     </row>
@@ -13712,25 +13712,25 @@
         <v>13554683</v>
       </c>
       <c r="AI66" s="7">
-        <f>AH66*100/AF66</f>
+        <f t="shared" ref="AI66:AI97" si="13">AH66*100/AF66</f>
         <v>83.365507657074929</v>
       </c>
       <c r="AJ66" s="11">
         <v>891909</v>
       </c>
       <c r="AK66" s="7">
-        <f>AJ66*100/AF66</f>
+        <f t="shared" si="12"/>
         <v>5.4855171875959066</v>
       </c>
       <c r="AL66" s="11">
         <v>431755</v>
       </c>
       <c r="AM66" s="7">
-        <f>AL66*100/AF66</f>
+        <f t="shared" ref="AM66:AM97" si="14">AL66*100/AF66</f>
         <v>2.6554272614476035</v>
       </c>
       <c r="AN66" s="7">
-        <f>SUM(AI66,AK66,AM66)</f>
+        <f t="shared" ref="AN66:AN97" si="15">SUM(AI66,AK66,AM66)</f>
         <v>91.506452106118431</v>
       </c>
       <c r="AO66" s="11">
@@ -13740,14 +13740,14 @@
         <v>359213</v>
       </c>
       <c r="AQ66" s="7">
-        <f>AP66*100/AF66</f>
+        <f t="shared" ref="AQ66:AQ97" si="16">AP66*100/AF66</f>
         <v>2.2092714453020301</v>
       </c>
       <c r="AR66" s="11">
         <v>1021782</v>
       </c>
       <c r="AS66" s="7">
-        <f>AR66*100/AF66</f>
+        <f t="shared" ref="AS66:AS97" si="17">AR66*100/AF66</f>
         <v>6.2842764485795302</v>
       </c>
     </row>
@@ -13855,25 +13855,25 @@
         <v>12569965</v>
       </c>
       <c r="AI67" s="7">
-        <f>AH67*100/AF67</f>
+        <f t="shared" si="13"/>
         <v>84.716352417772342</v>
       </c>
       <c r="AJ67" s="11">
         <v>657175</v>
       </c>
       <c r="AK67" s="7">
-        <f>AJ67*100/AF67</f>
+        <f t="shared" si="12"/>
         <v>4.4290870261094231</v>
       </c>
       <c r="AL67" s="11">
         <v>500713</v>
       </c>
       <c r="AM67" s="7">
-        <f>AL67*100/AF67</f>
+        <f t="shared" si="14"/>
         <v>3.3745980174296459</v>
       </c>
       <c r="AN67" s="7">
-        <f>SUM(AI67,AK67,AM67)</f>
+        <f t="shared" si="15"/>
         <v>92.520037461311418</v>
       </c>
       <c r="AO67" s="11">
@@ -13883,14 +13883,14 @@
         <v>347889</v>
       </c>
       <c r="AQ67" s="7">
-        <f>AP67*100/AF67</f>
+        <f t="shared" si="16"/>
         <v>2.3446276203844962</v>
       </c>
       <c r="AR67" s="11">
         <v>761966</v>
       </c>
       <c r="AS67" s="7">
-        <f>AR67*100/AF67</f>
+        <f t="shared" si="17"/>
         <v>5.1353349183040935</v>
       </c>
     </row>
@@ -13998,25 +13998,25 @@
         <v>16670616</v>
       </c>
       <c r="AI68" s="7">
-        <f>AH68*100/AF68</f>
+        <f t="shared" si="13"/>
         <v>85.28810505632849</v>
       </c>
       <c r="AJ68" s="11">
         <v>857345</v>
       </c>
       <c r="AK68" s="7">
-        <f>AJ68*100/AF68</f>
+        <f t="shared" si="12"/>
         <v>4.3862404622311466</v>
       </c>
       <c r="AL68" s="11">
         <v>605598</v>
       </c>
       <c r="AM68" s="7">
-        <f>AL68*100/AF68</f>
+        <f t="shared" si="14"/>
         <v>3.0982841813345359</v>
       </c>
       <c r="AN68" s="7">
-        <f>SUM(AI68,AK68,AM68)</f>
+        <f t="shared" si="15"/>
         <v>92.772629699894168</v>
       </c>
       <c r="AO68" s="11">
@@ -14026,14 +14026,14 @@
         <v>394809</v>
       </c>
       <c r="AQ68" s="7">
-        <f>AP68*100/AF68</f>
+        <f t="shared" si="16"/>
         <v>2.0198720592678754</v>
       </c>
       <c r="AR68" s="11">
         <v>1017870</v>
       </c>
       <c r="AS68" s="7">
-        <f>AR68*100/AF68</f>
+        <f t="shared" si="17"/>
         <v>5.207498240837956</v>
       </c>
     </row>
@@ -14141,25 +14141,25 @@
         <v>16878323</v>
       </c>
       <c r="AI69" s="7">
-        <f>AH69*100/AF69</f>
+        <f t="shared" si="13"/>
         <v>84.721554622321165</v>
       </c>
       <c r="AJ69" s="11">
         <v>894751</v>
       </c>
       <c r="AK69" s="7">
-        <f>AJ69*100/AF69</f>
+        <f t="shared" si="12"/>
         <v>4.4912457072824408</v>
       </c>
       <c r="AL69" s="11">
         <v>634902</v>
       </c>
       <c r="AM69" s="7">
-        <f>AL69*100/AF69</f>
+        <f t="shared" si="14"/>
         <v>3.1869211457098525</v>
       </c>
       <c r="AN69" s="7">
-        <f>SUM(AI69,AK69,AM69)</f>
+        <f t="shared" si="15"/>
         <v>92.399721475313456</v>
       </c>
       <c r="AO69" s="11">
@@ -14169,14 +14169,14 @@
         <v>417611</v>
       </c>
       <c r="AQ69" s="7">
-        <f>AP69*100/AF69</f>
+        <f t="shared" si="16"/>
         <v>2.0962185133785014</v>
       </c>
       <c r="AR69" s="11">
         <v>1096525</v>
       </c>
       <c r="AS69" s="7">
-        <f>AR69*100/AF69</f>
+        <f t="shared" si="17"/>
         <v>5.504060011308038</v>
       </c>
     </row>
@@ -14284,25 +14284,25 @@
         <v>17028843</v>
       </c>
       <c r="AI70" s="7">
-        <f>AH70*100/AF70</f>
+        <f t="shared" si="13"/>
         <v>78.764666868733585</v>
       </c>
       <c r="AJ70" s="11">
         <v>1478108</v>
       </c>
       <c r="AK70" s="7">
-        <f>AJ70*100/AF70</f>
+        <f t="shared" si="12"/>
         <v>6.8367935634857906</v>
       </c>
       <c r="AL70" s="11">
         <v>951704</v>
       </c>
       <c r="AM70" s="7">
-        <f>AL70*100/AF70</f>
+        <f t="shared" si="14"/>
         <v>4.4019813041697091</v>
       </c>
       <c r="AN70" s="7">
-        <f>SUM(AI70,AK70,AM70)</f>
+        <f t="shared" si="15"/>
         <v>90.003441736389078</v>
       </c>
       <c r="AO70" s="11">
@@ -14312,14 +14312,14 @@
         <v>466767</v>
       </c>
       <c r="AQ70" s="7">
-        <f>AP70*100/AF70</f>
+        <f t="shared" si="16"/>
         <v>2.1589691830688773</v>
       </c>
       <c r="AR70" s="11">
         <v>1694479</v>
       </c>
       <c r="AS70" s="7">
-        <f>AR70*100/AF70</f>
+        <f t="shared" si="17"/>
         <v>7.8375890805420436</v>
       </c>
     </row>
@@ -14427,25 +14427,25 @@
         <v>17366728</v>
       </c>
       <c r="AI71" s="7">
-        <f>AH71*100/AF71</f>
+        <f t="shared" si="13"/>
         <v>86.018157758098013</v>
       </c>
       <c r="AJ71" s="11">
         <v>1159626</v>
       </c>
       <c r="AK71" s="7">
-        <f>AJ71*100/AF71</f>
+        <f t="shared" si="12"/>
         <v>5.7436779230026618</v>
       </c>
       <c r="AL71" s="11">
         <v>472709</v>
       </c>
       <c r="AM71" s="7">
-        <f>AL71*100/AF71</f>
+        <f t="shared" si="14"/>
         <v>2.3413481995959606</v>
       </c>
       <c r="AN71" s="7">
-        <f>SUM(AI71,AK71,AM71)</f>
+        <f t="shared" si="15"/>
         <v>94.103183880696633</v>
       </c>
       <c r="AO71" s="11">
@@ -14455,14 +14455,14 @@
         <v>347040</v>
       </c>
       <c r="AQ71" s="7">
-        <f>AP71*100/AF71</f>
+        <f t="shared" si="16"/>
         <v>1.7189041866936785</v>
       </c>
       <c r="AR71" s="11">
         <v>843504</v>
       </c>
       <c r="AS71" s="7">
-        <f>AR71*100/AF71</f>
+        <f t="shared" si="17"/>
         <v>4.1779119326096836</v>
       </c>
     </row>
@@ -16518,25 +16518,25 @@
         <v>29439705</v>
       </c>
       <c r="AI86" s="7">
-        <f>AH86*100/AF86</f>
+        <f t="shared" ref="AI86:AI117" si="18">AH86*100/AF86</f>
         <v>80.421125180396174</v>
       </c>
       <c r="AJ86" s="11">
         <v>2063940</v>
       </c>
       <c r="AK86" s="7">
-        <f>AJ86*100/AF86</f>
+        <f t="shared" ref="AK86:AK117" si="19">AJ86*100/AF86</f>
         <v>5.6381127835631126</v>
       </c>
       <c r="AL86" s="11">
         <v>1282529</v>
       </c>
       <c r="AM86" s="7">
-        <f>AL86*100/AF86</f>
+        <f t="shared" ref="AM86:AM117" si="20">AL86*100/AF86</f>
         <v>3.5035142253119833</v>
       </c>
       <c r="AN86" s="7">
-        <f>SUM(AI86,AK86,AM86)</f>
+        <f t="shared" ref="AN86:AN117" si="21">SUM(AI86,AK86,AM86)</f>
         <v>89.562752189271279</v>
       </c>
       <c r="AO86" s="11">
@@ -16546,14 +16546,14 @@
         <v>1086204</v>
       </c>
       <c r="AQ86" s="7">
-        <f>AP86*100/AF86</f>
+        <f t="shared" ref="AQ86:AQ117" si="22">AP86*100/AF86</f>
         <v>2.967208667866986</v>
       </c>
       <c r="AR86" s="11">
         <v>2734552</v>
       </c>
       <c r="AS86" s="7">
-        <f>AR86*100/AF86</f>
+        <f t="shared" ref="AS86:AS117" si="23">AR86*100/AF86</f>
         <v>7.4700391428617481</v>
       </c>
     </row>
@@ -16661,25 +16661,25 @@
         <v>15585122</v>
       </c>
       <c r="AI87" s="7">
-        <f>AH87*100/AF87</f>
+        <f t="shared" si="18"/>
         <v>88.001167241507133</v>
       </c>
       <c r="AJ87" s="11">
         <v>647810</v>
       </c>
       <c r="AK87" s="7">
-        <f>AJ87*100/AF87</f>
+        <f t="shared" si="19"/>
         <v>3.6578498487673525</v>
       </c>
       <c r="AL87" s="11">
         <v>263408</v>
       </c>
       <c r="AM87" s="7">
-        <f>AL87*100/AF87</f>
+        <f t="shared" si="20"/>
         <v>1.4873294838982276</v>
       </c>
       <c r="AN87" s="7">
-        <f>SUM(AI87,AK87,AM87)</f>
+        <f t="shared" si="21"/>
         <v>93.146346574172711</v>
       </c>
       <c r="AO87" s="11">
@@ -16689,14 +16689,14 @@
         <v>603994</v>
       </c>
       <c r="AQ87" s="7">
-        <f>AP87*100/AF87</f>
+        <f t="shared" si="22"/>
         <v>3.4104434348904591</v>
       </c>
       <c r="AR87" s="11">
         <v>609797</v>
       </c>
       <c r="AS87" s="7">
-        <f>AR87*100/AF87</f>
+        <f t="shared" si="23"/>
         <v>3.4432099909368259</v>
       </c>
     </row>
@@ -16804,25 +16804,25 @@
         <v>8356422</v>
       </c>
       <c r="AI88" s="7">
-        <f>AH88*100/AF88</f>
+        <f t="shared" si="18"/>
         <v>87.592741574105474</v>
       </c>
       <c r="AJ88" s="11">
         <v>343491</v>
       </c>
       <c r="AK88" s="7">
-        <f>AJ88*100/AF88</f>
+        <f t="shared" si="19"/>
         <v>3.6005025112459688</v>
       </c>
       <c r="AL88" s="11">
         <v>156900</v>
       </c>
       <c r="AM88" s="7">
-        <f>AL88*100/AF88</f>
+        <f t="shared" si="20"/>
         <v>1.6446394345543043</v>
       </c>
       <c r="AN88" s="7">
-        <f>SUM(AI88,AK88,AM88)</f>
+        <f t="shared" si="21"/>
         <v>92.837883519905745</v>
       </c>
       <c r="AO88" s="11">
@@ -16832,14 +16832,14 @@
         <v>320979</v>
       </c>
       <c r="AQ88" s="7">
-        <f>AP88*100/AF88</f>
+        <f t="shared" si="22"/>
         <v>3.3645297709611603</v>
       </c>
       <c r="AR88" s="11">
         <v>362293</v>
       </c>
       <c r="AS88" s="7">
-        <f>AR88*100/AF88</f>
+        <f t="shared" si="23"/>
         <v>3.7975867091330948</v>
       </c>
     </row>
@@ -16947,25 +16947,25 @@
         <v>42741775</v>
       </c>
       <c r="AI89" s="7">
-        <f>AH89*100/AF89</f>
+        <f t="shared" si="18"/>
         <v>88.122788749005664</v>
       </c>
       <c r="AJ89" s="11">
         <v>1948461</v>
       </c>
       <c r="AK89" s="7">
-        <f>AJ89*100/AF89</f>
+        <f t="shared" si="19"/>
         <v>4.0172364645285867</v>
       </c>
       <c r="AL89" s="11">
         <v>407190</v>
       </c>
       <c r="AM89" s="7">
-        <f>AL89*100/AF89</f>
+        <f t="shared" si="20"/>
         <v>0.83952335509481346</v>
       </c>
       <c r="AN89" s="7">
-        <f>SUM(AI89,AK89,AM89)</f>
+        <f t="shared" si="21"/>
         <v>92.979548568629056</v>
       </c>
       <c r="AO89" s="11">
@@ -16975,14 +16975,14 @@
         <v>479688</v>
       </c>
       <c r="AQ89" s="7">
-        <f>AP89*100/AF89</f>
+        <f t="shared" si="22"/>
         <v>0.98899599488867818</v>
       </c>
       <c r="AR89" s="11">
         <v>2925408</v>
       </c>
       <c r="AS89" s="7">
-        <f>AR89*100/AF89</f>
+        <f t="shared" si="23"/>
         <v>6.0314554364822515</v>
       </c>
     </row>
@@ -17090,25 +17090,25 @@
         <v>39538607</v>
       </c>
       <c r="AI90" s="7">
-        <f>AH90*100/AF90</f>
+        <f t="shared" si="18"/>
         <v>85.418818100224172</v>
       </c>
       <c r="AJ90" s="11">
         <v>2154405</v>
       </c>
       <c r="AK90" s="7">
-        <f>AJ90*100/AF90</f>
+        <f t="shared" si="19"/>
         <v>4.6543553952017946</v>
       </c>
       <c r="AL90" s="11">
         <v>538413</v>
       </c>
       <c r="AM90" s="7">
-        <f>AL90*100/AF90</f>
+        <f t="shared" si="20"/>
         <v>1.1631821553499848</v>
       </c>
       <c r="AN90" s="7">
-        <f>SUM(AI90,AK90,AM90)</f>
+        <f t="shared" si="21"/>
         <v>91.236355650775948</v>
       </c>
       <c r="AO90" s="11">
@@ -17118,14 +17118,14 @@
         <v>471694</v>
       </c>
       <c r="AQ90" s="7">
-        <f>AP90*100/AF90</f>
+        <f t="shared" si="22"/>
         <v>1.0190430832570085</v>
       </c>
       <c r="AR90" s="11">
         <v>3584816</v>
       </c>
       <c r="AS90" s="7">
-        <f>AR90*100/AF90</f>
+        <f t="shared" si="23"/>
         <v>7.7446012659670389</v>
       </c>
     </row>
@@ -17233,25 +17233,25 @@
         <v>40842850</v>
       </c>
       <c r="AI91" s="7">
-        <f>AH91*100/AF91</f>
+        <f t="shared" si="18"/>
         <v>86.862782649880742</v>
       </c>
       <c r="AJ91" s="11">
         <v>2226228</v>
       </c>
       <c r="AK91" s="7">
-        <f>AJ91*100/AF91</f>
+        <f t="shared" si="19"/>
         <v>4.7346441027763415</v>
       </c>
       <c r="AL91" s="11">
         <v>425809</v>
       </c>
       <c r="AM91" s="7">
-        <f>AL91*100/AF91</f>
+        <f t="shared" si="20"/>
         <v>0.90559191186126997</v>
       </c>
       <c r="AN91" s="7">
-        <f>SUM(AI91,AK91,AM91)</f>
+        <f t="shared" si="21"/>
         <v>92.503018664518351</v>
       </c>
       <c r="AO91" s="11">
@@ -17261,14 +17261,14 @@
         <v>473522</v>
       </c>
       <c r="AQ91" s="7">
-        <f>AP91*100/AF91</f>
+        <f t="shared" si="22"/>
         <v>1.0070658283135685</v>
       </c>
       <c r="AR91" s="11">
         <v>3051556</v>
       </c>
       <c r="AS91" s="7">
-        <f>AR91*100/AF91</f>
+        <f t="shared" si="23"/>
         <v>6.4899155071680719</v>
       </c>
     </row>
@@ -17376,25 +17376,25 @@
         <v>40866029</v>
       </c>
       <c r="AI92" s="7">
-        <f>AH92*100/AF92</f>
+        <f t="shared" si="18"/>
         <v>87.200178915367616</v>
       </c>
       <c r="AJ92" s="11">
         <v>1945088</v>
       </c>
       <c r="AK92" s="7">
-        <f>AJ92*100/AF92</f>
+        <f t="shared" si="19"/>
         <v>4.1504404943806641</v>
       </c>
       <c r="AL92" s="11">
         <v>464550</v>
       </c>
       <c r="AM92" s="7">
-        <f>AL92*100/AF92</f>
+        <f t="shared" si="20"/>
         <v>0.99125958911089762</v>
       </c>
       <c r="AN92" s="7">
-        <f>SUM(AI92,AK92,AM92)</f>
+        <f t="shared" si="21"/>
         <v>92.341878998859173</v>
       </c>
       <c r="AO92" s="11">
@@ -17404,14 +17404,14 @@
         <v>425904</v>
       </c>
       <c r="AQ92" s="7">
-        <f>AP92*100/AF92</f>
+        <f t="shared" si="22"/>
         <v>0.90879652145234691</v>
       </c>
       <c r="AR92" s="11">
         <v>3163045</v>
       </c>
       <c r="AS92" s="7">
-        <f>AR92*100/AF92</f>
+        <f t="shared" si="23"/>
         <v>6.7493244796884708</v>
       </c>
     </row>
@@ -17519,25 +17519,25 @@
         <v>43442747</v>
       </c>
       <c r="AI93" s="7">
-        <f>AH93*100/AF93</f>
+        <f t="shared" si="18"/>
         <v>87.635059448579156</v>
       </c>
       <c r="AJ93" s="11">
         <v>2301847</v>
       </c>
       <c r="AK93" s="7">
-        <f>AJ93*100/AF93</f>
+        <f t="shared" si="19"/>
         <v>4.6434102955444683</v>
       </c>
       <c r="AL93" s="11">
         <v>425551</v>
       </c>
       <c r="AM93" s="7">
-        <f>AL93*100/AF93</f>
+        <f t="shared" si="20"/>
         <v>0.85844449899547803</v>
       </c>
       <c r="AN93" s="7">
-        <f>SUM(AI93,AK93,AM93)</f>
+        <f t="shared" si="21"/>
         <v>93.136914243119108</v>
       </c>
       <c r="AO93" s="11">
@@ -17547,14 +17547,14 @@
         <v>432035</v>
       </c>
       <c r="AQ93" s="7">
-        <f>AP93*100/AF93</f>
+        <f t="shared" si="22"/>
         <v>0.87152437457205212</v>
       </c>
       <c r="AR93" s="11">
         <v>2970157</v>
       </c>
       <c r="AS93" s="7">
-        <f>AR93*100/AF93</f>
+        <f t="shared" si="23"/>
         <v>5.9915613823088467</v>
       </c>
     </row>
@@ -17662,25 +17662,25 @@
         <v>41973402</v>
       </c>
       <c r="AI94" s="7">
-        <f>AH94*100/AF94</f>
+        <f t="shared" si="18"/>
         <v>87.51254463726687</v>
       </c>
       <c r="AJ94" s="11">
         <v>1953935</v>
       </c>
       <c r="AK94" s="7">
-        <f>AJ94*100/AF94</f>
+        <f t="shared" si="19"/>
         <v>4.0738614398189128</v>
       </c>
       <c r="AL94" s="11">
         <v>438910</v>
       </c>
       <c r="AM94" s="7">
-        <f>AL94*100/AF94</f>
+        <f t="shared" si="20"/>
         <v>0.91510645162245363</v>
       </c>
       <c r="AN94" s="7">
-        <f>SUM(AI94,AK94,AM94)</f>
+        <f t="shared" si="21"/>
         <v>92.501512528708233</v>
       </c>
       <c r="AO94" s="11">
@@ -17690,14 +17690,14 @@
         <v>463148</v>
       </c>
       <c r="AQ94" s="7">
-        <f>AP94*100/AF94</f>
+        <f t="shared" si="22"/>
         <v>0.96564152754787125</v>
       </c>
       <c r="AR94" s="11">
         <v>3133331</v>
       </c>
       <c r="AS94" s="7">
-        <f>AR94*100/AF94</f>
+        <f t="shared" si="23"/>
         <v>6.5328459437438982</v>
       </c>
     </row>
@@ -17805,25 +17805,25 @@
         <v>42818054</v>
       </c>
       <c r="AI95" s="7">
-        <f>AH95*100/AF95</f>
+        <f t="shared" si="18"/>
         <v>87.746175377779622</v>
       </c>
       <c r="AJ95" s="11">
         <v>1998389</v>
       </c>
       <c r="AK95" s="7">
-        <f>AJ95*100/AF95</f>
+        <f t="shared" si="19"/>
         <v>4.0952583147993051</v>
       </c>
       <c r="AL95" s="11">
         <v>420025</v>
       </c>
       <c r="AM95" s="7">
-        <f>AL95*100/AF95</f>
+        <f t="shared" si="20"/>
         <v>0.86074876997100069</v>
       </c>
       <c r="AN95" s="7">
-        <f>SUM(AI95,AK95,AM95)</f>
+        <f t="shared" si="21"/>
         <v>92.702182462549928</v>
       </c>
       <c r="AO95" s="11">
@@ -17833,14 +17833,14 @@
         <v>480576</v>
       </c>
       <c r="AQ95" s="7">
-        <f>AP95*100/AF95</f>
+        <f t="shared" si="22"/>
         <v>0.98483471430887115</v>
       </c>
       <c r="AR95" s="11">
         <v>3080586</v>
       </c>
       <c r="AS95" s="7">
-        <f>AR95*100/AF95</f>
+        <f t="shared" si="23"/>
         <v>6.3129828231412057</v>
       </c>
     </row>
@@ -17948,25 +17948,25 @@
         <v>40922780</v>
       </c>
       <c r="AI96" s="7">
-        <f>AH96*100/AF96</f>
+        <f t="shared" si="18"/>
         <v>85.738528159715244</v>
       </c>
       <c r="AJ96" s="11">
         <v>2171769</v>
       </c>
       <c r="AK96" s="7">
-        <f>AJ96*100/AF96</f>
+        <f t="shared" si="19"/>
         <v>4.5501375410687306</v>
       </c>
       <c r="AL96" s="11">
         <v>544662</v>
       </c>
       <c r="AM96" s="7">
-        <f>AL96*100/AF96</f>
+        <f t="shared" si="20"/>
         <v>1.1411374844164259</v>
       </c>
       <c r="AN96" s="7">
-        <f>SUM(AI96,AK96,AM96)</f>
+        <f t="shared" si="21"/>
         <v>91.429803185200413</v>
       </c>
       <c r="AO96" s="11">
@@ -17976,14 +17976,14 @@
         <v>514762</v>
       </c>
       <c r="AQ96" s="7">
-        <f>AP96*100/AF96</f>
+        <f t="shared" si="22"/>
         <v>1.0784931090349028</v>
       </c>
       <c r="AR96" s="11">
         <v>3575771</v>
       </c>
       <c r="AS96" s="7">
-        <f>AR96*100/AF96</f>
+        <f t="shared" si="23"/>
         <v>7.4917037057646905</v>
       </c>
     </row>
@@ -18091,25 +18091,25 @@
         <v>39394580</v>
       </c>
       <c r="AI97" s="7">
-        <f>AH97*100/AF97</f>
+        <f t="shared" si="18"/>
         <v>86.235157057248998</v>
       </c>
       <c r="AJ97" s="11">
         <v>1786827</v>
       </c>
       <c r="AK97" s="7">
-        <f>AJ97*100/AF97</f>
+        <f t="shared" si="19"/>
         <v>3.9113834182045615</v>
       </c>
       <c r="AL97" s="11">
         <v>1179125</v>
       </c>
       <c r="AM97" s="7">
-        <f>AL97*100/AF97</f>
+        <f t="shared" si="20"/>
         <v>2.5811172391006258</v>
       </c>
       <c r="AN97" s="7">
-        <f>SUM(AI97,AK97,AM97)</f>
+        <f t="shared" si="21"/>
         <v>92.727657714554184</v>
       </c>
       <c r="AO97" s="11">
@@ -18119,14 +18119,14 @@
         <v>1107246</v>
       </c>
       <c r="AQ97" s="7">
-        <f>AP97*100/AF97</f>
+        <f t="shared" si="22"/>
         <v>2.4237733391499727</v>
       </c>
       <c r="AR97" s="11">
         <v>2214959</v>
       </c>
       <c r="AS97" s="7">
-        <f>AR97*100/AF97</f>
+        <f t="shared" si="23"/>
         <v>4.8485689462958401</v>
       </c>
     </row>
@@ -18234,25 +18234,25 @@
         <v>40056566</v>
       </c>
       <c r="AI98" s="7">
-        <f>AH98*100/AF98</f>
+        <f t="shared" si="18"/>
         <v>81.86942269117479</v>
       </c>
       <c r="AJ98" s="11">
         <v>3509270</v>
       </c>
       <c r="AK98" s="7">
-        <f>AJ98*100/AF98</f>
+        <f t="shared" si="19"/>
         <v>7.1724048678426149</v>
       </c>
       <c r="AL98" s="11">
         <v>1193274</v>
       </c>
       <c r="AM98" s="7">
-        <f>AL98*100/AF98</f>
+        <f t="shared" si="20"/>
         <v>2.4388674129576886</v>
       </c>
       <c r="AN98" s="7">
-        <f>SUM(AI98,AK98,AM98)</f>
+        <f t="shared" si="21"/>
         <v>91.480694971975097</v>
       </c>
       <c r="AO98" s="11">
@@ -18262,14 +18262,14 @@
         <v>1265314</v>
       </c>
       <c r="AQ98" s="7">
-        <f>AP98*100/AF98</f>
+        <f t="shared" si="22"/>
         <v>2.5861060257402282</v>
       </c>
       <c r="AR98" s="11">
         <v>2902959</v>
       </c>
       <c r="AS98" s="7">
-        <f>AR98*100/AF98</f>
+        <f t="shared" si="23"/>
         <v>5.9331990022846712</v>
       </c>
     </row>
@@ -18377,25 +18377,25 @@
         <v>36678276</v>
       </c>
       <c r="AI99" s="7">
-        <f>AH99*100/AF99</f>
+        <f t="shared" si="18"/>
         <v>78.950316112078127</v>
       </c>
       <c r="AJ99" s="11">
         <v>2834307</v>
       </c>
       <c r="AK99" s="7">
-        <f>AJ99*100/AF99</f>
+        <f t="shared" si="19"/>
         <v>6.1008710880706554</v>
       </c>
       <c r="AL99" s="11">
         <v>1207996</v>
       </c>
       <c r="AM99" s="7">
-        <f>AL99*100/AF99</f>
+        <f t="shared" si="20"/>
         <v>2.6002221604452163</v>
       </c>
       <c r="AN99" s="7">
-        <f>SUM(AI99,AK99,AM99)</f>
+        <f t="shared" si="21"/>
         <v>87.651409360594002</v>
       </c>
       <c r="AO99" s="11">
@@ -18405,14 +18405,14 @@
         <v>1539563</v>
       </c>
       <c r="AQ99" s="7">
-        <f>AP99*100/AF99</f>
+        <f t="shared" si="22"/>
         <v>3.3139230841836551</v>
       </c>
       <c r="AR99" s="11">
         <v>4197273</v>
       </c>
       <c r="AS99" s="7">
-        <f>AR99*100/AF99</f>
+        <f t="shared" si="23"/>
         <v>9.034667555222347</v>
       </c>
     </row>
@@ -18520,25 +18520,25 @@
         <v>37887521</v>
       </c>
       <c r="AI100" s="7">
-        <f>AH100*100/AF100</f>
+        <f t="shared" si="18"/>
         <v>83.056994198476275</v>
       </c>
       <c r="AJ100" s="11">
         <v>1846657</v>
       </c>
       <c r="AK100" s="7">
-        <f>AJ100*100/AF100</f>
+        <f t="shared" si="19"/>
         <v>4.0482400454644578</v>
       </c>
       <c r="AL100" s="11">
         <v>1476506</v>
       </c>
       <c r="AM100" s="7">
-        <f>AL100*100/AF100</f>
+        <f t="shared" si="20"/>
         <v>3.2367953098862134</v>
       </c>
       <c r="AN100" s="7">
-        <f>SUM(AI100,AK100,AM100)</f>
+        <f t="shared" si="21"/>
         <v>90.342029553826947</v>
       </c>
       <c r="AO100" s="11">
@@ -18548,14 +18548,14 @@
         <v>1182493</v>
       </c>
       <c r="AQ100" s="7">
-        <f>AP100*100/AF100</f>
+        <f t="shared" si="22"/>
         <v>2.5922602389514693</v>
       </c>
       <c r="AR100" s="11">
         <v>3223115</v>
       </c>
       <c r="AS100" s="7">
-        <f>AR100*100/AF100</f>
+        <f t="shared" si="23"/>
         <v>7.0657102072215778</v>
       </c>
     </row>
@@ -18663,25 +18663,25 @@
         <v>44164691</v>
       </c>
       <c r="AI101" s="7">
-        <f>AH101*100/AF101</f>
+        <f t="shared" si="18"/>
         <v>87.895646867230155</v>
       </c>
       <c r="AJ101" s="11">
         <v>2413012</v>
       </c>
       <c r="AK101" s="7">
-        <f>AJ101*100/AF101</f>
+        <f t="shared" si="19"/>
         <v>4.8023261532247279</v>
       </c>
       <c r="AL101" s="11">
         <v>425857</v>
       </c>
       <c r="AM101" s="7">
-        <f>AL101*100/AF101</f>
+        <f t="shared" si="20"/>
         <v>0.84753171912689329</v>
       </c>
       <c r="AN101" s="7">
-        <f>SUM(AI101,AK101,AM101)</f>
+        <f t="shared" si="21"/>
         <v>93.545504739581773</v>
       </c>
       <c r="AO101" s="11">
@@ -18691,14 +18691,14 @@
         <v>435035</v>
       </c>
       <c r="AQ101" s="7">
-        <f>AP101*100/AF101</f>
+        <f t="shared" si="22"/>
         <v>0.86579758329760459</v>
       </c>
       <c r="AR101" s="11">
         <v>2808138</v>
       </c>
       <c r="AS101" s="7">
-        <f>AR101*100/AF101</f>
+        <f t="shared" si="23"/>
         <v>5.5886976771206198</v>
       </c>
     </row>
@@ -18806,25 +18806,25 @@
         <v>41086591</v>
       </c>
       <c r="AI102" s="7">
-        <f>AH102*100/AF102</f>
+        <f t="shared" si="18"/>
         <v>87.977519996364975</v>
       </c>
       <c r="AJ102" s="11">
         <v>2270508</v>
       </c>
       <c r="AK102" s="7">
-        <f>AJ102*100/AF102</f>
+        <f t="shared" si="19"/>
         <v>4.8617726151071201</v>
       </c>
       <c r="AL102" s="11">
         <v>387626</v>
       </c>
       <c r="AM102" s="7">
-        <f>AL102*100/AF102</f>
+        <f t="shared" si="20"/>
         <v>0.83001225791915834</v>
       </c>
       <c r="AN102" s="7">
-        <f>SUM(AI102,AK102,AM102)</f>
+        <f t="shared" si="21"/>
         <v>93.669304869391254</v>
       </c>
       <c r="AO102" s="11">
@@ -18834,14 +18834,14 @@
         <v>411477</v>
       </c>
       <c r="AQ102" s="7">
-        <f>AP102*100/AF102</f>
+        <f t="shared" si="22"/>
         <v>0.88108370917276324</v>
       </c>
       <c r="AR102" s="11">
         <v>2545036</v>
       </c>
       <c r="AS102" s="7">
-        <f>AR102*100/AF102</f>
+        <f t="shared" si="23"/>
         <v>5.4496114214359803</v>
       </c>
     </row>
@@ -18949,25 +18949,25 @@
         <v>42871045</v>
       </c>
       <c r="AI103" s="7">
-        <f>AH103*100/AF103</f>
+        <f t="shared" si="18"/>
         <v>87.360896141593344</v>
       </c>
       <c r="AJ103" s="11">
         <v>2397185</v>
       </c>
       <c r="AK103" s="7">
-        <f>AJ103*100/AF103</f>
+        <f t="shared" si="19"/>
         <v>4.8848874529927002</v>
       </c>
       <c r="AL103" s="11">
         <v>441693</v>
       </c>
       <c r="AM103" s="7">
-        <f>AL103*100/AF103</f>
+        <f t="shared" si="20"/>
         <v>0.90006428113587589</v>
       </c>
       <c r="AN103" s="7">
-        <f>SUM(AI103,AK103,AM103)</f>
+        <f t="shared" si="21"/>
         <v>93.145847875721927</v>
       </c>
       <c r="AO103" s="11">
@@ -18977,14 +18977,14 @@
         <v>415741</v>
       </c>
       <c r="AQ103" s="7">
-        <f>AP103*100/AF103</f>
+        <f t="shared" si="22"/>
         <v>0.84718033635061041</v>
       </c>
       <c r="AR103" s="11">
         <v>2947831</v>
       </c>
       <c r="AS103" s="7">
-        <f>AR103*100/AF103</f>
+        <f t="shared" si="23"/>
         <v>6.0069717879274753</v>
       </c>
     </row>
@@ -19092,25 +19092,25 @@
         <v>42676497</v>
       </c>
       <c r="AI104" s="7">
-        <f>AH104*100/AF104</f>
+        <f t="shared" si="18"/>
         <v>87.687528895545938</v>
       </c>
       <c r="AJ104" s="11">
         <v>2268442</v>
       </c>
       <c r="AK104" s="7">
-        <f>AJ104*100/AF104</f>
+        <f t="shared" si="19"/>
         <v>4.6609747145570557</v>
       </c>
       <c r="AL104" s="11">
         <v>448816</v>
       </c>
       <c r="AM104" s="7">
-        <f>AL104*100/AF104</f>
+        <f t="shared" si="20"/>
         <v>0.92218360773105035</v>
       </c>
       <c r="AN104" s="7">
-        <f>SUM(AI104,AK104,AM104)</f>
+        <f t="shared" si="21"/>
         <v>93.270687217834052</v>
       </c>
       <c r="AO104" s="11">
@@ -19120,14 +19120,14 @@
         <v>395051</v>
       </c>
       <c r="AQ104" s="7">
-        <f>AP104*100/AF104</f>
+        <f t="shared" si="22"/>
         <v>0.81171249781148436</v>
       </c>
       <c r="AR104" s="11">
         <v>2880027</v>
       </c>
       <c r="AS104" s="7">
-        <f>AR104*100/AF104</f>
+        <f t="shared" si="23"/>
         <v>5.9176002843544655</v>
       </c>
     </row>
@@ -19235,25 +19235,25 @@
         <v>43624211</v>
       </c>
       <c r="AI105" s="7">
-        <f>AH105*100/AF105</f>
+        <f t="shared" si="18"/>
         <v>86.844122660717929</v>
       </c>
       <c r="AJ105" s="11">
         <v>2403481</v>
       </c>
       <c r="AK105" s="7">
-        <f>AJ105*100/AF105</f>
+        <f t="shared" si="19"/>
         <v>4.7846870806833621</v>
       </c>
       <c r="AL105" s="11">
         <v>484002</v>
       </c>
       <c r="AM105" s="7">
-        <f>AL105*100/AF105</f>
+        <f t="shared" si="20"/>
         <v>0.96351837872856427</v>
       </c>
       <c r="AN105" s="7">
-        <f>SUM(AI105,AK105,AM105)</f>
+        <f t="shared" si="21"/>
         <v>92.592328120129849</v>
       </c>
       <c r="AO105" s="11">
@@ -19263,14 +19263,14 @@
         <v>414120</v>
       </c>
       <c r="AQ105" s="7">
-        <f>AP105*100/AF105</f>
+        <f t="shared" si="22"/>
         <v>0.82440202932854212</v>
       </c>
       <c r="AR105" s="11">
         <v>3306959</v>
       </c>
       <c r="AS105" s="7">
-        <f>AR105*100/AF105</f>
+        <f t="shared" si="23"/>
         <v>6.5832698505415976</v>
       </c>
     </row>
@@ -19378,25 +19378,25 @@
         <v>42924513</v>
       </c>
       <c r="AI106" s="7">
-        <f>AH106*100/AF106</f>
+        <f t="shared" si="18"/>
         <v>88.207428002502922</v>
       </c>
       <c r="AJ106" s="11">
         <v>2101391</v>
       </c>
       <c r="AK106" s="7">
-        <f>AJ106*100/AF106</f>
+        <f t="shared" si="19"/>
         <v>4.3182387494438812</v>
       </c>
       <c r="AL106" s="11">
         <v>413464</v>
       </c>
       <c r="AM106" s="7">
-        <f>AL106*100/AF106</f>
+        <f t="shared" si="20"/>
         <v>0.84964495722122391</v>
       </c>
       <c r="AN106" s="7">
-        <f>SUM(AI106,AK106,AM106)</f>
+        <f t="shared" si="21"/>
         <v>93.375311709168031</v>
       </c>
       <c r="AO106" s="11">
@@ -19406,14 +19406,14 @@
         <v>399654</v>
       </c>
       <c r="AQ106" s="7">
-        <f>AP106*100/AF106</f>
+        <f t="shared" si="22"/>
         <v>0.82126619423526837</v>
       </c>
       <c r="AR106" s="11">
         <v>2824128</v>
       </c>
       <c r="AS106" s="7">
-        <f>AR106*100/AF106</f>
+        <f t="shared" si="23"/>
         <v>5.803422096596706</v>
       </c>
     </row>
@@ -19521,25 +19521,25 @@
         <v>40007819</v>
       </c>
       <c r="AI107" s="7">
-        <f>AH107*100/AF107</f>
+        <f t="shared" si="18"/>
         <v>86.597635000269591</v>
       </c>
       <c r="AJ107" s="11">
         <v>1882886</v>
       </c>
       <c r="AK107" s="7">
-        <f>AJ107*100/AF107</f>
+        <f t="shared" si="19"/>
         <v>4.0755401981577055</v>
       </c>
       <c r="AL107" s="11">
         <v>519651</v>
       </c>
       <c r="AM107" s="7">
-        <f>AL107*100/AF107</f>
+        <f t="shared" si="20"/>
         <v>1.1247938215658568</v>
       </c>
       <c r="AN107" s="7">
-        <f>SUM(AI107,AK107,AM107)</f>
+        <f t="shared" si="21"/>
         <v>91.797969019993161</v>
       </c>
       <c r="AO107" s="11">
@@ -19549,14 +19549,14 @@
         <v>520046</v>
       </c>
       <c r="AQ107" s="7">
-        <f>AP107*100/AF107</f>
+        <f t="shared" si="22"/>
         <v>1.1256488060833858</v>
       </c>
       <c r="AR107" s="11">
         <v>3269265</v>
       </c>
       <c r="AS107" s="7">
-        <f>AR107*100/AF107</f>
+        <f t="shared" si="23"/>
         <v>7.0763821739234611</v>
       </c>
     </row>
@@ -19664,25 +19664,25 @@
         <v>39226498</v>
       </c>
       <c r="AI108" s="7">
-        <f>AH108*100/AF108</f>
+        <f t="shared" si="18"/>
         <v>84.498767926841097</v>
       </c>
       <c r="AJ108" s="11">
         <v>1931812</v>
       </c>
       <c r="AK108" s="7">
-        <f>AJ108*100/AF108</f>
+        <f t="shared" si="19"/>
         <v>4.1613639297162539</v>
       </c>
       <c r="AL108" s="11">
         <v>558733</v>
       </c>
       <c r="AM108" s="7">
-        <f>AL108*100/AF108</f>
+        <f t="shared" si="20"/>
         <v>1.2035805515972318</v>
       </c>
       <c r="AN108" s="7">
-        <f>SUM(AI108,AK108,AM108)</f>
+        <f t="shared" si="21"/>
         <v>89.863712408154583</v>
       </c>
       <c r="AO108" s="11">
@@ -19692,14 +19692,14 @@
         <v>464686</v>
       </c>
       <c r="AQ108" s="7">
-        <f>AP108*100/AF108</f>
+        <f t="shared" si="22"/>
         <v>1.0009915866782726</v>
       </c>
       <c r="AR108" s="11">
         <v>4240839</v>
       </c>
       <c r="AS108" s="7">
-        <f>AR108*100/AF108</f>
+        <f t="shared" si="23"/>
         <v>9.1352960051671417</v>
       </c>
     </row>
@@ -19807,25 +19807,25 @@
         <v>42610993</v>
       </c>
       <c r="AI109" s="7">
-        <f>AH109*100/AF109</f>
+        <f t="shared" si="18"/>
         <v>86.879594803502044</v>
       </c>
       <c r="AJ109" s="11">
         <v>2147294</v>
       </c>
       <c r="AK109" s="7">
-        <f>AJ109*100/AF109</f>
+        <f t="shared" si="19"/>
         <v>4.3781198115704818</v>
       </c>
       <c r="AL109" s="11">
         <v>537259</v>
       </c>
       <c r="AM109" s="7">
-        <f>AL109*100/AF109</f>
+        <f t="shared" si="20"/>
         <v>1.0954178942634523</v>
       </c>
       <c r="AN109" s="7">
-        <f>SUM(AI109,AK109,AM109)</f>
+        <f t="shared" si="21"/>
         <v>92.353132509335978</v>
       </c>
       <c r="AO109" s="11">
@@ -19835,14 +19835,14 @@
         <v>571255</v>
       </c>
       <c r="AQ109" s="7">
-        <f>AP109*100/AF109</f>
+        <f t="shared" si="22"/>
         <v>1.1647323715144249</v>
       </c>
       <c r="AR109" s="11">
         <v>3179230</v>
       </c>
       <c r="AS109" s="7">
-        <f>AR109*100/AF109</f>
+        <f t="shared" si="23"/>
         <v>6.4821351191496008</v>
       </c>
     </row>
@@ -19950,25 +19950,25 @@
         <v>38060515</v>
       </c>
       <c r="AI110" s="7">
-        <f>AH110*100/AF110</f>
+        <f t="shared" si="18"/>
         <v>83.112111655396603</v>
       </c>
       <c r="AJ110" s="11">
         <v>2227945</v>
       </c>
       <c r="AK110" s="7">
-        <f>AJ110*100/AF110</f>
+        <f t="shared" si="19"/>
         <v>4.8651263284819608</v>
       </c>
       <c r="AL110" s="11">
         <v>592080</v>
       </c>
       <c r="AM110" s="7">
-        <f>AL110*100/AF110</f>
+        <f t="shared" si="20"/>
         <v>1.2929152185388775</v>
       </c>
       <c r="AN110" s="7">
-        <f>SUM(AI110,AK110,AM110)</f>
+        <f t="shared" si="21"/>
         <v>89.270153202417447</v>
       </c>
       <c r="AO110" s="11">
@@ -19978,14 +19978,14 @@
         <v>517975</v>
       </c>
       <c r="AQ110" s="7">
-        <f>AP110*100/AF110</f>
+        <f t="shared" si="22"/>
         <v>1.1310933663063691</v>
       </c>
       <c r="AR110" s="11">
         <v>4395671</v>
       </c>
       <c r="AS110" s="7">
-        <f>AR110*100/AF110</f>
+        <f t="shared" si="23"/>
         <v>9.5987534312761884</v>
       </c>
     </row>
@@ -20093,25 +20093,25 @@
         <v>11302097</v>
       </c>
       <c r="AI111" s="7">
-        <f>AH111*100/AF111</f>
+        <f t="shared" si="18"/>
         <v>78.743214186532171</v>
       </c>
       <c r="AJ111" s="11">
         <v>731292</v>
       </c>
       <c r="AK111" s="7">
-        <f>AJ111*100/AF111</f>
+        <f t="shared" si="19"/>
         <v>5.0950087040393903</v>
       </c>
       <c r="AL111" s="11">
         <v>740364</v>
       </c>
       <c r="AM111" s="7">
-        <f>AL111*100/AF111</f>
+        <f t="shared" si="20"/>
         <v>5.1582145355855378</v>
       </c>
       <c r="AN111" s="7">
-        <f>SUM(AI111,AK111,AM111)</f>
+        <f t="shared" si="21"/>
         <v>88.996437426157101</v>
       </c>
       <c r="AO111" s="11">
@@ -20121,14 +20121,14 @@
         <v>459101</v>
       </c>
       <c r="AQ111" s="7">
-        <f>AP111*100/AF111</f>
+        <f t="shared" si="22"/>
         <v>3.1986177765286481</v>
       </c>
       <c r="AR111" s="11">
         <v>1120252</v>
       </c>
       <c r="AS111" s="7">
-        <f>AR111*100/AF111</f>
+        <f t="shared" si="23"/>
         <v>7.8049447973142536</v>
       </c>
     </row>
@@ -20236,25 +20236,25 @@
         <v>12598031</v>
       </c>
       <c r="AI112" s="7">
-        <f>AH112*100/AF112</f>
+        <f t="shared" si="18"/>
         <v>81.311812283384711</v>
       </c>
       <c r="AJ112" s="11">
         <v>836362</v>
       </c>
       <c r="AK112" s="7">
-        <f>AJ112*100/AF112</f>
+        <f t="shared" si="19"/>
         <v>5.3981538817420125</v>
       </c>
       <c r="AL112" s="11">
         <v>659589</v>
       </c>
       <c r="AM112" s="7">
-        <f>AL112*100/AF112</f>
+        <f t="shared" si="20"/>
         <v>4.2572031258047742</v>
       </c>
       <c r="AN112" s="7">
-        <f>SUM(AI112,AK112,AM112)</f>
+        <f t="shared" si="21"/>
         <v>90.967169290931508</v>
       </c>
       <c r="AO112" s="11">
@@ -20264,14 +20264,14 @@
         <v>384648</v>
       </c>
       <c r="AQ112" s="7">
-        <f>AP112*100/AF112</f>
+        <f t="shared" si="22"/>
         <v>2.4826439918412144</v>
       </c>
       <c r="AR112" s="11">
         <v>1014852</v>
       </c>
       <c r="AS112" s="7">
-        <f>AR112*100/AF112</f>
+        <f t="shared" si="23"/>
         <v>6.550186717227283</v>
       </c>
     </row>
@@ -20379,25 +20379,25 @@
         <v>13666538</v>
       </c>
       <c r="AI113" s="7">
-        <f>AH113*100/AF113</f>
+        <f t="shared" si="18"/>
         <v>84.043588285033437</v>
       </c>
       <c r="AJ113" s="11">
         <v>704796</v>
       </c>
       <c r="AK113" s="7">
-        <f>AJ113*100/AF113</f>
+        <f t="shared" si="19"/>
         <v>4.3342055500038432</v>
       </c>
       <c r="AL113" s="11">
         <v>547648</v>
       </c>
       <c r="AM113" s="7">
-        <f>AL113*100/AF113</f>
+        <f t="shared" si="20"/>
         <v>3.3678099777077408</v>
       </c>
       <c r="AN113" s="7">
-        <f>SUM(AI113,AK113,AM113)</f>
+        <f t="shared" si="21"/>
         <v>91.745603812745017</v>
       </c>
       <c r="AO113" s="11">
@@ -20407,14 +20407,14 @@
         <v>468131</v>
       </c>
       <c r="AQ113" s="7">
-        <f>AP113*100/AF113</f>
+        <f t="shared" si="22"/>
         <v>2.8788131293719732</v>
       </c>
       <c r="AR113" s="11">
         <v>874137</v>
       </c>
       <c r="AS113" s="7">
-        <f>AR113*100/AF113</f>
+        <f t="shared" si="23"/>
         <v>5.3755830578830039</v>
       </c>
     </row>
@@ -20522,25 +20522,25 @@
         <v>13705573</v>
       </c>
       <c r="AI114" s="7">
-        <f>AH114*100/AF114</f>
+        <f t="shared" si="18"/>
         <v>82.687444992976239</v>
       </c>
       <c r="AJ114" s="11">
         <v>705334</v>
       </c>
       <c r="AK114" s="7">
-        <f>AJ114*100/AF114</f>
+        <f t="shared" si="19"/>
         <v>4.2553686975857117</v>
       </c>
       <c r="AL114" s="11">
         <v>667723</v>
       </c>
       <c r="AM114" s="7">
-        <f>AL114*100/AF114</f>
+        <f t="shared" si="20"/>
         <v>4.0284568060777222</v>
       </c>
       <c r="AN114" s="7">
-        <f>SUM(AI114,AK114,AM114)</f>
+        <f t="shared" si="21"/>
         <v>90.971270496639676</v>
       </c>
       <c r="AO114" s="11">
@@ -20550,14 +20550,14 @@
         <v>415977</v>
       </c>
       <c r="AQ114" s="7">
-        <f>AP114*100/AF114</f>
+        <f t="shared" si="22"/>
         <v>2.5096415382153867</v>
       </c>
       <c r="AR114" s="11">
         <v>1080549</v>
       </c>
       <c r="AS114" s="7">
-        <f>AR114*100/AF114</f>
+        <f t="shared" si="23"/>
         <v>6.5190879651449434</v>
       </c>
     </row>
@@ -20665,25 +20665,25 @@
         <v>12894775</v>
       </c>
       <c r="AI115" s="7">
-        <f>AH115*100/AF115</f>
+        <f t="shared" si="18"/>
         <v>81.436128930640663</v>
       </c>
       <c r="AJ115" s="11">
         <v>829227</v>
       </c>
       <c r="AK115" s="7">
-        <f>AJ115*100/AF115</f>
+        <f t="shared" si="19"/>
         <v>5.2369302205558732</v>
       </c>
       <c r="AL115" s="11">
         <v>657767</v>
       </c>
       <c r="AM115" s="7">
-        <f>AL115*100/AF115</f>
+        <f t="shared" si="20"/>
         <v>4.1540855283105529</v>
       </c>
       <c r="AN115" s="7">
-        <f>SUM(AI115,AK115,AM115)</f>
+        <f t="shared" si="21"/>
         <v>90.827144679507086</v>
       </c>
       <c r="AO115" s="11">
@@ -20693,14 +20693,14 @@
         <v>386611</v>
       </c>
       <c r="AQ115" s="7">
-        <f>AP115*100/AF115</f>
+        <f t="shared" si="22"/>
         <v>2.4416171078598823</v>
       </c>
       <c r="AR115" s="11">
         <v>1065839</v>
       </c>
       <c r="AS115" s="7">
-        <f>AR115*100/AF115</f>
+        <f t="shared" si="23"/>
         <v>6.7312382126330323</v>
       </c>
     </row>
@@ -20808,25 +20808,25 @@
         <v>13309335</v>
       </c>
       <c r="AI116" s="7">
-        <f>AH116*100/AF116</f>
+        <f t="shared" si="18"/>
         <v>85.320696520914836</v>
       </c>
       <c r="AJ116" s="11">
         <v>774904</v>
       </c>
       <c r="AK116" s="7">
-        <f>AJ116*100/AF116</f>
+        <f t="shared" si="19"/>
         <v>4.9675922213125592</v>
       </c>
       <c r="AL116" s="11">
         <v>481815</v>
       </c>
       <c r="AM116" s="7">
-        <f>AL116*100/AF116</f>
+        <f t="shared" si="20"/>
         <v>3.0887186620687346</v>
       </c>
       <c r="AN116" s="7">
-        <f>SUM(AI116,AK116,AM116)</f>
+        <f t="shared" si="21"/>
         <v>93.377007404296123</v>
       </c>
       <c r="AO116" s="11">
@@ -20836,14 +20836,14 @@
         <v>351197</v>
       </c>
       <c r="AQ116" s="7">
-        <f>AP116*100/AF116</f>
+        <f t="shared" si="22"/>
         <v>2.2513801520553605</v>
       </c>
       <c r="AR116" s="11">
         <v>681936</v>
       </c>
       <c r="AS116" s="7">
-        <f>AR116*100/AF116</f>
+        <f t="shared" si="23"/>
         <v>4.3716124436485053</v>
       </c>
     </row>
@@ -20951,25 +20951,25 @@
         <v>13950105</v>
       </c>
       <c r="AI117" s="7">
-        <f>AH117*100/AF117</f>
+        <f t="shared" si="18"/>
         <v>86.467391098859622</v>
       </c>
       <c r="AJ117" s="11">
         <v>788188</v>
       </c>
       <c r="AK117" s="7">
-        <f>AJ117*100/AF117</f>
+        <f t="shared" si="19"/>
         <v>4.8854514038014747</v>
       </c>
       <c r="AL117" s="11">
         <v>426639</v>
       </c>
       <c r="AM117" s="7">
-        <f>AL117*100/AF117</f>
+        <f t="shared" si="20"/>
         <v>2.6444504375434001</v>
       </c>
       <c r="AN117" s="7">
-        <f>SUM(AI117,AK117,AM117)</f>
+        <f t="shared" si="21"/>
         <v>93.997292940204488</v>
       </c>
       <c r="AO117" s="11">
@@ -20979,14 +20979,14 @@
         <v>331833</v>
       </c>
       <c r="AQ117" s="7">
-        <f>AP117*100/AF117</f>
+        <f t="shared" si="22"/>
         <v>2.0568113136430073</v>
       </c>
       <c r="AR117" s="11">
         <v>636606</v>
       </c>
       <c r="AS117" s="7">
-        <f>AR117*100/AF117</f>
+        <f t="shared" si="23"/>
         <v>3.9458957461524933</v>
       </c>
     </row>
@@ -21094,25 +21094,25 @@
         <v>14552851</v>
       </c>
       <c r="AI118" s="7">
-        <f>AH118*100/AF118</f>
+        <f t="shared" ref="AI118:AI149" si="24">AH118*100/AF118</f>
         <v>84.289651003794432</v>
       </c>
       <c r="AJ118" s="11">
         <v>798110</v>
       </c>
       <c r="AK118" s="7">
-        <f>AJ118*100/AF118</f>
+        <f t="shared" ref="AK118:AK149" si="25">AJ118*100/AF118</f>
         <v>4.6226277835620238</v>
       </c>
       <c r="AL118" s="11">
         <v>573543</v>
       </c>
       <c r="AM118" s="7">
-        <f>AL118*100/AF118</f>
+        <f t="shared" ref="AM118:AM149" si="26">AL118*100/AF118</f>
         <v>3.3219428485641247</v>
       </c>
       <c r="AN118" s="7">
-        <f>SUM(AI118,AK118,AM118)</f>
+        <f t="shared" ref="AN118:AN149" si="27">SUM(AI118,AK118,AM118)</f>
         <v>92.234221635920576</v>
       </c>
       <c r="AO118" s="11">
@@ -21122,14 +21122,14 @@
         <v>434269</v>
       </c>
       <c r="AQ118" s="7">
-        <f>AP118*100/AF118</f>
+        <f t="shared" ref="AQ118:AQ149" si="28">AP118*100/AF118</f>
         <v>2.5152722618933434</v>
       </c>
       <c r="AR118" s="11">
         <v>906515</v>
       </c>
       <c r="AS118" s="7">
-        <f>AR118*100/AF118</f>
+        <f t="shared" ref="AS118:AS149" si="29">AR118*100/AF118</f>
         <v>5.2505061021860744</v>
       </c>
     </row>
@@ -21237,25 +21237,25 @@
         <v>13330979</v>
       </c>
       <c r="AI119" s="7">
-        <f>AH119*100/AF119</f>
+        <f t="shared" si="24"/>
         <v>85.395501390441581</v>
       </c>
       <c r="AJ119" s="11">
         <v>666834</v>
       </c>
       <c r="AK119" s="7">
-        <f>AJ119*100/AF119</f>
+        <f t="shared" si="25"/>
         <v>4.2716010410183474</v>
       </c>
       <c r="AL119" s="11">
         <v>507885</v>
       </c>
       <c r="AM119" s="7">
-        <f>AL119*100/AF119</f>
+        <f t="shared" si="26"/>
         <v>3.2534065370356089</v>
       </c>
       <c r="AN119" s="7">
-        <f>SUM(AI119,AK119,AM119)</f>
+        <f t="shared" si="27"/>
         <v>92.92050896849554</v>
       </c>
       <c r="AO119" s="11">
@@ -21265,14 +21265,14 @@
         <v>360563</v>
       </c>
       <c r="AQ119" s="7">
-        <f>AP119*100/AF119</f>
+        <f t="shared" si="28"/>
         <v>2.3096921964877288</v>
       </c>
       <c r="AR119" s="11">
         <v>744607</v>
       </c>
       <c r="AS119" s="7">
-        <f>AR119*100/AF119</f>
+        <f t="shared" si="29"/>
         <v>4.7697988350167329</v>
       </c>
     </row>
@@ -21380,25 +21380,25 @@
         <v>29417390</v>
       </c>
       <c r="AI120" s="7">
-        <f>AH120*100/AF120</f>
+        <f t="shared" si="24"/>
         <v>64.206122996408979</v>
       </c>
       <c r="AJ120" s="11">
         <v>3997001</v>
       </c>
       <c r="AK120" s="7">
-        <f>AJ120*100/AF120</f>
+        <f t="shared" si="25"/>
         <v>8.7238173686642391</v>
       </c>
       <c r="AL120" s="11">
         <v>2115647</v>
       </c>
       <c r="AM120" s="7">
-        <f>AL120*100/AF120</f>
+        <f t="shared" si="26"/>
         <v>4.6175915504055141</v>
       </c>
       <c r="AN120" s="7">
-        <f>SUM(AI120,AK120,AM120)</f>
+        <f t="shared" si="27"/>
         <v>77.547531915478743</v>
       </c>
       <c r="AO120" s="11">
@@ -21408,14 +21408,14 @@
         <v>1968682</v>
       </c>
       <c r="AQ120" s="7">
-        <f>AP120*100/AF120</f>
+        <f t="shared" si="28"/>
         <v>4.2968271023641602</v>
       </c>
       <c r="AR120" s="11">
         <v>8318390</v>
       </c>
       <c r="AS120" s="7">
-        <f>AR120*100/AF120</f>
+        <f t="shared" si="29"/>
         <v>18.155640982157102</v>
       </c>
     </row>
@@ -21523,25 +21523,25 @@
         <v>17302401</v>
       </c>
       <c r="AI121" s="7">
-        <f>AH121*100/AF121</f>
+        <f t="shared" si="24"/>
         <v>88.005882860079126</v>
       </c>
       <c r="AJ121" s="1">
         <v>1191636</v>
       </c>
       <c r="AK121" s="7">
-        <f>AJ121*100/AF121</f>
+        <f t="shared" si="25"/>
         <v>6.0610650641985035</v>
       </c>
       <c r="AL121" s="1">
         <v>99552</v>
       </c>
       <c r="AM121" s="7">
-        <f>AL121*100/AF121</f>
+        <f t="shared" si="26"/>
         <v>0.50635525384520896</v>
       </c>
       <c r="AN121" s="7">
-        <f>SUM(AI121,AK121,AM121)</f>
+        <f t="shared" si="27"/>
         <v>94.573303178122842</v>
       </c>
       <c r="AO121" s="1">
@@ -21551,14 +21551,14 @@
         <v>600023</v>
       </c>
       <c r="AQ121" s="7">
-        <f>AP121*100/AF121</f>
+        <f t="shared" si="28"/>
         <v>3.0519205890184407</v>
       </c>
       <c r="AR121" s="1">
         <v>466893</v>
       </c>
       <c r="AS121" s="7">
-        <f>AR121*100/AF121</f>
+        <f t="shared" si="29"/>
         <v>2.3747762328587187</v>
       </c>
     </row>
@@ -21666,25 +21666,25 @@
         <v>15420621</v>
       </c>
       <c r="AI122" s="7">
-        <f>AH122*100/AF122</f>
+        <f t="shared" si="24"/>
         <v>74.886171047986849</v>
       </c>
       <c r="AJ122" s="1">
         <v>2774444</v>
       </c>
       <c r="AK122" s="7">
-        <f>AJ122*100/AF122</f>
+        <f t="shared" si="25"/>
         <v>13.473354150073517</v>
       </c>
       <c r="AL122" s="1">
         <v>690132</v>
       </c>
       <c r="AM122" s="7">
-        <f>AL122*100/AF122</f>
+        <f t="shared" si="26"/>
         <v>3.3514436933304603</v>
       </c>
       <c r="AN122" s="7">
-        <f>SUM(AI122,AK122,AM122)</f>
+        <f t="shared" si="27"/>
         <v>91.710968891390834</v>
       </c>
       <c r="AO122" s="1">
@@ -21694,14 +21694,14 @@
         <v>431814</v>
       </c>
       <c r="AQ122" s="7">
-        <f>AP122*100/AF122</f>
+        <f t="shared" si="28"/>
         <v>2.0969905858470543</v>
       </c>
       <c r="AR122" s="1">
         <v>1275070</v>
       </c>
       <c r="AS122" s="7">
-        <f>AR122*100/AF122</f>
+        <f t="shared" si="29"/>
         <v>6.1920405227621238</v>
       </c>
     </row>
@@ -21809,25 +21809,25 @@
         <v>28068495</v>
       </c>
       <c r="AI123" s="7">
-        <f>AH123*100/AF123</f>
+        <f t="shared" si="24"/>
         <v>84.266562246982232</v>
       </c>
       <c r="AJ123" s="1">
         <v>2662573</v>
       </c>
       <c r="AK123" s="7">
-        <f>AJ123*100/AF123</f>
+        <f t="shared" si="25"/>
         <v>7.99351277799662</v>
       </c>
       <c r="AL123" s="1">
         <v>160672</v>
       </c>
       <c r="AM123" s="7">
-        <f>AL123*100/AF123</f>
+        <f t="shared" si="26"/>
         <v>0.48236562342751649</v>
       </c>
       <c r="AN123" s="7">
-        <f>SUM(AI123,AK123,AM123)</f>
+        <f t="shared" si="27"/>
         <v>92.742440648406358</v>
       </c>
       <c r="AO123" s="1">
@@ -21837,14 +21837,14 @@
         <v>1239549</v>
       </c>
       <c r="AQ123" s="7">
-        <f>AP123*100/AF123</f>
+        <f t="shared" si="28"/>
         <v>3.7213442675385546</v>
       </c>
       <c r="AR123" s="1">
         <v>1177884</v>
       </c>
       <c r="AS123" s="7">
-        <f>AR123*100/AF123</f>
+        <f t="shared" si="29"/>
         <v>3.5362150840550739</v>
       </c>
     </row>
@@ -21952,25 +21952,25 @@
         <v>23433295</v>
       </c>
       <c r="AI124" s="7">
-        <f>AH124*100/AF124</f>
+        <f t="shared" si="24"/>
         <v>77.349156025803978</v>
       </c>
       <c r="AJ124" s="1">
         <v>3246561</v>
       </c>
       <c r="AK124" s="7">
-        <f>AJ124*100/AF124</f>
+        <f t="shared" si="25"/>
         <v>10.716322793541847</v>
       </c>
       <c r="AL124" s="1">
         <v>621674</v>
       </c>
       <c r="AM124" s="7">
-        <f>AL124*100/AF124</f>
+        <f t="shared" si="26"/>
         <v>2.0520357560977089</v>
       </c>
       <c r="AN124" s="7">
-        <f>SUM(AI124,AK124,AM124)</f>
+        <f t="shared" si="27"/>
         <v>90.117514575443536</v>
       </c>
       <c r="AO124" s="1">
@@ -21980,14 +21980,14 @@
         <v>1961263</v>
       </c>
       <c r="AQ124" s="7">
-        <f>AP124*100/AF124</f>
+        <f t="shared" si="28"/>
         <v>6.4737817620030134</v>
       </c>
       <c r="AR124" s="1">
         <v>1032683</v>
       </c>
       <c r="AS124" s="7">
-        <f>AR124*100/AF124</f>
+        <f t="shared" si="29"/>
         <v>3.4087036625534455</v>
       </c>
     </row>
@@ -22095,25 +22095,25 @@
         <v>20930712</v>
       </c>
       <c r="AI125" s="7">
-        <f>AH125*100/AF125</f>
+        <f t="shared" si="24"/>
         <v>82.735728028887351</v>
       </c>
       <c r="AJ125" s="1">
         <v>2475001</v>
       </c>
       <c r="AK125" s="7">
-        <f>AJ125*100/AF125</f>
+        <f t="shared" si="25"/>
         <v>9.7832796900183912</v>
       </c>
       <c r="AL125" s="1">
         <v>121296</v>
       </c>
       <c r="AM125" s="7">
-        <f>AL125*100/AF125</f>
+        <f t="shared" si="26"/>
         <v>0.47946352073412118</v>
       </c>
       <c r="AN125" s="7">
-        <f>SUM(AI125,AK125,AM125)</f>
+        <f t="shared" si="27"/>
         <v>92.998471239639855</v>
       </c>
       <c r="AO125" s="1">
@@ -22123,14 +22123,14 @@
         <v>923457</v>
       </c>
       <c r="AQ125" s="7">
-        <f>AP125*100/AF125</f>
+        <f t="shared" si="28"/>
         <v>3.6502765504762675</v>
       </c>
       <c r="AR125" s="1">
         <v>847809</v>
       </c>
       <c r="AS125" s="7">
-        <f>AR125*100/AF125</f>
+        <f t="shared" si="29"/>
         <v>3.3512522098838753</v>
       </c>
     </row>
@@ -22238,25 +22238,25 @@
         <v>17165493</v>
       </c>
       <c r="AI126" s="7">
-        <f>AH126*100/AF126</f>
+        <f t="shared" si="24"/>
         <v>81.975337330883264</v>
       </c>
       <c r="AJ126" s="1">
         <v>2242670</v>
       </c>
       <c r="AK126" s="7">
-        <f>AJ126*100/AF126</f>
+        <f t="shared" si="25"/>
         <v>10.710069892653358</v>
       </c>
       <c r="AL126" s="1">
         <v>174106</v>
       </c>
       <c r="AM126" s="7">
-        <f>AL126*100/AF126</f>
+        <f t="shared" si="26"/>
         <v>0.83145867592213996</v>
       </c>
       <c r="AN126" s="7">
-        <f>SUM(AI126,AK126,AM126)</f>
+        <f t="shared" si="27"/>
         <v>93.516865899458764</v>
       </c>
       <c r="AO126" s="1">
@@ -22266,14 +22266,14 @@
         <v>816624</v>
       </c>
       <c r="AQ126" s="7">
-        <f>AP126*100/AF126</f>
+        <f t="shared" si="28"/>
         <v>3.8998604859467312</v>
       </c>
       <c r="AR126" s="1">
         <v>540933</v>
       </c>
       <c r="AS126" s="7">
-        <f>AR126*100/AF126</f>
+        <f t="shared" si="29"/>
         <v>2.5832736145945052</v>
       </c>
     </row>
@@ -22381,25 +22381,25 @@
         <v>13462390</v>
       </c>
       <c r="AI127" s="7">
-        <f>AH127*100/AF127</f>
+        <f t="shared" si="24"/>
         <v>82.448274117687546</v>
       </c>
       <c r="AJ127" s="1">
         <v>1918654</v>
       </c>
       <c r="AK127" s="7">
-        <f>AJ127*100/AF127</f>
+        <f t="shared" si="25"/>
         <v>11.750492366436992</v>
       </c>
       <c r="AL127" s="1">
         <v>95438</v>
       </c>
       <c r="AM127" s="7">
-        <f>AL127*100/AF127</f>
+        <f t="shared" si="26"/>
         <v>0.58449490656888303</v>
       </c>
       <c r="AN127" s="7">
-        <f>SUM(AI127,AK127,AM127)</f>
+        <f t="shared" si="27"/>
         <v>94.783261390693411</v>
       </c>
       <c r="AO127" s="1">
@@ -22409,14 +22409,14 @@
         <v>426305</v>
       </c>
       <c r="AQ127" s="7">
-        <f>AP127*100/AF127</f>
+        <f t="shared" si="28"/>
         <v>2.6108374142883091</v>
       </c>
       <c r="AR127" s="1">
         <v>425499</v>
       </c>
       <c r="AS127" s="7">
-        <f>AR127*100/AF127</f>
+        <f t="shared" si="29"/>
         <v>2.6059011950182644</v>
       </c>
     </row>
@@ -22524,25 +22524,25 @@
         <v>24095428</v>
       </c>
       <c r="AI128" s="7">
-        <f>AH128*100/AF128</f>
+        <f t="shared" si="24"/>
         <v>85.582455606332672</v>
       </c>
       <c r="AJ128" s="1">
         <v>2598118</v>
       </c>
       <c r="AK128" s="7">
-        <f>AJ128*100/AF128</f>
+        <f t="shared" si="25"/>
         <v>9.2280294168260397</v>
       </c>
       <c r="AL128" s="1">
         <v>209246</v>
       </c>
       <c r="AM128" s="7">
-        <f>AL128*100/AF128</f>
+        <f t="shared" si="26"/>
         <v>0.74320267337864621</v>
       </c>
       <c r="AN128" s="7">
-        <f>SUM(AI128,AK128,AM128)</f>
+        <f t="shared" si="27"/>
         <v>95.553687696537366</v>
       </c>
       <c r="AO128" s="1">
@@ -22552,14 +22552,14 @@
         <v>776217</v>
       </c>
       <c r="AQ128" s="7">
-        <f>AP128*100/AF128</f>
+        <f t="shared" si="28"/>
         <v>2.7569776699289479</v>
       </c>
       <c r="AR128" s="1">
         <v>475626</v>
       </c>
       <c r="AS128" s="7">
-        <f>AR128*100/AF128</f>
+        <f t="shared" si="29"/>
         <v>1.6893346335336969</v>
       </c>
     </row>
@@ -22667,25 +22667,25 @@
         <v>23701602</v>
       </c>
       <c r="AI129" s="7">
-        <f>AH129*100/AF129</f>
+        <f t="shared" si="24"/>
         <v>80.97618425899995</v>
       </c>
       <c r="AJ129" s="1">
         <v>2925862</v>
       </c>
       <c r="AK129" s="7">
-        <f>AJ129*100/AF129</f>
+        <f t="shared" si="25"/>
         <v>9.9961656781008354</v>
       </c>
       <c r="AL129" s="1">
         <v>239948</v>
       </c>
       <c r="AM129" s="7">
-        <f>AL129*100/AF129</f>
+        <f t="shared" si="26"/>
         <v>0.81977891032760242</v>
       </c>
       <c r="AN129" s="7">
-        <f>SUM(AI129,AK129,AM129)</f>
+        <f t="shared" si="27"/>
         <v>91.792128847428387</v>
       </c>
       <c r="AO129" s="1">
@@ -22695,14 +22695,14 @@
         <v>1069918</v>
       </c>
       <c r="AQ129" s="7">
-        <f>AP129*100/AF129</f>
+        <f t="shared" si="28"/>
         <v>3.6553595453176841</v>
       </c>
       <c r="AR129" s="1">
         <v>1332513</v>
       </c>
       <c r="AS129" s="7">
-        <f>AR129*100/AF129</f>
+        <f t="shared" si="29"/>
         <v>4.5525116072539236</v>
       </c>
     </row>
@@ -22810,25 +22810,25 @@
         <v>16623904</v>
       </c>
       <c r="AI130" s="7">
-        <f>AH130*100/AF130</f>
+        <f t="shared" si="24"/>
         <v>75.671217222985035</v>
       </c>
       <c r="AJ130" s="1">
         <v>3209434</v>
       </c>
       <c r="AK130" s="7">
-        <f>AJ130*100/AF130</f>
+        <f t="shared" si="25"/>
         <v>14.609190318762291</v>
       </c>
       <c r="AL130" s="1">
         <v>263490</v>
       </c>
       <c r="AM130" s="7">
-        <f>AL130*100/AF130</f>
+        <f t="shared" si="26"/>
         <v>1.1993938984539567</v>
       </c>
       <c r="AN130" s="7">
-        <f>SUM(AI130,AK130,AM130)</f>
+        <f t="shared" si="27"/>
         <v>91.479801440201285</v>
       </c>
       <c r="AO130" s="1">
@@ -22838,14 +22838,14 @@
         <v>867250</v>
       </c>
       <c r="AQ130" s="7">
-        <f>AP130*100/AF130</f>
+        <f t="shared" si="28"/>
         <v>3.9476805891464344</v>
       </c>
       <c r="AR130" s="1">
         <v>1004518</v>
       </c>
       <c r="AS130" s="7">
-        <f>AR130*100/AF130</f>
+        <f t="shared" si="29"/>
         <v>4.5725179706522896</v>
       </c>
     </row>
@@ -22953,25 +22953,25 @@
         <v>17683461</v>
       </c>
       <c r="AI131" s="7">
-        <f>AH131*100/AF131</f>
+        <f t="shared" si="24"/>
         <v>83.591271602672776</v>
       </c>
       <c r="AJ131" s="1">
         <v>2089312</v>
       </c>
       <c r="AK131" s="7">
-        <f>AJ131*100/AF131</f>
+        <f t="shared" si="25"/>
         <v>9.8763611294600899</v>
       </c>
       <c r="AL131" s="1">
         <v>112245</v>
       </c>
       <c r="AM131" s="7">
-        <f>AL131*100/AF131</f>
+        <f t="shared" si="26"/>
         <v>0.53059196279744136</v>
       </c>
       <c r="AN131" s="7">
-        <f>SUM(AI131,AK131,AM131)</f>
+        <f t="shared" si="27"/>
         <v>93.998224694930315</v>
       </c>
       <c r="AO131" s="1">
@@ -22981,14 +22981,14 @@
         <v>586499</v>
       </c>
       <c r="AQ131" s="7">
-        <f>AP131*100/AF131</f>
+        <f t="shared" si="28"/>
         <v>2.7724322293976265</v>
       </c>
       <c r="AR131" s="1">
         <v>683157</v>
       </c>
       <c r="AS131" s="7">
-        <f>AR131*100/AF131</f>
+        <f t="shared" si="29"/>
         <v>3.2293430756720714</v>
       </c>
     </row>
@@ -23096,25 +23096,25 @@
         <v>13190783</v>
       </c>
       <c r="AI132" s="7">
-        <f>AH132*100/AF132</f>
+        <f t="shared" si="24"/>
         <v>84.704980241600992</v>
       </c>
       <c r="AJ132" s="1">
         <v>1266982</v>
       </c>
       <c r="AK132" s="7">
-        <f>AJ132*100/AF132</f>
+        <f t="shared" si="25"/>
         <v>8.1359601834450697</v>
       </c>
       <c r="AL132" s="1">
         <v>97863</v>
       </c>
       <c r="AM132" s="7">
-        <f>AL132*100/AF132</f>
+        <f t="shared" si="26"/>
         <v>0.6284299788256541</v>
       </c>
       <c r="AN132" s="7">
-        <f>SUM(AI132,AK132,AM132)</f>
+        <f t="shared" si="27"/>
         <v>93.469370403871707</v>
       </c>
       <c r="AO132" s="1">
@@ -23124,14 +23124,14 @@
         <v>435309</v>
       </c>
       <c r="AQ132" s="7">
-        <f>AP132*100/AF132</f>
+        <f t="shared" si="28"/>
         <v>2.795348861700711</v>
       </c>
       <c r="AR132" s="1">
         <v>581681</v>
       </c>
       <c r="AS132" s="7">
-        <f>AR132*100/AF132</f>
+        <f t="shared" si="29"/>
         <v>3.7352807344275702</v>
       </c>
     </row>
@@ -23239,25 +23239,25 @@
         <v>22213307</v>
       </c>
       <c r="AI133" s="7">
-        <f>AH133*100/AF133</f>
+        <f t="shared" si="24"/>
         <v>83.273631542009682</v>
       </c>
       <c r="AJ133" s="1">
         <v>2013064</v>
       </c>
       <c r="AK133" s="7">
-        <f>AJ133*100/AF133</f>
+        <f t="shared" si="25"/>
         <v>7.5466093277549433</v>
       </c>
       <c r="AL133" s="1">
         <v>119649</v>
       </c>
       <c r="AM133" s="7">
-        <f>AL133*100/AF133</f>
+        <f t="shared" si="26"/>
         <v>0.44854225173991052</v>
       </c>
       <c r="AN133" s="7">
-        <f>SUM(AI133,AK133,AM133)</f>
+        <f t="shared" si="27"/>
         <v>91.268783121504541</v>
       </c>
       <c r="AO133" s="1">
@@ -23267,14 +23267,14 @@
         <v>1149420</v>
       </c>
       <c r="AQ133" s="7">
-        <f>AP133*100/AF133</f>
+        <f t="shared" si="28"/>
         <v>4.3089656829132537</v>
       </c>
       <c r="AR133" s="1">
         <v>1179639</v>
       </c>
       <c r="AS133" s="7">
-        <f>AR133*100/AF133</f>
+        <f t="shared" si="29"/>
         <v>4.4222511955822137</v>
       </c>
     </row>
@@ -23382,25 +23382,25 @@
         <v>25905528</v>
       </c>
       <c r="AI134" s="7">
-        <f>AH134*100/AF134</f>
+        <f t="shared" si="24"/>
         <v>87.445903549252407</v>
       </c>
       <c r="AJ134" s="1">
         <v>1997448</v>
       </c>
       <c r="AK134" s="7">
-        <f>AJ134*100/AF134</f>
+        <f t="shared" si="25"/>
         <v>6.742524033968623</v>
       </c>
       <c r="AL134" s="1">
         <v>134494</v>
       </c>
       <c r="AM134" s="7">
-        <f>AL134*100/AF134</f>
+        <f t="shared" si="26"/>
         <v>0.45399380981361021</v>
       </c>
       <c r="AN134" s="7">
-        <f>SUM(AI134,AK134,AM134)</f>
+        <f t="shared" si="27"/>
         <v>94.642421393034638</v>
       </c>
       <c r="AO134" s="1">
@@ -23410,14 +23410,14 @@
         <v>894998</v>
       </c>
       <c r="AQ134" s="7">
-        <f>AP134*100/AF134</f>
+        <f t="shared" si="28"/>
         <v>3.0211277216497501</v>
       </c>
       <c r="AR134" s="1">
         <v>692165</v>
       </c>
       <c r="AS134" s="7">
-        <f>AR134*100/AF134</f>
+        <f t="shared" si="29"/>
         <v>2.336450885315609</v>
       </c>
     </row>
@@ -23525,25 +23525,25 @@
         <v>20879209</v>
       </c>
       <c r="AI135" s="7">
-        <f>AH135*100/AF135</f>
+        <f t="shared" si="24"/>
         <v>81.042356754439609</v>
       </c>
       <c r="AJ135" s="1">
         <v>2899162</v>
       </c>
       <c r="AK135" s="7">
-        <f>AJ135*100/AF135</f>
+        <f t="shared" si="25"/>
         <v>11.25305662168115</v>
       </c>
       <c r="AL135" s="1">
         <v>222480</v>
       </c>
       <c r="AM135" s="7">
-        <f>AL135*100/AF135</f>
+        <f t="shared" si="26"/>
         <v>0.86355299813933206</v>
       </c>
       <c r="AN135" s="7">
-        <f>SUM(AI135,AK135,AM135)</f>
+        <f t="shared" si="27"/>
         <v>93.158966374260089</v>
       </c>
       <c r="AO135" s="1">
@@ -23553,14 +23553,14 @@
         <v>918411</v>
       </c>
       <c r="AQ135" s="7">
-        <f>AP135*100/AF135</f>
+        <f t="shared" si="28"/>
         <v>3.5647994092688875</v>
       </c>
       <c r="AR135" s="1">
         <v>844067</v>
       </c>
       <c r="AS135" s="7">
-        <f>AR135*100/AF135</f>
+        <f t="shared" si="29"/>
         <v>3.2762342164710159</v>
       </c>
     </row>
@@ -23668,25 +23668,25 @@
         <v>18400876</v>
       </c>
       <c r="AI136" s="7">
-        <f>AH136*100/AF136</f>
+        <f t="shared" si="24"/>
         <v>88.045737966156068</v>
       </c>
       <c r="AJ136" s="1">
         <v>1348966</v>
       </c>
       <c r="AK136" s="7">
-        <f>AJ136*100/AF136</f>
+        <f t="shared" si="25"/>
         <v>6.4546224300002715</v>
       </c>
       <c r="AL136" s="1">
         <v>122516</v>
       </c>
       <c r="AM136" s="7">
-        <f>AL136*100/AF136</f>
+        <f t="shared" si="26"/>
         <v>0.58622272291066879</v>
       </c>
       <c r="AN136" s="7">
-        <f>SUM(AI136,AK136,AM136)</f>
+        <f t="shared" si="27"/>
         <v>95.086583119067001</v>
       </c>
       <c r="AO136" s="1">
@@ -23696,14 +23696,14 @@
         <v>589340</v>
       </c>
       <c r="AQ136" s="7">
-        <f>AP136*100/AF136</f>
+        <f t="shared" si="28"/>
         <v>2.8199133135278132</v>
       </c>
       <c r="AR136" s="1">
         <v>437526</v>
       </c>
       <c r="AS136" s="7">
-        <f>AR136*100/AF136</f>
+        <f t="shared" si="29"/>
         <v>2.0935035674051821</v>
       </c>
     </row>
@@ -23811,25 +23811,25 @@
         <v>16572332</v>
       </c>
       <c r="AI137" s="7">
-        <f>AH137*100/AF137</f>
+        <f t="shared" si="24"/>
         <v>83.627951280377218</v>
       </c>
       <c r="AJ137" s="1">
         <v>2074570</v>
       </c>
       <c r="AK137" s="7">
-        <f>AJ137*100/AF137</f>
+        <f t="shared" si="25"/>
         <v>10.468776445447277</v>
       </c>
       <c r="AL137" s="1">
         <v>154181</v>
       </c>
       <c r="AM137" s="7">
-        <f>AL137*100/AF137</f>
+        <f t="shared" si="26"/>
         <v>0.7780342052259055</v>
       </c>
       <c r="AN137" s="7">
-        <f>SUM(AI137,AK137,AM137)</f>
+        <f t="shared" si="27"/>
         <v>94.874761931050401</v>
       </c>
       <c r="AO137" s="1">
@@ -23839,14 +23839,14 @@
         <v>472222</v>
       </c>
       <c r="AQ137" s="7">
-        <f>AP137*100/AF137</f>
+        <f t="shared" si="28"/>
         <v>2.3829451648399451</v>
       </c>
       <c r="AR137" s="1">
         <v>543433</v>
       </c>
       <c r="AS137" s="7">
-        <f>AR137*100/AF137</f>
+        <f t="shared" si="29"/>
         <v>2.7422929041096471</v>
       </c>
     </row>
@@ -23954,25 +23954,25 @@
         <v>21436264</v>
       </c>
       <c r="AI138" s="7">
-        <f>AH138*100/AF138</f>
+        <f t="shared" si="24"/>
         <v>84.839019389213291</v>
       </c>
       <c r="AJ138" s="1">
         <v>2217880</v>
       </c>
       <c r="AK138" s="7">
-        <f>AJ138*100/AF138</f>
+        <f t="shared" si="25"/>
         <v>8.7777778965097824</v>
       </c>
       <c r="AL138" s="1">
         <v>196746</v>
       </c>
       <c r="AM138" s="7">
-        <f>AL138*100/AF138</f>
+        <f t="shared" si="26"/>
         <v>0.7786682282299825</v>
       </c>
       <c r="AN138" s="7">
-        <f>SUM(AI138,AK138,AM138)</f>
+        <f t="shared" si="27"/>
         <v>94.395465513953056</v>
       </c>
       <c r="AO138" s="1">
@@ -23982,14 +23982,14 @@
         <v>805388</v>
       </c>
       <c r="AQ138" s="7">
-        <f>AP138*100/AF138</f>
+        <f t="shared" si="28"/>
         <v>3.187511039602783</v>
       </c>
       <c r="AR138" s="1">
         <v>610709</v>
       </c>
       <c r="AS138" s="7">
-        <f>AR138*100/AF138</f>
+        <f t="shared" si="29"/>
         <v>2.4170234464441682</v>
       </c>
     </row>
@@ -24097,25 +24097,25 @@
         <v>24597460</v>
       </c>
       <c r="AI139" s="7">
-        <f>AH139*100/AF139</f>
+        <f t="shared" si="24"/>
         <v>85.674342022769721</v>
       </c>
       <c r="AJ139" s="1">
         <v>1760176</v>
       </c>
       <c r="AK139" s="7">
-        <f>AJ139*100/AF139</f>
+        <f t="shared" si="25"/>
         <v>6.1307923925588543</v>
       </c>
       <c r="AL139" s="1">
         <v>212546</v>
       </c>
       <c r="AM139" s="7">
-        <f>AL139*100/AF139</f>
+        <f t="shared" si="26"/>
         <v>0.74030971895356723</v>
       </c>
       <c r="AN139" s="7">
-        <f>SUM(AI139,AK139,AM139)</f>
+        <f t="shared" si="27"/>
         <v>92.54544413428215</v>
       </c>
       <c r="AO139" s="1">
@@ -24125,14 +24125,14 @@
         <v>1164185</v>
       </c>
       <c r="AQ139" s="7">
-        <f>AP139*100/AF139</f>
+        <f t="shared" si="28"/>
         <v>4.0549220882065935</v>
       </c>
       <c r="AR139" s="1">
         <v>976049</v>
       </c>
       <c r="AS139" s="7">
-        <f>AR139*100/AF139</f>
+        <f t="shared" si="29"/>
         <v>3.3996337775112697</v>
       </c>
     </row>
@@ -24240,25 +24240,25 @@
         <v>15462324</v>
       </c>
       <c r="AI140" s="7">
-        <f>AH140*100/AF140</f>
+        <f t="shared" si="24"/>
         <v>75.277237598454249</v>
       </c>
       <c r="AJ140" s="1">
         <v>3151715</v>
       </c>
       <c r="AK140" s="7">
-        <f>AJ140*100/AF140</f>
+        <f t="shared" si="25"/>
         <v>15.343902953890519</v>
       </c>
       <c r="AL140" s="1">
         <v>422698</v>
       </c>
       <c r="AM140" s="7">
-        <f>AL140*100/AF140</f>
+        <f t="shared" si="26"/>
         <v>2.0578755029574736</v>
       </c>
       <c r="AN140" s="7">
-        <f>SUM(AI140,AK140,AM140)</f>
+        <f t="shared" si="27"/>
         <v>92.679016055302242</v>
       </c>
       <c r="AO140" s="1">
@@ -24268,14 +24268,14 @@
         <v>675970</v>
       </c>
       <c r="AQ140" s="7">
-        <f>AP140*100/AF140</f>
+        <f t="shared" si="28"/>
         <v>3.2909124333073811</v>
       </c>
       <c r="AR140" s="1">
         <v>827797</v>
       </c>
       <c r="AS140" s="7">
-        <f>AR140*100/AF140</f>
+        <f t="shared" si="29"/>
         <v>4.0300715113903731</v>
       </c>
     </row>
@@ -24383,25 +24383,25 @@
         <v>12398402</v>
       </c>
       <c r="AI141" s="7">
-        <f>AH141*100/AF141</f>
+        <f t="shared" si="24"/>
         <v>74.595412127793111</v>
       </c>
       <c r="AJ141" s="1">
         <v>2725006</v>
       </c>
       <c r="AK141" s="7">
-        <f>AJ141*100/AF141</f>
+        <f t="shared" si="25"/>
         <v>16.395092336956733</v>
       </c>
       <c r="AL141" s="1">
         <v>789166</v>
       </c>
       <c r="AM141" s="7">
-        <f>AL141*100/AF141</f>
+        <f t="shared" si="26"/>
         <v>4.7480443856588925</v>
       </c>
       <c r="AN141" s="7">
-        <f>SUM(AI141,AK141,AM141)</f>
+        <f t="shared" si="27"/>
         <v>95.738548850408733</v>
       </c>
       <c r="AO141" s="1">
@@ -24411,14 +24411,14 @@
         <v>363148</v>
       </c>
       <c r="AQ141" s="7">
-        <f>AP141*100/AF141</f>
+        <f t="shared" si="28"/>
         <v>2.184892433991398</v>
       </c>
       <c r="AR141" s="1">
         <v>345142</v>
       </c>
       <c r="AS141" s="7">
-        <f>AR141*100/AF141</f>
+        <f t="shared" si="29"/>
         <v>2.0765587155998628</v>
       </c>
     </row>
@@ -24526,25 +24526,25 @@
         <v>15522554</v>
       </c>
       <c r="AI142" s="7">
-        <f>AH142*100/AF142</f>
+        <f t="shared" si="24"/>
         <v>77.077409582393088</v>
       </c>
       <c r="AJ142" s="1">
         <v>2936812</v>
       </c>
       <c r="AK142" s="7">
-        <f>AJ142*100/AF142</f>
+        <f t="shared" si="25"/>
         <v>14.582771713371848</v>
       </c>
       <c r="AL142" s="1">
         <v>749859</v>
       </c>
       <c r="AM142" s="7">
-        <f>AL142*100/AF142</f>
+        <f t="shared" si="26"/>
         <v>3.7234329654800171</v>
       </c>
       <c r="AN142" s="7">
-        <f>SUM(AI142,AK142,AM142)</f>
+        <f t="shared" si="27"/>
         <v>95.383614261244958</v>
       </c>
       <c r="AO142" s="1">
@@ -24554,14 +24554,14 @@
         <v>418805</v>
       </c>
       <c r="AQ142" s="7">
-        <f>AP142*100/AF142</f>
+        <f t="shared" si="28"/>
         <v>2.0795807519918528</v>
       </c>
       <c r="AR142" s="1">
         <v>510885</v>
       </c>
       <c r="AS142" s="7">
-        <f>AR142*100/AF142</f>
+        <f t="shared" si="29"/>
         <v>2.5368049867631894</v>
       </c>
     </row>
@@ -24669,25 +24669,25 @@
         <v>23659354</v>
       </c>
       <c r="AI143" s="7">
-        <f>AH143*100/AF143</f>
+        <f t="shared" si="24"/>
         <v>78.67121815033795</v>
       </c>
       <c r="AJ143" s="1">
         <v>3652206</v>
       </c>
       <c r="AK143" s="7">
-        <f>AJ143*100/AF143</f>
+        <f t="shared" si="25"/>
         <v>12.144181745451426</v>
       </c>
       <c r="AL143" s="1">
         <v>658301</v>
       </c>
       <c r="AM143" s="7">
-        <f>AL143*100/AF143</f>
+        <f t="shared" si="26"/>
         <v>2.1889583958879699</v>
       </c>
       <c r="AN143" s="7">
-        <f>SUM(AI143,AK143,AM143)</f>
+        <f t="shared" si="27"/>
         <v>93.004358291677335</v>
       </c>
       <c r="AO143" s="1">
@@ -24697,14 +24697,14 @@
         <v>1197628</v>
       </c>
       <c r="AQ143" s="7">
-        <f>AP143*100/AF143</f>
+        <f t="shared" si="28"/>
         <v>3.9823088006102338</v>
       </c>
       <c r="AR143" s="1">
         <v>906221</v>
       </c>
       <c r="AS143" s="7">
-        <f>AR143*100/AF143</f>
+        <f t="shared" si="29"/>
         <v>3.0133329077124174</v>
       </c>
     </row>
@@ -24812,25 +24812,25 @@
         <v>21428140</v>
       </c>
       <c r="AI144" s="7">
-        <f>AH144*100/AF144</f>
+        <f t="shared" si="24"/>
         <v>76.698056421381835</v>
       </c>
       <c r="AJ144" s="1">
         <v>4204295</v>
       </c>
       <c r="AK144" s="7">
-        <f>AJ144*100/AF144</f>
+        <f t="shared" si="25"/>
         <v>15.048494882063192</v>
       </c>
       <c r="AL144" s="1">
         <v>888385</v>
       </c>
       <c r="AM144" s="7">
-        <f>AL144*100/AF144</f>
+        <f t="shared" si="26"/>
         <v>3.1798094866800994</v>
       </c>
       <c r="AN144" s="7">
-        <f>SUM(AI144,AK144,AM144)</f>
+        <f t="shared" si="27"/>
         <v>94.926360790125131</v>
       </c>
       <c r="AO144" s="1">
@@ -24840,14 +24840,14 @@
         <v>707779</v>
       </c>
       <c r="AQ144" s="7">
-        <f>AP144*100/AF144</f>
+        <f t="shared" si="28"/>
         <v>2.5333637765979322</v>
       </c>
       <c r="AR144" s="1">
         <v>709710</v>
       </c>
       <c r="AS144" s="7">
-        <f>AR144*100/AF144</f>
+        <f t="shared" si="29"/>
         <v>2.5402754332769391</v>
       </c>
     </row>
@@ -24955,25 +24955,25 @@
         <v>21458394</v>
       </c>
       <c r="AI145" s="7">
-        <f>AH145*100/AF145</f>
+        <f t="shared" si="24"/>
         <v>79.913985856400359</v>
       </c>
       <c r="AJ145" s="1">
         <v>3292947</v>
       </c>
       <c r="AK145" s="7">
-        <f>AJ145*100/AF145</f>
+        <f t="shared" si="25"/>
         <v>12.263383736167579</v>
       </c>
       <c r="AL145" s="1">
         <v>651119</v>
       </c>
       <c r="AM145" s="7">
-        <f>AL145*100/AF145</f>
+        <f t="shared" si="26"/>
         <v>2.4248559587839398</v>
       </c>
       <c r="AN145" s="7">
-        <f>SUM(AI145,AK145,AM145)</f>
+        <f t="shared" si="27"/>
         <v>94.602225551351879</v>
       </c>
       <c r="AO145" s="1">
@@ -24983,14 +24983,14 @@
         <v>986899</v>
       </c>
       <c r="AQ145" s="7">
-        <f>AP145*100/AF145</f>
+        <f t="shared" si="28"/>
         <v>3.675346474097533</v>
       </c>
       <c r="AR145" s="1">
         <v>462504</v>
       </c>
       <c r="AS145" s="7">
-        <f>AR145*100/AF145</f>
+        <f t="shared" si="29"/>
         <v>1.7224279745505926</v>
       </c>
     </row>
@@ -25098,25 +25098,25 @@
         <v>13103465</v>
       </c>
       <c r="AI146" s="7">
-        <f>AH146*100/AF146</f>
+        <f t="shared" si="24"/>
         <v>75.216163456264127</v>
       </c>
       <c r="AJ146" s="1">
         <v>2791877</v>
       </c>
       <c r="AK146" s="7">
-        <f>AJ146*100/AF146</f>
+        <f t="shared" si="25"/>
         <v>16.025858563500901</v>
       </c>
       <c r="AL146" s="1">
         <v>774233</v>
       </c>
       <c r="AM146" s="7">
-        <f>AL146*100/AF146</f>
+        <f t="shared" si="26"/>
         <v>4.4442318029035635</v>
       </c>
       <c r="AN146" s="7">
-        <f>SUM(AI146,AK146,AM146)</f>
+        <f t="shared" si="27"/>
         <v>95.68625382266859</v>
       </c>
       <c r="AO146" s="1">
@@ -25126,14 +25126,14 @@
         <v>355989</v>
       </c>
       <c r="AQ146" s="7">
-        <f>AP146*100/AF146</f>
+        <f t="shared" si="28"/>
         <v>2.0434386486804832</v>
       </c>
       <c r="AR146" s="1">
         <v>395512</v>
       </c>
       <c r="AS146" s="7">
-        <f>AR146*100/AF146</f>
+        <f t="shared" si="29"/>
         <v>2.2703075286509282</v>
       </c>
     </row>
@@ -25241,25 +25241,25 @@
         <v>14316171</v>
       </c>
       <c r="AI147" s="7">
-        <f>AH147*100/AF147</f>
+        <f t="shared" si="24"/>
         <v>76.243353350968789</v>
       </c>
       <c r="AJ147" s="1">
         <v>2996922</v>
       </c>
       <c r="AK147" s="7">
-        <f>AJ147*100/AF147</f>
+        <f t="shared" si="25"/>
         <v>15.960649185546337</v>
       </c>
       <c r="AL147" s="1">
         <v>804801</v>
       </c>
       <c r="AM147" s="7">
-        <f>AL147*100/AF147</f>
+        <f t="shared" si="26"/>
         <v>4.2861130270246868</v>
       </c>
       <c r="AN147" s="7">
-        <f>SUM(AI147,AK147,AM147)</f>
+        <f t="shared" si="27"/>
         <v>96.490115563539817</v>
       </c>
       <c r="AO147" s="1">
@@ -25269,14 +25269,14 @@
         <v>325559</v>
       </c>
       <c r="AQ147" s="7">
-        <f>AP147*100/AF147</f>
+        <f t="shared" si="28"/>
         <v>1.7338232320351614</v>
       </c>
       <c r="AR147" s="1">
         <v>333490</v>
       </c>
       <c r="AS147" s="7">
-        <f>AR147*100/AF147</f>
+        <f t="shared" si="29"/>
         <v>1.7760612044250228</v>
       </c>
     </row>
@@ -25384,25 +25384,25 @@
         <v>20252863</v>
       </c>
       <c r="AI148" s="7">
-        <f>AH148*100/AF148</f>
+        <f t="shared" si="24"/>
         <v>76.86201609297251</v>
       </c>
       <c r="AJ148" s="1">
         <v>4156350</v>
       </c>
       <c r="AK148" s="7">
-        <f>AJ148*100/AF148</f>
+        <f t="shared" si="25"/>
         <v>15.773840991667514</v>
       </c>
       <c r="AL148" s="1">
         <v>962382</v>
       </c>
       <c r="AM148" s="7">
-        <f>AL148*100/AF148</f>
+        <f t="shared" si="26"/>
         <v>3.6523537818622023</v>
       </c>
       <c r="AN148" s="7">
-        <f>SUM(AI148,AK148,AM148)</f>
+        <f t="shared" si="27"/>
         <v>96.288210866502226</v>
       </c>
       <c r="AO148" s="1">
@@ -25412,14 +25412,14 @@
         <v>614316</v>
       </c>
       <c r="AQ148" s="7">
-        <f>AP148*100/AF148</f>
+        <f t="shared" si="28"/>
         <v>2.3314020481040383</v>
       </c>
       <c r="AR148" s="1">
         <v>363727</v>
       </c>
       <c r="AS148" s="7">
-        <f>AR148*100/AF148</f>
+        <f t="shared" si="29"/>
         <v>1.3803870853937348</v>
       </c>
     </row>
@@ -25527,25 +25527,25 @@
         <v>23124022</v>
       </c>
       <c r="AI149" s="7">
-        <f>AH149*100/AF149</f>
+        <f t="shared" si="24"/>
         <v>75.106787693151972</v>
       </c>
       <c r="AJ149" s="1">
         <v>4543106</v>
       </c>
       <c r="AK149" s="7">
-        <f>AJ149*100/AF149</f>
+        <f t="shared" si="25"/>
         <v>14.756001261782439</v>
       </c>
       <c r="AL149" s="1">
         <v>1186547</v>
       </c>
       <c r="AM149" s="7">
-        <f>AL149*100/AF149</f>
+        <f t="shared" si="26"/>
         <v>3.853902820925633</v>
       </c>
       <c r="AN149" s="7">
-        <f>SUM(AI149,AK149,AM149)</f>
+        <f t="shared" si="27"/>
         <v>93.716691775860056</v>
       </c>
       <c r="AO149" s="1">
@@ -25555,14 +25555,14 @@
         <v>1009786</v>
       </c>
       <c r="AQ149" s="7">
-        <f>AP149*100/AF149</f>
+        <f t="shared" si="28"/>
         <v>3.2797833662983522</v>
       </c>
       <c r="AR149" s="1">
         <v>924731</v>
       </c>
       <c r="AS149" s="7">
-        <f>AR149*100/AF149</f>
+        <f t="shared" si="29"/>
         <v>3.0035248578416036</v>
       </c>
     </row>
@@ -25670,25 +25670,25 @@
         <v>11133543</v>
       </c>
       <c r="AI150" s="7">
-        <f>AH150*100/AF150</f>
+        <f t="shared" ref="AI150:AI181" si="30">AH150*100/AF150</f>
         <v>46.78626439417453</v>
       </c>
       <c r="AJ150" s="1">
         <v>7552709</v>
       </c>
       <c r="AK150" s="7">
-        <f>AJ150*100/AF150</f>
+        <f t="shared" ref="AK150:AK181" si="31">AJ150*100/AF150</f>
         <v>31.738597512603267</v>
       </c>
       <c r="AL150" s="1">
         <v>3387990</v>
       </c>
       <c r="AM150" s="7">
-        <f>AL150*100/AF150</f>
+        <f t="shared" ref="AM150:AM181" si="32">AL150*100/AF150</f>
         <v>14.23728240909649</v>
       </c>
       <c r="AN150" s="7">
-        <f>SUM(AI150,AK150,AM150)</f>
+        <f t="shared" ref="AN150:AN181" si="33">SUM(AI150,AK150,AM150)</f>
         <v>92.762144315874295</v>
       </c>
       <c r="AO150" s="1">
@@ -25698,14 +25698,14 @@
         <v>530227</v>
       </c>
       <c r="AQ150" s="7">
-        <f>AP150*100/AF150</f>
+        <f t="shared" ref="AQ150:AQ181" si="34">AP150*100/AF150</f>
         <v>2.2281622849913973</v>
       </c>
       <c r="AR150" s="1">
         <v>1192137</v>
       </c>
       <c r="AS150" s="7">
-        <f>AR150*100/AF150</f>
+        <f t="shared" ref="AS150:AS181" si="35">AR150*100/AF150</f>
         <v>5.0096933991343136</v>
       </c>
     </row>
@@ -25813,25 +25813,25 @@
         <v>13013739</v>
       </c>
       <c r="AI151" s="7">
-        <f>AH151*100/AF151</f>
+        <f t="shared" si="30"/>
         <v>83.024075104163359</v>
       </c>
       <c r="AJ151" s="1">
         <v>1621667</v>
       </c>
       <c r="AK151" s="7">
-        <f>AJ151*100/AF151</f>
+        <f t="shared" si="31"/>
         <v>10.345789384737413</v>
       </c>
       <c r="AL151" s="1">
         <v>390235</v>
       </c>
       <c r="AM151" s="7">
-        <f>AL151*100/AF151</f>
+        <f t="shared" si="32"/>
         <v>2.4895919572594156</v>
       </c>
       <c r="AN151" s="7">
-        <f>SUM(AI151,AK151,AM151)</f>
+        <f t="shared" si="33"/>
         <v>95.859456446160195</v>
       </c>
       <c r="AO151" s="1">
@@ -25841,14 +25841,14 @@
         <v>328792</v>
       </c>
       <c r="AQ151" s="7">
-        <f>AP151*100/AF151</f>
+        <f t="shared" si="34"/>
         <v>2.0976025185112506</v>
       </c>
       <c r="AR151" s="1">
         <v>320224</v>
       </c>
       <c r="AS151" s="7">
-        <f>AR151*100/AF151</f>
+        <f t="shared" si="35"/>
         <v>2.042941035328556</v>
       </c>
     </row>
@@ -25956,25 +25956,25 @@
         <v>12042525</v>
       </c>
       <c r="AI152" s="7">
-        <f>AH152*100/AF152</f>
+        <f t="shared" si="30"/>
         <v>82.520227264037175</v>
       </c>
       <c r="AJ152" s="1">
         <v>1519074</v>
       </c>
       <c r="AK152" s="7">
-        <f>AJ152*100/AF152</f>
+        <f t="shared" si="31"/>
         <v>10.409306329934131</v>
       </c>
       <c r="AL152" s="1">
         <v>359652</v>
       </c>
       <c r="AM152" s="7">
-        <f>AL152*100/AF152</f>
+        <f t="shared" si="32"/>
         <v>2.4644802295171071</v>
       </c>
       <c r="AN152" s="7">
-        <f>SUM(AI152,AK152,AM152)</f>
+        <f t="shared" si="33"/>
         <v>95.394013823488407</v>
       </c>
       <c r="AO152" s="1">
@@ -25984,14 +25984,14 @@
         <v>341765</v>
       </c>
       <c r="AQ152" s="7">
-        <f>AP152*100/AF152</f>
+        <f t="shared" si="34"/>
         <v>2.3419113077111042</v>
       </c>
       <c r="AR152" s="1">
         <v>330406</v>
       </c>
       <c r="AS152" s="7">
-        <f>AR152*100/AF152</f>
+        <f t="shared" si="35"/>
         <v>2.2640748688004773</v>
       </c>
     </row>
@@ -26099,25 +26099,25 @@
         <v>23958868</v>
       </c>
       <c r="AI153" s="7">
-        <f>AH153*100/AF153</f>
+        <f t="shared" si="30"/>
         <v>79.411952560717296</v>
       </c>
       <c r="AJ153" s="1">
         <v>3202764</v>
       </c>
       <c r="AK153" s="7">
-        <f>AJ153*100/AF153</f>
+        <f t="shared" si="31"/>
         <v>10.61559931926555</v>
       </c>
       <c r="AL153" s="1">
         <v>633118</v>
       </c>
       <c r="AM153" s="7">
-        <f>AL153*100/AF153</f>
+        <f t="shared" si="32"/>
         <v>2.0984771309452608</v>
       </c>
       <c r="AN153" s="7">
-        <f>SUM(AI153,AK153,AM153)</f>
+        <f t="shared" si="33"/>
         <v>92.126029010928107</v>
       </c>
       <c r="AO153" s="1">
@@ -26127,14 +26127,14 @@
         <v>1425044</v>
       </c>
       <c r="AQ153" s="7">
-        <f>AP153*100/AF153</f>
+        <f t="shared" si="34"/>
         <v>4.723325264154167</v>
       </c>
       <c r="AR153" s="1">
         <v>950561</v>
       </c>
       <c r="AS153" s="7">
-        <f>AR153*100/AF153</f>
+        <f t="shared" si="35"/>
         <v>3.1506457249177213</v>
       </c>
     </row>
@@ -26242,25 +26242,25 @@
         <v>25626385</v>
       </c>
       <c r="AI154" s="7">
-        <f>AH154*100/AF154</f>
+        <f t="shared" si="30"/>
         <v>81.815915041198679</v>
       </c>
       <c r="AJ154" s="1">
         <v>3410519</v>
       </c>
       <c r="AK154" s="7">
-        <f>AJ154*100/AF154</f>
+        <f t="shared" si="31"/>
         <v>10.888571788427976</v>
       </c>
       <c r="AL154" s="1">
         <v>751494</v>
       </c>
       <c r="AM154" s="7">
-        <f>AL154*100/AF154</f>
+        <f t="shared" si="32"/>
         <v>2.3992525382714165</v>
       </c>
       <c r="AN154" s="7">
-        <f>SUM(AI154,AK154,AM154)</f>
+        <f t="shared" si="33"/>
         <v>95.103739367898072</v>
       </c>
       <c r="AO154" s="1">
@@ -26270,14 +26270,14 @@
         <v>1046937</v>
       </c>
       <c r="AQ154" s="7">
-        <f>AP154*100/AF154</f>
+        <f t="shared" si="34"/>
         <v>3.3424967526823393</v>
       </c>
       <c r="AR154" s="1">
         <v>486670</v>
       </c>
       <c r="AS154" s="7">
-        <f>AR154*100/AF154</f>
+        <f t="shared" si="35"/>
         <v>1.5537638794195965</v>
       </c>
     </row>
@@ -26385,25 +26385,25 @@
         <v>19360137</v>
       </c>
       <c r="AI155" s="7">
-        <f>AH155*100/AF155</f>
+        <f t="shared" si="30"/>
         <v>82.321767830445566</v>
       </c>
       <c r="AJ155" s="1">
         <v>2173393</v>
       </c>
       <c r="AK155" s="7">
-        <f>AJ155*100/AF155</f>
+        <f t="shared" si="31"/>
         <v>9.241543794360318</v>
       </c>
       <c r="AL155" s="1">
         <v>524445</v>
       </c>
       <c r="AM155" s="7">
-        <f>AL155*100/AF155</f>
+        <f t="shared" si="32"/>
         <v>2.2300069224633083</v>
       </c>
       <c r="AN155" s="7">
-        <f>SUM(AI155,AK155,AM155)</f>
+        <f t="shared" si="33"/>
         <v>93.793318547269195</v>
       </c>
       <c r="AO155" s="1">
@@ -26413,14 +26413,14 @@
         <v>998822</v>
       </c>
       <c r="AQ155" s="7">
-        <f>AP155*100/AF155</f>
+        <f t="shared" si="34"/>
         <v>4.2471183333021507</v>
       </c>
       <c r="AR155" s="1">
         <v>460843</v>
       </c>
       <c r="AS155" s="7">
-        <f>AR155*100/AF155</f>
+        <f t="shared" si="35"/>
         <v>1.9595631194286502</v>
       </c>
     </row>
@@ -26528,25 +26528,25 @@
         <v>14916797</v>
       </c>
       <c r="AI156" s="7">
-        <f>AH156*100/AF156</f>
+        <f t="shared" si="30"/>
         <v>78.701784344679353</v>
       </c>
       <c r="AJ156" s="1">
         <v>2444522</v>
       </c>
       <c r="AK156" s="7">
-        <f>AJ156*100/AF156</f>
+        <f t="shared" si="31"/>
         <v>12.897423171329896</v>
       </c>
       <c r="AL156" s="1">
         <v>762561</v>
       </c>
       <c r="AM156" s="7">
-        <f>AL156*100/AF156</f>
+        <f t="shared" si="32"/>
         <v>4.0233108603450889</v>
       </c>
       <c r="AN156" s="7">
-        <f>SUM(AI156,AK156,AM156)</f>
+        <f t="shared" si="33"/>
         <v>95.622518376354336</v>
       </c>
       <c r="AO156" s="1">
@@ -26556,14 +26556,14 @@
         <v>400100</v>
       </c>
       <c r="AQ156" s="7">
-        <f>AP156*100/AF156</f>
+        <f t="shared" si="34"/>
         <v>2.1109480752675132</v>
       </c>
       <c r="AR156" s="1">
         <v>429589</v>
       </c>
       <c r="AS156" s="7">
-        <f>AR156*100/AF156</f>
+        <f t="shared" si="35"/>
         <v>2.2665335483781446</v>
       </c>
     </row>
@@ -26671,25 +26671,25 @@
         <v>14452959</v>
       </c>
       <c r="AI157" s="7">
-        <f>AH157*100/AF157</f>
+        <f t="shared" si="30"/>
         <v>75.91577437933833</v>
       </c>
       <c r="AJ157" s="1">
         <v>2848954</v>
       </c>
       <c r="AK157" s="7">
-        <f>AJ157*100/AF157</f>
+        <f t="shared" si="31"/>
         <v>14.96444770106339</v>
       </c>
       <c r="AL157" s="1">
         <v>880554</v>
       </c>
       <c r="AM157" s="7">
-        <f>AL157*100/AF157</f>
+        <f t="shared" si="32"/>
         <v>4.6252078064307716</v>
       </c>
       <c r="AN157" s="7">
-        <f>SUM(AI157,AK157,AM157)</f>
+        <f t="shared" si="33"/>
         <v>95.505429886832488</v>
       </c>
       <c r="AO157" s="1">
@@ -26699,14 +26699,14 @@
         <v>381790</v>
       </c>
       <c r="AQ157" s="7">
-        <f>AP157*100/AF157</f>
+        <f t="shared" si="34"/>
         <v>2.0053944317068622</v>
       </c>
       <c r="AR157" s="1">
         <v>473893</v>
       </c>
       <c r="AS157" s="7">
-        <f>AR157*100/AF157</f>
+        <f t="shared" si="35"/>
         <v>2.4891756814606461</v>
       </c>
     </row>
@@ -26814,25 +26814,25 @@
         <v>24837115</v>
       </c>
       <c r="AI158" s="7">
-        <f>AH158*100/AF158</f>
+        <f t="shared" si="30"/>
         <v>77.745827195087088</v>
       </c>
       <c r="AJ158" s="1">
         <v>4511244</v>
       </c>
       <c r="AK158" s="7">
-        <f>AJ158*100/AF158</f>
+        <f t="shared" si="31"/>
         <v>14.121221263374329</v>
       </c>
       <c r="AL158" s="1">
         <v>1253180</v>
       </c>
       <c r="AM158" s="7">
-        <f>AL158*100/AF158</f>
+        <f t="shared" si="32"/>
         <v>3.9227388416222757</v>
       </c>
       <c r="AN158" s="7">
-        <f>SUM(AI158,AK158,AM158)</f>
+        <f t="shared" si="33"/>
         <v>95.789787300083688</v>
       </c>
       <c r="AO158" s="1">
@@ -26842,14 +26842,14 @@
         <v>812346</v>
       </c>
       <c r="AQ158" s="7">
-        <f>AP158*100/AF158</f>
+        <f t="shared" si="34"/>
         <v>2.542828011168778</v>
       </c>
       <c r="AR158" s="1">
         <v>532672</v>
       </c>
       <c r="AS158" s="7">
-        <f>AR158*100/AF158</f>
+        <f t="shared" si="35"/>
         <v>1.667384688747523</v>
       </c>
     </row>
@@ -26957,25 +26957,25 @@
         <v>23005371</v>
       </c>
       <c r="AI159" s="7">
-        <f>AH159*100/AF159</f>
+        <f t="shared" si="30"/>
         <v>77.437148086151808</v>
       </c>
       <c r="AJ159" s="1">
         <v>3783359</v>
       </c>
       <c r="AK159" s="7">
-        <f>AJ159*100/AF159</f>
+        <f t="shared" si="31"/>
         <v>12.734962246254373</v>
       </c>
       <c r="AL159" s="1">
         <v>1038409</v>
       </c>
       <c r="AM159" s="7">
-        <f>AL159*100/AF159</f>
+        <f t="shared" si="32"/>
         <v>3.4953329597246143</v>
       </c>
       <c r="AN159" s="7">
-        <f>SUM(AI159,AK159,AM159)</f>
+        <f t="shared" si="33"/>
         <v>93.667443292130798</v>
       </c>
       <c r="AO159" s="1">
@@ -26985,14 +26985,14 @@
         <v>902488</v>
       </c>
       <c r="AQ159" s="7">
-        <f>AP159*100/AF159</f>
+        <f t="shared" si="34"/>
         <v>3.0378165560544521</v>
       </c>
       <c r="AR159" s="1">
         <v>978816</v>
       </c>
       <c r="AS159" s="7">
-        <f>AR159*100/AF159</f>
+        <f t="shared" si="35"/>
         <v>3.294740151814755</v>
       </c>
     </row>
@@ -27100,25 +27100,25 @@
         <v>20375163</v>
       </c>
       <c r="AI160" s="7">
-        <f>AH160*100/AF160</f>
+        <f t="shared" si="30"/>
         <v>77.927364398674044</v>
       </c>
       <c r="AJ160" s="1">
         <v>3547337</v>
       </c>
       <c r="AK160" s="7">
-        <f>AJ160*100/AF160</f>
+        <f t="shared" si="31"/>
         <v>13.567234924397866</v>
       </c>
       <c r="AL160" s="1">
         <v>1109828</v>
       </c>
       <c r="AM160" s="7">
-        <f>AL160*100/AF160</f>
+        <f t="shared" si="32"/>
         <v>4.2446762745334414</v>
       </c>
       <c r="AN160" s="7">
-        <f>SUM(AI160,AK160,AM160)</f>
+        <f t="shared" si="33"/>
         <v>95.739275597605356</v>
       </c>
       <c r="AO160" s="1">
@@ -27128,14 +27128,14 @@
         <v>573627</v>
       </c>
       <c r="AQ160" s="7">
-        <f>AP160*100/AF160</f>
+        <f t="shared" si="34"/>
         <v>2.1939083509623063</v>
       </c>
       <c r="AR160" s="1">
         <v>540397</v>
       </c>
       <c r="AS160" s="7">
-        <f>AR160*100/AF160</f>
+        <f t="shared" si="35"/>
         <v>2.0668160514323373</v>
       </c>
     </row>
@@ -27243,25 +27243,25 @@
         <v>18079007</v>
       </c>
       <c r="AI161" s="7">
-        <f>AH161*100/AF161</f>
+        <f t="shared" si="30"/>
         <v>87.846075698322338</v>
       </c>
       <c r="AJ161" s="1">
         <v>1484963</v>
       </c>
       <c r="AK161" s="7">
-        <f>AJ161*100/AF161</f>
+        <f t="shared" si="31"/>
         <v>7.2154500580262972</v>
       </c>
       <c r="AL161" s="1">
         <v>422669</v>
       </c>
       <c r="AM161" s="7">
-        <f>AL161*100/AF161</f>
+        <f t="shared" si="32"/>
         <v>2.053752895241105</v>
       </c>
       <c r="AN161" s="7">
-        <f>SUM(AI161,AK161,AM161)</f>
+        <f t="shared" si="33"/>
         <v>97.115278651589733</v>
       </c>
       <c r="AO161" s="1">
@@ -27271,14 +27271,14 @@
         <v>434388</v>
       </c>
       <c r="AQ161" s="7">
-        <f>AP161*100/AF161</f>
+        <f t="shared" si="34"/>
         <v>2.1106956333632065</v>
       </c>
       <c r="AR161" s="1">
         <v>159297</v>
       </c>
       <c r="AS161" s="7">
-        <f>AR161*100/AF161</f>
+        <f t="shared" si="35"/>
         <v>0.77402571504705175</v>
       </c>
     </row>
@@ -27386,25 +27386,25 @@
         <v>13225321</v>
       </c>
       <c r="AI162" s="7">
-        <f>AH162*100/AF162</f>
+        <f t="shared" si="30"/>
         <v>76.174413920508897</v>
       </c>
       <c r="AJ162" s="1">
         <v>1920230</v>
       </c>
       <c r="AK162" s="7">
-        <f>AJ162*100/AF162</f>
+        <f t="shared" si="31"/>
         <v>11.060026054761076</v>
       </c>
       <c r="AL162" s="1">
         <v>749607</v>
       </c>
       <c r="AM162" s="7">
-        <f>AL162*100/AF162</f>
+        <f t="shared" si="32"/>
         <v>4.3175416230510333</v>
       </c>
       <c r="AN162" s="7">
-        <f>SUM(AI162,AK162,AM162)</f>
+        <f t="shared" si="33"/>
         <v>91.551981598321007</v>
       </c>
       <c r="AO162" s="1">
@@ -27414,14 +27414,14 @@
         <v>1092883</v>
       </c>
       <c r="AQ162" s="7">
-        <f>AP162*100/AF162</f>
+        <f t="shared" si="34"/>
         <v>6.2947222232781748</v>
       </c>
       <c r="AR162" s="1">
         <v>373853</v>
       </c>
       <c r="AS162" s="7">
-        <f>AR162*100/AF162</f>
+        <f t="shared" si="35"/>
         <v>2.1532961784008129</v>
       </c>
     </row>
@@ -27529,25 +27529,25 @@
         <v>30203760</v>
       </c>
       <c r="AI163" s="7">
-        <f>AH163*100/AF163</f>
+        <f t="shared" si="30"/>
         <v>78.847579843794193</v>
       </c>
       <c r="AJ163" s="1">
         <v>3757367</v>
       </c>
       <c r="AK163" s="7">
-        <f>AJ163*100/AF163</f>
+        <f t="shared" si="31"/>
         <v>9.8086892007795541</v>
       </c>
       <c r="AL163" s="1">
         <v>971938</v>
       </c>
       <c r="AM163" s="7">
-        <f>AL163*100/AF163</f>
+        <f t="shared" si="32"/>
         <v>2.5372655278090424</v>
       </c>
       <c r="AN163" s="7">
-        <f>SUM(AI163,AK163,AM163)</f>
+        <f t="shared" si="33"/>
         <v>91.193534572382788</v>
       </c>
       <c r="AO163" s="1">
@@ -27557,14 +27557,14 @@
         <v>1961086</v>
       </c>
       <c r="AQ163" s="7">
-        <f>AP163*100/AF163</f>
+        <f t="shared" si="34"/>
         <v>5.1194581391703213</v>
       </c>
       <c r="AR163" s="1">
         <v>1412364</v>
       </c>
       <c r="AS163" s="7">
-        <f>AR163*100/AF163</f>
+        <f t="shared" si="35"/>
         <v>3.6870072884468867</v>
       </c>
     </row>
@@ -27672,25 +27672,25 @@
         <v>27789705</v>
       </c>
       <c r="AI164" s="7">
-        <f>AH164*100/AF164</f>
+        <f t="shared" si="30"/>
         <v>80.162325384034688</v>
       </c>
       <c r="AJ164" s="1">
         <v>3983233</v>
       </c>
       <c r="AK164" s="7">
-        <f>AJ164*100/AF164</f>
+        <f t="shared" si="31"/>
         <v>11.490054314229843</v>
       </c>
       <c r="AL164" s="1">
         <v>873349</v>
       </c>
       <c r="AM164" s="7">
-        <f>AL164*100/AF164</f>
+        <f t="shared" si="32"/>
         <v>2.5192669987616392</v>
       </c>
       <c r="AN164" s="7">
-        <f>SUM(AI164,AK164,AM164)</f>
+        <f t="shared" si="33"/>
         <v>94.171646697026162</v>
       </c>
       <c r="AO164" s="1">
@@ -27700,14 +27700,14 @@
         <v>1129858</v>
       </c>
       <c r="AQ164" s="7">
-        <f>AP164*100/AF164</f>
+        <f t="shared" si="34"/>
         <v>3.2591941740207271</v>
       </c>
       <c r="AR164" s="1">
         <v>890645</v>
       </c>
       <c r="AS164" s="7">
-        <f>AR164*100/AF164</f>
+        <f t="shared" si="35"/>
         <v>2.5691591289530988</v>
       </c>
     </row>
@@ -27815,25 +27815,25 @@
         <v>24223878</v>
       </c>
       <c r="AI165" s="7">
-        <f>AH165*100/AF165</f>
+        <f t="shared" si="30"/>
         <v>81.323821782297884</v>
       </c>
       <c r="AJ165" s="1">
         <v>2856763</v>
       </c>
       <c r="AK165" s="7">
-        <f>AJ165*100/AF165</f>
+        <f t="shared" si="31"/>
         <v>9.5906561734773703</v>
       </c>
       <c r="AL165" s="1">
         <v>777917</v>
       </c>
       <c r="AM165" s="7">
-        <f>AL165*100/AF165</f>
+        <f t="shared" si="32"/>
         <v>2.6116042802651096</v>
       </c>
       <c r="AN165" s="7">
-        <f>SUM(AI165,AK165,AM165)</f>
+        <f t="shared" si="33"/>
         <v>93.526082236040367</v>
       </c>
       <c r="AO165" s="1">
@@ -27843,14 +27843,14 @@
         <v>1067734</v>
       </c>
       <c r="AQ165" s="7">
-        <f>AP165*100/AF165</f>
+        <f t="shared" si="34"/>
         <v>3.5845709562647254</v>
       </c>
       <c r="AR165" s="1">
         <v>860648</v>
       </c>
       <c r="AS165" s="7">
-        <f>AR165*100/AF165</f>
+        <f t="shared" si="35"/>
         <v>2.889346807694916</v>
       </c>
     </row>
@@ -27958,25 +27958,25 @@
         <v>17990566</v>
       </c>
       <c r="AI166" s="7">
-        <f>AH166*100/AF166</f>
+        <f t="shared" si="30"/>
         <v>86.13600576686116</v>
       </c>
       <c r="AJ166" s="1">
         <v>1596622</v>
       </c>
       <c r="AK166" s="7">
-        <f>AJ166*100/AF166</f>
+        <f t="shared" si="31"/>
         <v>7.6443754909933013</v>
       </c>
       <c r="AL166" s="1">
         <v>768288</v>
       </c>
       <c r="AM166" s="7">
-        <f>AL166*100/AF166</f>
+        <f t="shared" si="32"/>
         <v>3.6784423346441808</v>
       </c>
       <c r="AN166" s="7">
-        <f>SUM(AI166,AK166,AM166)</f>
+        <f t="shared" si="33"/>
         <v>97.458823592498632</v>
       </c>
       <c r="AO166" s="1">
@@ -27986,14 +27986,14 @@
         <v>423738</v>
       </c>
       <c r="AQ166" s="7">
-        <f>AP166*100/AF166</f>
+        <f t="shared" si="34"/>
         <v>2.0287910236753093</v>
       </c>
       <c r="AR166" s="1">
         <v>107018</v>
       </c>
       <c r="AS166" s="7">
-        <f>AR166*100/AF166</f>
+        <f t="shared" si="35"/>
         <v>0.51238538382605348</v>
       </c>
     </row>
@@ -28101,25 +28101,25 @@
         <v>17793171</v>
       </c>
       <c r="AI167" s="7">
-        <f>AH167*100/AF167</f>
+        <f t="shared" si="30"/>
         <v>76.220754052602231</v>
       </c>
       <c r="AJ167" s="1">
         <v>2833083</v>
       </c>
       <c r="AK167" s="7">
-        <f>AJ167*100/AF167</f>
+        <f t="shared" si="31"/>
         <v>12.13610112293129</v>
       </c>
       <c r="AL167" s="1">
         <v>1685345</v>
       </c>
       <c r="AM167" s="7">
-        <f>AL167*100/AF167</f>
+        <f t="shared" si="32"/>
         <v>7.2195263418073647</v>
       </c>
       <c r="AN167" s="7">
-        <f>SUM(AI167,AK167,AM167)</f>
+        <f t="shared" si="33"/>
         <v>95.576381517340891</v>
       </c>
       <c r="AO167" s="1">
@@ -28129,14 +28129,14 @@
         <v>552527</v>
       </c>
       <c r="AQ167" s="7">
-        <f>AP167*100/AF167</f>
+        <f t="shared" si="34"/>
         <v>2.3668644883153287</v>
       </c>
       <c r="AR167" s="1">
         <v>480134</v>
       </c>
       <c r="AS167" s="7">
-        <f>AR167*100/AF167</f>
+        <f t="shared" si="35"/>
         <v>2.0567539943437914</v>
       </c>
     </row>
@@ -28244,25 +28244,25 @@
         <v>30820333</v>
       </c>
       <c r="AI168" s="7">
-        <f>AH168*100/AF168</f>
+        <f t="shared" si="30"/>
         <v>83.201323971980727</v>
       </c>
       <c r="AJ168" s="1">
         <v>3300814</v>
       </c>
       <c r="AK168" s="7">
-        <f>AJ168*100/AF168</f>
+        <f t="shared" si="31"/>
         <v>8.9107439230215206</v>
       </c>
       <c r="AL168" s="1">
         <v>1247269</v>
       </c>
       <c r="AM168" s="7">
-        <f>AL168*100/AF168</f>
+        <f t="shared" si="32"/>
         <v>3.3670769277284718</v>
       </c>
       <c r="AN168" s="7">
-        <f>SUM(AI168,AK168,AM168)</f>
+        <f t="shared" si="33"/>
         <v>95.479144822730717</v>
       </c>
       <c r="AO168" s="1">
@@ -28272,14 +28272,14 @@
         <v>916305</v>
       </c>
       <c r="AQ168" s="7">
-        <f>AP168*100/AF168</f>
+        <f t="shared" si="34"/>
         <v>2.4736199041764344</v>
       </c>
       <c r="AR168" s="1">
         <v>758359</v>
       </c>
       <c r="AS168" s="7">
-        <f>AR168*100/AF168</f>
+        <f t="shared" si="35"/>
         <v>2.0472352730928423</v>
       </c>
     </row>
@@ -28387,25 +28387,25 @@
         <v>27461862</v>
       </c>
       <c r="AI169" s="7">
-        <f>AH169*100/AF169</f>
+        <f t="shared" si="30"/>
         <v>74.687730043212866</v>
       </c>
       <c r="AJ169" s="1">
         <v>4565038</v>
       </c>
       <c r="AK169" s="7">
-        <f>AJ169*100/AF169</f>
+        <f t="shared" si="31"/>
         <v>12.415484637604267</v>
       </c>
       <c r="AL169" s="1">
         <v>2433310</v>
       </c>
       <c r="AM169" s="7">
-        <f>AL169*100/AF169</f>
+        <f t="shared" si="32"/>
         <v>6.6178469759789165</v>
       </c>
       <c r="AN169" s="7">
-        <f>SUM(AI169,AK169,AM169)</f>
+        <f t="shared" si="33"/>
         <v>93.721061656796053</v>
       </c>
       <c r="AO169" s="1">
@@ -28415,14 +28415,14 @@
         <v>1070845</v>
       </c>
       <c r="AQ169" s="7">
-        <f>AP169*100/AF169</f>
+        <f t="shared" si="34"/>
         <v>2.9123656028176197</v>
       </c>
       <c r="AR169" s="1">
         <v>1237852</v>
       </c>
       <c r="AS169" s="7">
-        <f>AR169*100/AF169</f>
+        <f t="shared" si="35"/>
         <v>3.366572740386327</v>
       </c>
     </row>
@@ -28530,25 +28530,25 @@
         <v>21512292</v>
       </c>
       <c r="AI170" s="7">
-        <f>AH170*100/AF170</f>
+        <f t="shared" si="30"/>
         <v>71.622492793151082</v>
       </c>
       <c r="AJ170" s="1">
         <v>4171140</v>
       </c>
       <c r="AK170" s="7">
-        <f>AJ170*100/AF170</f>
+        <f t="shared" si="31"/>
         <v>13.887290326350357</v>
       </c>
       <c r="AL170" s="1">
         <v>2697922</v>
       </c>
       <c r="AM170" s="7">
-        <f>AL170*100/AF170</f>
+        <f t="shared" si="32"/>
         <v>8.9823947630258889</v>
       </c>
       <c r="AN170" s="7">
-        <f>SUM(AI170,AK170,AM170)</f>
+        <f t="shared" si="33"/>
         <v>94.492177882527329</v>
       </c>
       <c r="AO170" s="1">
@@ -28558,14 +28558,14 @@
         <v>751965</v>
       </c>
       <c r="AQ170" s="7">
-        <f>AP170*100/AF170</f>
+        <f t="shared" si="34"/>
         <v>2.5035736681708229</v>
       </c>
       <c r="AR170" s="1">
         <v>902346</v>
       </c>
       <c r="AS170" s="7">
-        <f>AR170*100/AF170</f>
+        <f t="shared" si="35"/>
         <v>3.0042484493018549</v>
       </c>
     </row>
@@ -28673,25 +28673,25 @@
         <v>13350727</v>
       </c>
       <c r="AI171" s="7">
-        <f>AH171*100/AF171</f>
+        <f t="shared" si="30"/>
         <v>79.637634493780368</v>
       </c>
       <c r="AJ171" s="1">
         <v>1841006</v>
       </c>
       <c r="AK171" s="7">
-        <f>AJ171*100/AF171</f>
+        <f t="shared" si="31"/>
         <v>10.981676348325948</v>
       </c>
       <c r="AL171" s="1">
         <v>586856</v>
       </c>
       <c r="AM171" s="7">
-        <f>AL171*100/AF171</f>
+        <f t="shared" si="32"/>
         <v>3.5006201256667127</v>
       </c>
       <c r="AN171" s="7">
-        <f>SUM(AI171,AK171,AM171)</f>
+        <f t="shared" si="33"/>
         <v>94.11993096777303</v>
       </c>
       <c r="AO171" s="1">
@@ -28701,14 +28701,14 @@
         <v>552185</v>
       </c>
       <c r="AQ171" s="7">
-        <f>AP171*100/AF171</f>
+        <f t="shared" si="34"/>
         <v>3.2938061877040941</v>
       </c>
       <c r="AR171" s="1">
         <v>433570</v>
       </c>
       <c r="AS171" s="7">
-        <f>AR171*100/AF171</f>
+        <f t="shared" si="35"/>
         <v>2.5862628445228752</v>
       </c>
     </row>
@@ -28816,25 +28816,25 @@
         <v>16019094</v>
       </c>
       <c r="AI172" s="7">
-        <f>AH172*100/AF172</f>
+        <f t="shared" si="30"/>
         <v>87.14291822561762</v>
       </c>
       <c r="AJ172" s="1">
         <v>1373695</v>
       </c>
       <c r="AK172" s="7">
-        <f>AJ172*100/AF172</f>
+        <f t="shared" si="31"/>
         <v>7.4728190652941917</v>
       </c>
       <c r="AL172" s="1">
         <v>431823</v>
       </c>
       <c r="AM172" s="7">
-        <f>AL172*100/AF172</f>
+        <f t="shared" si="32"/>
         <v>2.3490914265776128</v>
       </c>
       <c r="AN172" s="7">
-        <f>SUM(AI172,AK172,AM172)</f>
+        <f t="shared" si="33"/>
         <v>96.964828717489425</v>
       </c>
       <c r="AO172" s="1">
@@ -28844,14 +28844,14 @@
         <v>399173</v>
       </c>
       <c r="AQ172" s="7">
-        <f>AP172*100/AF172</f>
+        <f t="shared" si="34"/>
         <v>2.1714773692491263</v>
       </c>
       <c r="AR172" s="1">
         <v>158769</v>
       </c>
       <c r="AS172" s="7">
-        <f>AR172*100/AF172</f>
+        <f t="shared" si="35"/>
         <v>0.86369391326145428</v>
       </c>
     </row>
@@ -28959,25 +28959,25 @@
         <v>33101411</v>
       </c>
       <c r="AI173" s="7">
-        <f>AH173*100/AF173</f>
+        <f t="shared" si="30"/>
         <v>81.69376332464735</v>
       </c>
       <c r="AJ173" s="1">
         <v>3145041</v>
       </c>
       <c r="AK173" s="7">
-        <f>AJ173*100/AF173</f>
+        <f t="shared" si="31"/>
         <v>7.7619118744005267</v>
       </c>
       <c r="AL173" s="1">
         <v>790021</v>
       </c>
       <c r="AM173" s="7">
-        <f>AL173*100/AF173</f>
+        <f t="shared" si="32"/>
         <v>1.9497594406323411</v>
       </c>
       <c r="AN173" s="7">
-        <f>SUM(AI173,AK173,AM173)</f>
+        <f t="shared" si="33"/>
         <v>91.405434639680209</v>
       </c>
       <c r="AO173" s="1">
@@ -28987,14 +28987,14 @@
         <v>1896631</v>
       </c>
       <c r="AQ173" s="7">
-        <f>AP173*100/AF173</f>
+        <f t="shared" si="34"/>
         <v>4.6808555692139295</v>
       </c>
       <c r="AR173" s="1">
         <v>1585792</v>
       </c>
       <c r="AS173" s="7">
-        <f>AR173*100/AF173</f>
+        <f t="shared" si="35"/>
         <v>3.9137097911058585</v>
       </c>
     </row>
@@ -29102,25 +29102,25 @@
         <v>26149247</v>
       </c>
       <c r="AI174" s="7">
-        <f>AH174*100/AF174</f>
+        <f t="shared" si="30"/>
         <v>81.875465552919536</v>
       </c>
       <c r="AJ174" s="1">
         <v>3009021</v>
       </c>
       <c r="AK174" s="7">
-        <f>AJ174*100/AF174</f>
+        <f t="shared" si="31"/>
         <v>9.4214948229106366</v>
       </c>
       <c r="AL174" s="1">
         <v>633032</v>
       </c>
       <c r="AM174" s="7">
-        <f>AL174*100/AF174</f>
+        <f t="shared" si="32"/>
         <v>1.9820758016433804</v>
       </c>
       <c r="AN174" s="7">
-        <f>SUM(AI174,AK174,AM174)</f>
+        <f t="shared" si="33"/>
         <v>93.279036177473543</v>
       </c>
       <c r="AO174" s="1">
@@ -29130,14 +29130,14 @@
         <v>1154333</v>
       </c>
       <c r="AQ174" s="7">
-        <f>AP174*100/AF174</f>
+        <f t="shared" si="34"/>
         <v>3.6143125566138963</v>
       </c>
       <c r="AR174" s="1">
         <v>992197</v>
       </c>
       <c r="AS174" s="7">
-        <f>AR174*100/AF174</f>
+        <f t="shared" si="35"/>
         <v>3.1066512659125558</v>
       </c>
     </row>
@@ -29245,25 +29245,25 @@
         <v>25764058</v>
       </c>
       <c r="AI175" s="7">
-        <f>AH175*100/AF175</f>
+        <f t="shared" si="30"/>
         <v>83.23163239432192</v>
       </c>
       <c r="AJ175" s="1">
         <v>2530928</v>
       </c>
       <c r="AK175" s="7">
-        <f>AJ175*100/AF175</f>
+        <f t="shared" si="31"/>
         <v>8.1762457184538402</v>
       </c>
       <c r="AL175" s="1">
         <v>573149</v>
       </c>
       <c r="AM175" s="7">
-        <f>AL175*100/AF175</f>
+        <f t="shared" si="32"/>
         <v>1.851576598499088</v>
       </c>
       <c r="AN175" s="7">
-        <f>SUM(AI175,AK175,AM175)</f>
+        <f t="shared" si="33"/>
         <v>93.259454711274856</v>
       </c>
       <c r="AO175" s="1">
@@ -29273,14 +29273,14 @@
         <v>1406888</v>
       </c>
       <c r="AQ175" s="7">
-        <f>AP175*100/AF175</f>
+        <f t="shared" si="34"/>
         <v>4.5449977187593191</v>
       </c>
       <c r="AR175" s="1">
         <v>679624</v>
       </c>
       <c r="AS175" s="7">
-        <f>AR175*100/AF175</f>
+        <f t="shared" si="35"/>
         <v>2.1955475699658278</v>
       </c>
     </row>
@@ -29388,25 +29388,25 @@
         <v>13310164</v>
       </c>
       <c r="AI176" s="7">
-        <f>AH176*100/AF176</f>
+        <f t="shared" si="30"/>
         <v>77.897767083044897</v>
       </c>
       <c r="AJ176" s="1">
         <v>1745476</v>
       </c>
       <c r="AK176" s="7">
-        <f>AJ176*100/AF176</f>
+        <f t="shared" si="31"/>
         <v>10.215402522241265</v>
       </c>
       <c r="AL176" s="1">
         <v>1226907</v>
       </c>
       <c r="AM176" s="7">
-        <f>AL176*100/AF176</f>
+        <f t="shared" si="32"/>
         <v>7.1804761923712865</v>
       </c>
       <c r="AN176" s="7">
-        <f>SUM(AI176,AK176,AM176)</f>
+        <f t="shared" si="33"/>
         <v>95.293645797657447</v>
       </c>
       <c r="AO176" s="1">
@@ -29416,14 +29416,14 @@
         <v>430577</v>
       </c>
       <c r="AQ176" s="7">
-        <f>AP176*100/AF176</f>
+        <f t="shared" si="34"/>
         <v>2.5199529365165017</v>
       </c>
       <c r="AR176" s="1">
         <v>373584</v>
       </c>
       <c r="AS176" s="7">
-        <f>AR176*100/AF176</f>
+        <f t="shared" si="35"/>
         <v>2.1864012658260443</v>
       </c>
     </row>
@@ -29531,25 +29531,25 @@
         <v>19620450</v>
       </c>
       <c r="AI177" s="7">
-        <f>AH177*100/AF177</f>
+        <f t="shared" si="30"/>
         <v>90.11948412050269</v>
       </c>
       <c r="AJ177" s="1">
         <v>1126280</v>
       </c>
       <c r="AK177" s="7">
-        <f>AJ177*100/AF177</f>
+        <f t="shared" si="31"/>
         <v>5.1731623166257537</v>
       </c>
       <c r="AL177" s="1">
         <v>400140</v>
       </c>
       <c r="AM177" s="7">
-        <f>AL177*100/AF177</f>
+        <f t="shared" si="32"/>
         <v>1.8378992518508979</v>
       </c>
       <c r="AN177" s="7">
-        <f>SUM(AI177,AK177,AM177)</f>
+        <f t="shared" si="33"/>
         <v>97.130545688979339</v>
       </c>
       <c r="AO177" s="1">
@@ -29559,14 +29559,14 @@
         <v>493147</v>
       </c>
       <c r="AQ177" s="7">
-        <f>AP177*100/AF177</f>
+        <f t="shared" si="34"/>
         <v>2.2650934731656789</v>
       </c>
       <c r="AR177" s="1">
         <v>131579</v>
       </c>
       <c r="AS177" s="7">
-        <f>AR177*100/AF177</f>
+        <f t="shared" si="35"/>
         <v>0.60436083785497396</v>
       </c>
     </row>
@@ -29674,25 +29674,25 @@
         <v>30186347</v>
       </c>
       <c r="AI178" s="7">
-        <f>AH178*100/AF178</f>
+        <f t="shared" si="30"/>
         <v>83.533732936156483</v>
       </c>
       <c r="AJ178" s="1">
         <v>2831305</v>
       </c>
       <c r="AK178" s="7">
-        <f>AJ178*100/AF178</f>
+        <f t="shared" si="31"/>
         <v>7.8349816799894514</v>
       </c>
       <c r="AL178" s="1">
         <v>1386803</v>
       </c>
       <c r="AM178" s="7">
-        <f>AL178*100/AF178</f>
+        <f t="shared" si="32"/>
         <v>3.8376565219057683</v>
       </c>
       <c r="AN178" s="7">
-        <f>SUM(AI178,AK178,AM178)</f>
+        <f t="shared" si="33"/>
         <v>95.206371138051708</v>
       </c>
       <c r="AO178" s="1">
@@ -29702,14 +29702,14 @@
         <v>1031084</v>
       </c>
       <c r="AQ178" s="7">
-        <f>AP178*100/AF178</f>
+        <f t="shared" si="34"/>
         <v>2.853286470560481</v>
       </c>
       <c r="AR178" s="1">
         <v>701176</v>
       </c>
       <c r="AS178" s="7">
-        <f>AR178*100/AF178</f>
+        <f t="shared" si="35"/>
         <v>1.9403423913878171</v>
       </c>
     </row>
@@ -29817,25 +29817,25 @@
         <v>26760210</v>
       </c>
       <c r="AI179" s="7">
-        <f>AH179*100/AF179</f>
+        <f t="shared" si="30"/>
         <v>79.642721270430727</v>
       </c>
       <c r="AJ179" s="1">
         <v>3236511</v>
       </c>
       <c r="AK179" s="7">
-        <f>AJ179*100/AF179</f>
+        <f t="shared" si="31"/>
         <v>9.6323811906439829</v>
       </c>
       <c r="AL179" s="1">
         <v>1206302</v>
       </c>
       <c r="AM179" s="7">
-        <f>AL179*100/AF179</f>
+        <f t="shared" si="32"/>
         <v>3.5901502250529096</v>
       </c>
       <c r="AN179" s="7">
-        <f>SUM(AI179,AK179,AM179)</f>
+        <f t="shared" si="33"/>
         <v>92.865252686127619</v>
       </c>
       <c r="AO179" s="1">
@@ -29845,14 +29845,14 @@
         <v>1127651</v>
       </c>
       <c r="AQ179" s="7">
-        <f>AP179*100/AF179</f>
+        <f t="shared" si="34"/>
         <v>3.3560721041921</v>
       </c>
       <c r="AR179" s="1">
         <v>1269647</v>
       </c>
       <c r="AS179" s="7">
-        <f>AR179*100/AF179</f>
+        <f t="shared" si="35"/>
         <v>3.7786752096802885</v>
       </c>
     </row>
@@ -29960,25 +29960,25 @@
         <v>20360245</v>
       </c>
       <c r="AI180" s="7">
-        <f>AH180*100/AF180</f>
+        <f t="shared" si="30"/>
         <v>70.818677011727104</v>
       </c>
       <c r="AJ180" s="1">
         <v>3684291</v>
       </c>
       <c r="AK180" s="7">
-        <f>AJ180*100/AF180</f>
+        <f t="shared" si="31"/>
         <v>12.815003667500712</v>
       </c>
       <c r="AL180" s="1">
         <v>2604336</v>
       </c>
       <c r="AM180" s="7">
-        <f>AL180*100/AF180</f>
+        <f t="shared" si="32"/>
         <v>9.0586154544806945</v>
       </c>
       <c r="AN180" s="7">
-        <f>SUM(AI180,AK180,AM180)</f>
+        <f t="shared" si="33"/>
         <v>92.69229613370851</v>
       </c>
       <c r="AO180" s="1">
@@ -29988,14 +29988,14 @@
         <v>805378</v>
       </c>
       <c r="AQ180" s="7">
-        <f>AP180*100/AF180</f>
+        <f t="shared" si="34"/>
         <v>2.8013319316319989</v>
       </c>
       <c r="AR180" s="1">
         <v>1295574</v>
       </c>
       <c r="AS180" s="7">
-        <f>AR180*100/AF180</f>
+        <f t="shared" si="35"/>
         <v>4.5063719346594953</v>
       </c>
     </row>
